--- a/omipdaily_temp.xlsx
+++ b/omipdaily_temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="323">
   <si>
     <t>NOTE: Circulation and commercial use of OMIPdaily reports outside a Client's licensed distribution area is strictly prohibited. Clients that are unsure of their licensed distribution or require an extension of their current license should contact OMIP, or email: marketing@omip.pt.</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Daily Trading Report:</t>
   </si>
   <si>
-    <t>03/10/2025</t>
+    <t>06/10/2025</t>
   </si>
   <si>
     <t>Power (FTB/FTK/FPB/FDB/FFB/FGE/FWB/SWB/SPB) &amp; Nat Gas (FGE) &amp; Financial Transmission Rights (FTR) &amp; Options on FTB (OEB)</t>
@@ -140,21 +140,12 @@
     <t>%</t>
   </si>
   <si>
-    <t>FTB D Sa04Oct-25</t>
+    <t>FTB D Tu07Oct-25</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>FTB D Su05Oct-25</t>
-  </si>
-  <si>
-    <t>FTB D Mo06Oct-25</t>
-  </si>
-  <si>
-    <t>FTB D Tu07Oct-25</t>
-  </si>
-  <si>
     <t>FTB D We08Oct-25</t>
   </si>
   <si>
@@ -170,15 +161,9 @@
     <t>FTB D Su12Oct-25</t>
   </si>
   <si>
-    <t>FTB WE 04Oct-25</t>
-  </si>
-  <si>
     <t>FTB WE 11Oct-25</t>
   </si>
   <si>
-    <t>FTB Wk41-25</t>
-  </si>
-  <si>
     <t>FTB Wk42-25</t>
   </si>
   <si>
@@ -188,6 +173,9 @@
     <t>FTB Wk44-25</t>
   </si>
   <si>
+    <t>FTB Wk45-25</t>
+  </si>
+  <si>
     <t>FTB M Nov-25</t>
   </si>
   <si>
@@ -266,15 +254,6 @@
     <t>FTB PPA 26/35</t>
   </si>
   <si>
-    <t>FPB D Sa04Oct-25</t>
-  </si>
-  <si>
-    <t>FPB D Su05Oct-25</t>
-  </si>
-  <si>
-    <t>FPB D Mo06Oct-25</t>
-  </si>
-  <si>
     <t>FPB D Tu07Oct-25</t>
   </si>
   <si>
@@ -293,15 +272,9 @@
     <t>FPB D Su12Oct-25</t>
   </si>
   <si>
-    <t>FPB WE 04Oct-25</t>
-  </si>
-  <si>
     <t>FPB WE 11Oct-25</t>
   </si>
   <si>
-    <t>FPB Wk41-25</t>
-  </si>
-  <si>
     <t>FPB Wk42-25</t>
   </si>
   <si>
@@ -311,6 +284,9 @@
     <t>FPB Wk44-25</t>
   </si>
   <si>
+    <t>FPB Wk45-25</t>
+  </si>
+  <si>
     <t>FPB M Nov-25</t>
   </si>
   <si>
@@ -380,15 +356,6 @@
     <t>FPB YR-35</t>
   </si>
   <si>
-    <t>FTS D Sa04Oct-25</t>
-  </si>
-  <si>
-    <t>FTS D Su05Oct-25</t>
-  </si>
-  <si>
-    <t>FTS D Mo06Oct-25</t>
-  </si>
-  <si>
     <t>FTS D Tu07Oct-25</t>
   </si>
   <si>
@@ -407,15 +374,9 @@
     <t>FTS D Su12Oct-25</t>
   </si>
   <si>
-    <t>FTS WE 04Oct-25</t>
-  </si>
-  <si>
     <t>FTS WE 11Oct-25</t>
   </si>
   <si>
-    <t>FTS Wk41-25</t>
-  </si>
-  <si>
     <t>FTS Wk42-25</t>
   </si>
   <si>
@@ -425,6 +386,9 @@
     <t>FTS Wk44-25</t>
   </si>
   <si>
+    <t>FTS Wk45-25</t>
+  </si>
+  <si>
     <t>FTS M Nov-25</t>
   </si>
   <si>
@@ -503,9 +467,6 @@
     <t>FTS PPA 26/35</t>
   </si>
   <si>
-    <t>FTK D Mo06Oct-25</t>
-  </si>
-  <si>
     <t>FTK D Tu07Oct-25</t>
   </si>
   <si>
@@ -518,9 +479,6 @@
     <t>FTK D Fr10Oct-25</t>
   </si>
   <si>
-    <t>FTK Wk41-25</t>
-  </si>
-  <si>
     <t>FTK Wk42-25</t>
   </si>
   <si>
@@ -530,6 +488,9 @@
     <t>FTK Wk44-25</t>
   </si>
   <si>
+    <t>FTK Wk45-25</t>
+  </si>
+  <si>
     <t>FTK M Nov-25</t>
   </si>
   <si>
@@ -599,9 +560,6 @@
     <t>FTK YR-35</t>
   </si>
   <si>
-    <t>FWB Wk41-25</t>
-  </si>
-  <si>
     <t>FWB Wk42-25</t>
   </si>
   <si>
@@ -611,6 +569,9 @@
     <t>FWB Wk44-25</t>
   </si>
   <si>
+    <t>FWB Wk45-25</t>
+  </si>
+  <si>
     <t>FWB M Nov-25</t>
   </si>
   <si>
@@ -680,15 +641,6 @@
     <t>FWB YR-35</t>
   </si>
   <si>
-    <t>SPB D Sa04Oct-25</t>
-  </si>
-  <si>
-    <t>SPB D Su05Oct-25</t>
-  </si>
-  <si>
-    <t>SPB D Mo06Oct-25</t>
-  </si>
-  <si>
     <t>SPB D Tu07Oct-25</t>
   </si>
   <si>
@@ -707,15 +659,9 @@
     <t>SPB D Su12Oct-25</t>
   </si>
   <si>
-    <t>SPB WE 04Oct-25</t>
-  </si>
-  <si>
     <t>SPB WE 11Oct-25</t>
   </si>
   <si>
-    <t>SPB Wk41-25</t>
-  </si>
-  <si>
     <t>SPB Wk42-25</t>
   </si>
   <si>
@@ -725,6 +671,9 @@
     <t>SPB Wk44-25</t>
   </si>
   <si>
+    <t>SPB Wk45-25</t>
+  </si>
+  <si>
     <t>SPB M Nov-25</t>
   </si>
   <si>
@@ -794,15 +743,6 @@
     <t>SPB YR-35</t>
   </si>
   <si>
-    <t>SWB D Sa04Oct-25</t>
-  </si>
-  <si>
-    <t>SWB D Su05Oct-25</t>
-  </si>
-  <si>
-    <t>SWB D Mo06Oct-25</t>
-  </si>
-  <si>
     <t>SWB D Tu07Oct-25</t>
   </si>
   <si>
@@ -821,15 +761,9 @@
     <t>SWB D Su12Oct-25</t>
   </si>
   <si>
-    <t>SWB WE 04Oct-25</t>
-  </si>
-  <si>
     <t>SWB WE 11Oct-25</t>
   </si>
   <si>
-    <t>SWB Wk41-25</t>
-  </si>
-  <si>
     <t>SWB Wk42-25</t>
   </si>
   <si>
@@ -837,6 +771,9 @@
   </si>
   <si>
     <t>SWB Wk44-25</t>
+  </si>
+  <si>
+    <t>SWB Wk45-25</t>
   </si>
   <si>
     <t>SWB M Nov-25</t>
@@ -1155,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1284,69 +1221,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -2238,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U311"/>
+  <dimension ref="A1:U290"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -2478,10 +2352,10 @@
         <v>24.0</v>
       </c>
       <c r="K11" t="n" s="48">
-        <v>53.1</v>
+        <v>98.65</v>
       </c>
       <c r="L11" t="n" s="48">
-        <v>12.56</v>
+        <v>10.07</v>
       </c>
       <c r="T11" t="n" s="48">
         <v>34.0</v>
@@ -2501,10 +2375,10 @@
         <v>24.0</v>
       </c>
       <c r="K12" t="n" s="49">
-        <v>25.9</v>
+        <v>89.0</v>
       </c>
       <c r="L12" t="n" s="49">
-        <v>-11.56</v>
+        <v>1.63</v>
       </c>
       <c r="T12" t="n" s="49">
         <v>30.0</v>
@@ -2524,10 +2398,10 @@
         <v>24.0</v>
       </c>
       <c r="K13" t="n" s="50">
-        <v>85.87</v>
-      </c>
-      <c r="L13" t="s" s="46">
-        <v>43</v>
+        <v>89.11</v>
+      </c>
+      <c r="L13" t="n" s="50">
+        <v>1.63</v>
       </c>
       <c r="T13" t="n" s="50">
         <v>58.0</v>
@@ -2547,10 +2421,10 @@
         <v>24.0</v>
       </c>
       <c r="K14" t="n" s="51">
-        <v>88.58</v>
-      </c>
-      <c r="L14" t="s" s="46">
-        <v>43</v>
+        <v>87.3</v>
+      </c>
+      <c r="L14" t="n" s="51">
+        <v>1.63</v>
       </c>
       <c r="T14" t="n" s="51">
         <v>58.0</v>
@@ -2570,10 +2444,10 @@
         <v>24.0</v>
       </c>
       <c r="K15" t="n" s="52">
-        <v>87.37</v>
-      </c>
-      <c r="L15" t="s" s="46">
-        <v>43</v>
+        <v>78.16</v>
+      </c>
+      <c r="L15" t="n" s="52">
+        <v>1.63</v>
       </c>
       <c r="T15" t="n" s="52">
         <v>42.0</v>
@@ -2593,10 +2467,10 @@
         <v>24.0</v>
       </c>
       <c r="K16" t="n" s="53">
-        <v>87.48</v>
-      </c>
-      <c r="L16" t="s" s="46">
-        <v>43</v>
+        <v>71.14</v>
+      </c>
+      <c r="L16" t="n" s="53">
+        <v>1.63</v>
       </c>
       <c r="T16" t="n" s="53">
         <v>58.0</v>
@@ -2613,16 +2487,16 @@
         <v>49</v>
       </c>
       <c r="C17" t="n" s="47">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="K17" t="n" s="54">
-        <v>85.67</v>
-      </c>
-      <c r="L17" t="s" s="46">
-        <v>43</v>
+        <v>74.65</v>
+      </c>
+      <c r="L17" t="n" s="54">
+        <v>1.63</v>
       </c>
       <c r="T17" t="n" s="54">
-        <v>58.0</v>
+        <v>22.0</v>
       </c>
       <c r="U17" t="s" s="46">
         <v>43</v>
@@ -2636,16 +2510,16 @@
         <v>50</v>
       </c>
       <c r="C18" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K18" t="n" s="55">
-        <v>76.53</v>
-      </c>
-      <c r="L18" t="s" s="46">
-        <v>43</v>
+        <v>87.0</v>
+      </c>
+      <c r="L18" t="n" s="55">
+        <v>6.5</v>
       </c>
       <c r="T18" t="n" s="55">
-        <v>58.0</v>
+        <v>19.0</v>
       </c>
       <c r="U18" t="s" s="46">
         <v>43</v>
@@ -2659,16 +2533,16 @@
         <v>51</v>
       </c>
       <c r="C19" t="n" s="47">
-        <v>24.0</v>
+        <v>169.0</v>
       </c>
       <c r="K19" t="n" s="56">
-        <v>69.51</v>
-      </c>
-      <c r="L19" t="s" s="46">
-        <v>43</v>
+        <v>78.0</v>
+      </c>
+      <c r="L19" t="n" s="56">
+        <v>2.0</v>
       </c>
       <c r="T19" t="n" s="56">
-        <v>58.0</v>
+        <v>20.0</v>
       </c>
       <c r="U19" t="s" s="46">
         <v>43</v>
@@ -2682,16 +2556,16 @@
         <v>52</v>
       </c>
       <c r="C20" t="n" s="47">
-        <v>48.0</v>
+        <v>168.0</v>
       </c>
       <c r="K20" t="n" s="57">
-        <v>39.5</v>
+        <v>77.28</v>
       </c>
       <c r="L20" t="n" s="57">
-        <v>0.5</v>
+        <v>2.03</v>
       </c>
       <c r="T20" t="n" s="57">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="U20" t="s" s="46">
         <v>43</v>
@@ -2705,16 +2579,16 @@
         <v>53</v>
       </c>
       <c r="C21" t="n" s="47">
-        <v>48.0</v>
+        <v>168.0</v>
       </c>
       <c r="K21" t="n" s="58">
-        <v>73.02</v>
+        <v>77.85</v>
       </c>
       <c r="L21" t="s" s="46">
         <v>43</v>
       </c>
       <c r="T21" t="n" s="58">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="U21" t="s" s="46">
         <v>43</v>
@@ -2728,19 +2602,25 @@
         <v>54</v>
       </c>
       <c r="C22" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
+      </c>
+      <c r="I22" t="n" s="59">
+        <v>76.8</v>
       </c>
       <c r="J22" t="n" s="59">
-        <v>85.0</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n" s="59">
-        <v>83.0</v>
+        <v>77.85</v>
       </c>
       <c r="L22" t="n" s="59">
-        <v>7.8</v>
+        <v>2.1</v>
+      </c>
+      <c r="S22" t="n" s="46">
+        <v>477.0</v>
       </c>
       <c r="T22" t="n" s="59">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="U22" t="s" s="46">
         <v>43</v>
@@ -2754,16 +2634,46 @@
         <v>55</v>
       </c>
       <c r="C23" t="n" s="47">
-        <v>168.0</v>
+        <v>744.0</v>
+      </c>
+      <c r="E23" t="n" s="60">
+        <v>76.0</v>
+      </c>
+      <c r="F23" t="n" s="60">
+        <v>76.0</v>
+      </c>
+      <c r="G23" t="n" s="60">
+        <v>76.0</v>
+      </c>
+      <c r="H23" t="n" s="60">
+        <v>76.0</v>
+      </c>
+      <c r="I23" t="n" s="60">
+        <v>74.6</v>
+      </c>
+      <c r="J23" t="n" s="60">
+        <v>76.0</v>
       </c>
       <c r="K23" t="n" s="60">
-        <v>80.5</v>
+        <v>76.0</v>
       </c>
       <c r="L23" t="n" s="60">
-        <v>4.5</v>
+        <v>2.0</v>
+      </c>
+      <c r="N23" t="n" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n" s="60">
+        <v>744.0</v>
+      </c>
+      <c r="P23" t="n" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="S23" t="n" s="46">
+        <v>474.0</v>
       </c>
       <c r="T23" t="n" s="60">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U23" t="s" s="46">
         <v>43</v>
@@ -2777,16 +2687,19 @@
         <v>56</v>
       </c>
       <c r="C24" t="n" s="47">
-        <v>169.0</v>
+        <v>744.0</v>
       </c>
       <c r="K24" t="n" s="61">
-        <v>76.0</v>
+        <v>74.6</v>
       </c>
       <c r="L24" t="n" s="61">
-        <v>0.0</v>
+        <v>0.35</v>
+      </c>
+      <c r="S24" t="n" s="46">
+        <v>7.0</v>
       </c>
       <c r="T24" t="n" s="61">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U24" t="s" s="46">
         <v>43</v>
@@ -2800,16 +2713,16 @@
         <v>57</v>
       </c>
       <c r="C25" t="n" s="47">
-        <v>168.0</v>
+        <v>672.0</v>
       </c>
       <c r="K25" t="n" s="62">
-        <v>75.25</v>
+        <v>72.92</v>
       </c>
       <c r="L25" t="n" s="62">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="T25" t="n" s="62">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="U25" t="s" s="46">
         <v>43</v>
@@ -2823,25 +2736,16 @@
         <v>58</v>
       </c>
       <c r="C26" t="n" s="47">
-        <v>720.0</v>
-      </c>
-      <c r="I26" t="n" s="63">
-        <v>74.25</v>
-      </c>
-      <c r="J26" t="n" s="63">
-        <v>76.65</v>
+        <v>743.0</v>
       </c>
       <c r="K26" t="n" s="63">
-        <v>75.75</v>
+        <v>45.75</v>
       </c>
       <c r="L26" t="n" s="63">
-        <v>1.75</v>
-      </c>
-      <c r="S26" t="n" s="46">
-        <v>477.0</v>
+        <v>0.23</v>
       </c>
       <c r="T26" t="n" s="63">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="U26" t="s" s="46">
         <v>43</v>
@@ -2855,25 +2759,16 @@
         <v>59</v>
       </c>
       <c r="C27" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="I27" t="n" s="64">
-        <v>73.6</v>
-      </c>
-      <c r="J27" t="n" s="64">
-        <v>74.8</v>
+        <v>720.0</v>
       </c>
       <c r="K27" t="n" s="64">
-        <v>74.0</v>
+        <v>29.16</v>
       </c>
       <c r="L27" t="n" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="S27" t="n" s="46">
-        <v>473.0</v>
+        <v>0.7</v>
       </c>
       <c r="T27" t="n" s="64">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U27" t="s" s="46">
         <v>43</v>
@@ -2887,19 +2782,25 @@
         <v>60</v>
       </c>
       <c r="C28" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
+      </c>
+      <c r="I28" t="n" s="65">
+        <v>63.25</v>
+      </c>
+      <c r="J28" t="n" s="65">
+        <v>65.25</v>
       </c>
       <c r="K28" t="n" s="65">
-        <v>74.25</v>
+        <v>64.15</v>
       </c>
       <c r="L28" t="n" s="65">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="S28" t="n" s="46">
+        <v>156.0</v>
+      </c>
+      <c r="T28" t="n" s="65">
         <v>7.0</v>
-      </c>
-      <c r="T28" t="n" s="65">
-        <v>8.0</v>
       </c>
       <c r="U28" t="s" s="46">
         <v>43</v>
@@ -2913,16 +2814,25 @@
         <v>61</v>
       </c>
       <c r="C29" t="n" s="47">
-        <v>672.0</v>
+        <v>2184.0</v>
+      </c>
+      <c r="I29" t="n" s="66">
+        <v>40.25</v>
+      </c>
+      <c r="J29" t="n" s="66">
+        <v>42.25</v>
       </c>
       <c r="K29" t="n" s="66">
-        <v>72.28</v>
+        <v>41.0</v>
       </c>
       <c r="L29" t="n" s="66">
-        <v>-0.22</v>
+        <v>0.7</v>
+      </c>
+      <c r="S29" t="n" s="46">
+        <v>7.0</v>
       </c>
       <c r="T29" t="n" s="66">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="U29" t="s" s="46">
         <v>43</v>
@@ -2936,16 +2846,19 @@
         <v>62</v>
       </c>
       <c r="C30" t="n" s="47">
-        <v>743.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K30" t="n" s="67">
-        <v>45.52</v>
+        <v>67.64</v>
       </c>
       <c r="L30" t="n" s="67">
-        <v>0.94</v>
+        <v>0.46</v>
+      </c>
+      <c r="S30" t="n" s="46">
+        <v>5.0</v>
       </c>
       <c r="T30" t="n" s="67">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U30" t="s" s="46">
         <v>43</v>
@@ -2959,16 +2872,19 @@
         <v>63</v>
       </c>
       <c r="C31" t="n" s="47">
-        <v>720.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K31" t="n" s="68">
-        <v>28.46</v>
+        <v>74.23</v>
       </c>
       <c r="L31" t="n" s="68">
-        <v>0.65</v>
+        <v>0.44</v>
+      </c>
+      <c r="S31" t="n" s="46">
+        <v>11.0</v>
       </c>
       <c r="T31" t="n" s="68">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U31" t="s" s="46">
         <v>43</v>
@@ -2984,17 +2900,11 @@
       <c r="C32" t="n" s="47">
         <v>2159.0</v>
       </c>
-      <c r="J32" t="n" s="69">
-        <v>63.85</v>
-      </c>
       <c r="K32" t="n" s="69">
-        <v>63.75</v>
+        <v>64.96</v>
       </c>
       <c r="L32" t="n" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="S32" t="n" s="46">
-        <v>156.0</v>
+        <v>0.5</v>
       </c>
       <c r="T32" t="n" s="69">
         <v>7.0</v>
@@ -3014,16 +2924,13 @@
         <v>2184.0</v>
       </c>
       <c r="K33" t="n" s="70">
-        <v>40.3</v>
+        <v>36.27</v>
       </c>
       <c r="L33" t="n" s="70">
-        <v>0.65</v>
-      </c>
-      <c r="S33" t="n" s="46">
-        <v>7.0</v>
+        <v>0.5</v>
       </c>
       <c r="T33" t="n" s="70">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U33" t="s" s="46">
         <v>43</v>
@@ -3040,13 +2947,10 @@
         <v>2208.0</v>
       </c>
       <c r="K34" t="n" s="71">
-        <v>67.18</v>
+        <v>65.09</v>
       </c>
       <c r="L34" t="n" s="71">
-        <v>0.88</v>
-      </c>
-      <c r="S34" t="n" s="46">
-        <v>5.0</v>
+        <v>0.5</v>
       </c>
       <c r="T34" t="n" s="71">
         <v>3.0</v>
@@ -3063,19 +2967,25 @@
         <v>67</v>
       </c>
       <c r="C35" t="n" s="47">
-        <v>2209.0</v>
+        <v>8760.0</v>
+      </c>
+      <c r="I35" t="n" s="72">
+        <v>61.25</v>
+      </c>
+      <c r="J35" t="n" s="72">
+        <v>62.25</v>
       </c>
       <c r="K35" t="n" s="72">
-        <v>73.79</v>
+        <v>61.8</v>
       </c>
       <c r="L35" t="n" s="72">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="S35" t="n" s="46">
-        <v>11.0</v>
+        <v>288.0</v>
       </c>
       <c r="T35" t="n" s="72">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U35" t="s" s="46">
         <v>43</v>
@@ -3089,16 +2999,25 @@
         <v>68</v>
       </c>
       <c r="C36" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
+      </c>
+      <c r="I36" t="n" s="73">
+        <v>58.25</v>
+      </c>
+      <c r="J36" t="n" s="73">
+        <v>60.25</v>
       </c>
       <c r="K36" t="n" s="73">
-        <v>64.46</v>
+        <v>59.4</v>
       </c>
       <c r="L36" t="n" s="73">
-        <v>0.35</v>
+        <v>0.5</v>
+      </c>
+      <c r="S36" t="n" s="46">
+        <v>147.0</v>
       </c>
       <c r="T36" t="n" s="73">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U36" t="s" s="46">
         <v>43</v>
@@ -3112,16 +3031,19 @@
         <v>69</v>
       </c>
       <c r="C37" t="n" s="47">
-        <v>2184.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K37" t="n" s="74">
-        <v>35.77</v>
+        <v>58.85</v>
       </c>
       <c r="L37" t="n" s="74">
-        <v>0.35</v>
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n" s="46">
+        <v>107.0</v>
       </c>
       <c r="T37" t="n" s="74">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U37" t="s" s="46">
         <v>43</v>
@@ -3135,13 +3057,16 @@
         <v>70</v>
       </c>
       <c r="C38" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K38" t="n" s="75">
-        <v>64.59</v>
+        <v>58.3</v>
       </c>
       <c r="L38" t="n" s="75">
-        <v>0.35</v>
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n" s="46">
+        <v>101.0</v>
       </c>
       <c r="T38" t="n" s="75">
         <v>3.0</v>
@@ -3160,23 +3085,17 @@
       <c r="C39" t="n" s="47">
         <v>8760.0</v>
       </c>
-      <c r="I39" t="n" s="76">
-        <v>60.85</v>
-      </c>
-      <c r="J39" t="n" s="76">
-        <v>61.85</v>
-      </c>
       <c r="K39" t="n" s="76">
-        <v>61.3</v>
+        <v>58.0</v>
       </c>
       <c r="L39" t="n" s="76">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="S39" t="n" s="46">
-        <v>288.0</v>
+        <v>99.0</v>
       </c>
       <c r="T39" t="n" s="76">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U39" t="s" s="46">
         <v>43</v>
@@ -3192,17 +3111,14 @@
       <c r="C40" t="n" s="47">
         <v>8760.0</v>
       </c>
-      <c r="I40" t="n" s="77">
+      <c r="K40" t="n" s="77">
         <v>58.0</v>
       </c>
-      <c r="K40" t="n" s="77">
-        <v>58.9</v>
-      </c>
       <c r="L40" t="n" s="77">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="S40" t="n" s="46">
-        <v>147.0</v>
+        <v>97.0</v>
       </c>
       <c r="T40" t="n" s="77">
         <v>3.0</v>
@@ -3222,13 +3138,13 @@
         <v>8784.0</v>
       </c>
       <c r="K41" t="n" s="78">
-        <v>58.85</v>
+        <v>58.0</v>
       </c>
       <c r="L41" t="n" s="78">
         <v>0.0</v>
       </c>
       <c r="S41" t="n" s="46">
-        <v>107.0</v>
+        <v>15.0</v>
       </c>
       <c r="T41" t="n" s="78">
         <v>3.0</v>
@@ -3248,13 +3164,13 @@
         <v>8760.0</v>
       </c>
       <c r="K42" t="n" s="79">
-        <v>58.3</v>
+        <v>57.85</v>
       </c>
       <c r="L42" t="n" s="79">
         <v>0.0</v>
       </c>
       <c r="S42" t="n" s="46">
-        <v>101.0</v>
+        <v>15.0</v>
       </c>
       <c r="T42" t="n" s="79">
         <v>3.0</v>
@@ -3274,13 +3190,10 @@
         <v>8760.0</v>
       </c>
       <c r="K43" t="n" s="80">
-        <v>58.0</v>
+        <v>57.85</v>
       </c>
       <c r="L43" t="n" s="80">
         <v>0.0</v>
-      </c>
-      <c r="S43" t="n" s="46">
-        <v>99.0</v>
       </c>
       <c r="T43" t="n" s="80">
         <v>3.0</v>
@@ -3300,16 +3213,13 @@
         <v>8760.0</v>
       </c>
       <c r="K44" t="n" s="81">
-        <v>58.0</v>
+        <v>57.85</v>
       </c>
       <c r="L44" t="n" s="81">
         <v>0.0</v>
       </c>
-      <c r="S44" t="n" s="46">
-        <v>97.0</v>
-      </c>
       <c r="T44" t="n" s="81">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U44" t="s" s="46">
         <v>43</v>
@@ -3323,16 +3233,13 @@
         <v>77</v>
       </c>
       <c r="C45" t="n" s="47">
-        <v>8784.0</v>
+        <v>43824.0</v>
       </c>
       <c r="K45" t="n" s="82">
-        <v>58.0</v>
+        <v>59.27</v>
       </c>
       <c r="L45" t="n" s="82">
-        <v>0.0</v>
-      </c>
-      <c r="S45" t="n" s="46">
-        <v>15.0</v>
+        <v>0.2</v>
       </c>
       <c r="T45" t="n" s="82">
         <v>3.0</v>
@@ -3349,16 +3256,13 @@
         <v>78</v>
       </c>
       <c r="C46" t="n" s="47">
-        <v>8760.0</v>
+        <v>43824.0</v>
       </c>
       <c r="K46" t="n" s="83">
-        <v>57.85</v>
+        <v>58.51</v>
       </c>
       <c r="L46" t="n" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="S46" t="n" s="46">
-        <v>15.0</v>
+        <v>0.1</v>
       </c>
       <c r="T46" t="n" s="83">
         <v>3.0</v>
@@ -3375,13 +3279,13 @@
         <v>79</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>8760.0</v>
+        <v>87648.0</v>
       </c>
       <c r="K47" t="n" s="84">
-        <v>57.85</v>
+        <v>58.59</v>
       </c>
       <c r="L47" t="n" s="84">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="T47" t="n" s="84">
         <v>3.0</v>
@@ -3398,16 +3302,16 @@
         <v>80</v>
       </c>
       <c r="C48" t="n" s="47">
-        <v>8760.0</v>
+        <v>24.0</v>
       </c>
       <c r="K48" t="n" s="85">
-        <v>57.85</v>
+        <v>98.65</v>
       </c>
       <c r="L48" t="n" s="85">
-        <v>0.0</v>
+        <v>9.94</v>
       </c>
       <c r="T48" t="n" s="85">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="U48" t="s" s="46">
         <v>43</v>
@@ -3421,16 +3325,16 @@
         <v>81</v>
       </c>
       <c r="C49" t="n" s="47">
-        <v>43824.0</v>
+        <v>24.0</v>
       </c>
       <c r="K49" t="n" s="86">
-        <v>59.07</v>
+        <v>88.74</v>
       </c>
       <c r="L49" t="n" s="86">
-        <v>0.17</v>
+        <v>1.1</v>
       </c>
       <c r="T49" t="n" s="86">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="U49" t="s" s="46">
         <v>43</v>
@@ -3444,16 +3348,16 @@
         <v>82</v>
       </c>
       <c r="C50" t="n" s="47">
-        <v>43824.0</v>
+        <v>24.0</v>
       </c>
       <c r="K50" t="n" s="87">
-        <v>58.41</v>
+        <v>88.85</v>
       </c>
       <c r="L50" t="n" s="87">
-        <v>0.07</v>
+        <v>0.58</v>
       </c>
       <c r="T50" t="n" s="87">
-        <v>3.0</v>
+        <v>60.0</v>
       </c>
       <c r="U50" t="s" s="46">
         <v>43</v>
@@ -3467,16 +3371,16 @@
         <v>83</v>
       </c>
       <c r="C51" t="n" s="47">
-        <v>87648.0</v>
+        <v>24.0</v>
       </c>
       <c r="K51" t="n" s="88">
-        <v>58.49</v>
+        <v>87.04</v>
       </c>
       <c r="L51" t="n" s="88">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T51" t="n" s="88">
-        <v>3.0</v>
+        <v>60.0</v>
       </c>
       <c r="U51" t="s" s="46">
         <v>43</v>
@@ -3493,13 +3397,13 @@
         <v>24.0</v>
       </c>
       <c r="K52" t="n" s="89">
-        <v>53.13</v>
+        <v>77.9</v>
       </c>
       <c r="L52" t="n" s="89">
-        <v>12.56</v>
+        <v>0.71</v>
       </c>
       <c r="T52" t="n" s="89">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="U52" t="s" s="46">
         <v>43</v>
@@ -3516,13 +3420,13 @@
         <v>24.0</v>
       </c>
       <c r="K53" t="n" s="90">
-        <v>25.93</v>
+        <v>70.88</v>
       </c>
       <c r="L53" t="n" s="90">
-        <v>-11.56</v>
+        <v>-0.04</v>
       </c>
       <c r="T53" t="n" s="90">
-        <v>31.0</v>
+        <v>60.0</v>
       </c>
       <c r="U53" t="s" s="46">
         <v>43</v>
@@ -3536,16 +3440,16 @@
         <v>86</v>
       </c>
       <c r="C54" t="n" s="47">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="K54" t="n" s="91">
-        <v>86.54</v>
-      </c>
-      <c r="L54" t="s" s="46">
-        <v>43</v>
+        <v>74.39</v>
+      </c>
+      <c r="L54" t="n" s="91">
+        <v>0.33</v>
       </c>
       <c r="T54" t="n" s="91">
-        <v>60.0</v>
+        <v>23.0</v>
       </c>
       <c r="U54" t="s" s="46">
         <v>43</v>
@@ -3559,16 +3463,16 @@
         <v>87</v>
       </c>
       <c r="C55" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K55" t="n" s="92">
-        <v>88.71</v>
-      </c>
-      <c r="L55" t="s" s="46">
-        <v>43</v>
+        <v>87.65</v>
+      </c>
+      <c r="L55" t="n" s="92">
+        <v>6.5</v>
       </c>
       <c r="T55" t="n" s="92">
-        <v>60.0</v>
+        <v>18.0</v>
       </c>
       <c r="U55" t="s" s="46">
         <v>43</v>
@@ -3582,16 +3486,16 @@
         <v>88</v>
       </c>
       <c r="C56" t="n" s="47">
-        <v>24.0</v>
+        <v>169.0</v>
       </c>
       <c r="K56" t="n" s="93">
-        <v>87.64</v>
-      </c>
-      <c r="L56" t="s" s="46">
-        <v>43</v>
+        <v>78.65</v>
+      </c>
+      <c r="L56" t="n" s="93">
+        <v>2.0</v>
       </c>
       <c r="T56" t="n" s="93">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="U56" t="s" s="46">
         <v>43</v>
@@ -3605,16 +3509,16 @@
         <v>89</v>
       </c>
       <c r="C57" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K57" t="n" s="94">
-        <v>88.27</v>
-      </c>
-      <c r="L57" t="s" s="46">
-        <v>43</v>
+        <v>77.93</v>
+      </c>
+      <c r="L57" t="n" s="94">
+        <v>2.03</v>
       </c>
       <c r="T57" t="n" s="94">
-        <v>60.0</v>
+        <v>17.0</v>
       </c>
       <c r="U57" t="s" s="46">
         <v>43</v>
@@ -3628,16 +3532,16 @@
         <v>90</v>
       </c>
       <c r="C58" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K58" t="n" s="95">
-        <v>86.28</v>
+        <v>78.5</v>
       </c>
       <c r="L58" t="s" s="46">
         <v>43</v>
       </c>
       <c r="T58" t="n" s="95">
-        <v>60.0</v>
+        <v>12.0</v>
       </c>
       <c r="U58" t="s" s="46">
         <v>43</v>
@@ -3651,16 +3555,19 @@
         <v>91</v>
       </c>
       <c r="C59" t="n" s="47">
-        <v>24.0</v>
+        <v>720.0</v>
       </c>
       <c r="K59" t="n" s="96">
-        <v>77.19</v>
-      </c>
-      <c r="L59" t="s" s="46">
-        <v>43</v>
+        <v>78.5</v>
+      </c>
+      <c r="L59" t="n" s="96">
+        <v>2.1</v>
+      </c>
+      <c r="S59" t="n" s="46">
+        <v>563.0</v>
       </c>
       <c r="T59" t="n" s="96">
-        <v>60.0</v>
+        <v>9.0</v>
       </c>
       <c r="U59" t="s" s="46">
         <v>43</v>
@@ -3674,16 +3581,19 @@
         <v>92</v>
       </c>
       <c r="C60" t="n" s="47">
-        <v>24.0</v>
+        <v>744.0</v>
       </c>
       <c r="K60" t="n" s="97">
-        <v>70.92</v>
-      </c>
-      <c r="L60" t="s" s="46">
-        <v>43</v>
+        <v>76.65</v>
+      </c>
+      <c r="L60" t="n" s="97">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n" s="46">
+        <v>563.0</v>
       </c>
       <c r="T60" t="n" s="97">
-        <v>60.0</v>
+        <v>8.0</v>
       </c>
       <c r="U60" t="s" s="46">
         <v>43</v>
@@ -3697,16 +3607,16 @@
         <v>93</v>
       </c>
       <c r="C61" t="n" s="47">
-        <v>48.0</v>
+        <v>744.0</v>
       </c>
       <c r="K61" t="n" s="98">
-        <v>39.53</v>
+        <v>75.6</v>
       </c>
       <c r="L61" t="n" s="98">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="T61" t="n" s="98">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="U61" t="s" s="46">
         <v>43</v>
@@ -3720,16 +3630,16 @@
         <v>94</v>
       </c>
       <c r="C62" t="n" s="47">
-        <v>48.0</v>
+        <v>672.0</v>
       </c>
       <c r="K62" t="n" s="99">
-        <v>74.06</v>
-      </c>
-      <c r="L62" t="s" s="46">
-        <v>43</v>
+        <v>73.92</v>
+      </c>
+      <c r="L62" t="n" s="99">
+        <v>0.64</v>
       </c>
       <c r="T62" t="n" s="99">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="U62" t="s" s="46">
         <v>43</v>
@@ -3743,16 +3653,16 @@
         <v>95</v>
       </c>
       <c r="C63" t="n" s="47">
-        <v>168.0</v>
+        <v>743.0</v>
       </c>
       <c r="K63" t="n" s="100">
-        <v>83.65</v>
+        <v>46.75</v>
       </c>
       <c r="L63" t="n" s="100">
-        <v>7.8</v>
+        <v>0.23</v>
       </c>
       <c r="T63" t="n" s="100">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="U63" t="s" s="46">
         <v>43</v>
@@ -3766,16 +3676,16 @@
         <v>96</v>
       </c>
       <c r="C64" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
       </c>
       <c r="K64" t="n" s="101">
-        <v>81.15</v>
+        <v>30.16</v>
       </c>
       <c r="L64" t="n" s="101">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="T64" t="n" s="101">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="U64" t="s" s="46">
         <v>43</v>
@@ -3789,16 +3699,19 @@
         <v>97</v>
       </c>
       <c r="C65" t="n" s="47">
-        <v>169.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K65" t="n" s="102">
-        <v>76.65</v>
+        <v>65.15</v>
       </c>
       <c r="L65" t="n" s="102">
-        <v>0.0</v>
+        <v>0.4</v>
+      </c>
+      <c r="S65" t="n" s="46">
+        <v>191.0</v>
       </c>
       <c r="T65" t="n" s="102">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="U65" t="s" s="46">
         <v>43</v>
@@ -3812,16 +3725,19 @@
         <v>98</v>
       </c>
       <c r="C66" t="n" s="47">
-        <v>168.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K66" t="n" s="103">
-        <v>75.9</v>
+        <v>42.0</v>
       </c>
       <c r="L66" t="n" s="103">
-        <v>0.5</v>
+        <v>0.7</v>
+      </c>
+      <c r="S66" t="n" s="46">
+        <v>91.0</v>
       </c>
       <c r="T66" t="n" s="103">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="U66" t="s" s="46">
         <v>43</v>
@@ -3835,19 +3751,19 @@
         <v>99</v>
       </c>
       <c r="C67" t="n" s="47">
-        <v>720.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K67" t="n" s="104">
-        <v>76.4</v>
+        <v>68.64</v>
       </c>
       <c r="L67" t="n" s="104">
-        <v>1.75</v>
+        <v>0.46</v>
       </c>
       <c r="S67" t="n" s="46">
-        <v>563.0</v>
+        <v>1.0</v>
       </c>
       <c r="T67" t="n" s="104">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U67" t="s" s="46">
         <v>43</v>
@@ -3861,19 +3777,16 @@
         <v>100</v>
       </c>
       <c r="C68" t="n" s="47">
-        <v>744.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K68" t="n" s="105">
-        <v>74.65</v>
+        <v>75.23</v>
       </c>
       <c r="L68" t="n" s="105">
-        <v>0.5</v>
-      </c>
-      <c r="S68" t="n" s="46">
-        <v>563.0</v>
+        <v>0.44</v>
       </c>
       <c r="T68" t="n" s="105">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U68" t="s" s="46">
         <v>43</v>
@@ -3887,16 +3800,16 @@
         <v>101</v>
       </c>
       <c r="C69" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K69" t="n" s="106">
-        <v>75.25</v>
+        <v>65.96</v>
       </c>
       <c r="L69" t="n" s="106">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T69" t="n" s="106">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U69" t="s" s="46">
         <v>43</v>
@@ -3910,16 +3823,16 @@
         <v>102</v>
       </c>
       <c r="C70" t="n" s="47">
-        <v>672.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K70" t="n" s="107">
-        <v>73.28</v>
+        <v>37.27</v>
       </c>
       <c r="L70" t="n" s="107">
-        <v>-0.22</v>
+        <v>0.5</v>
       </c>
       <c r="T70" t="n" s="107">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U70" t="s" s="46">
         <v>43</v>
@@ -3933,16 +3846,16 @@
         <v>103</v>
       </c>
       <c r="C71" t="n" s="47">
-        <v>743.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K71" t="n" s="108">
-        <v>46.52</v>
+        <v>66.09</v>
       </c>
       <c r="L71" t="n" s="108">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="T71" t="n" s="108">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U71" t="s" s="46">
         <v>43</v>
@@ -3956,16 +3869,19 @@
         <v>104</v>
       </c>
       <c r="C72" t="n" s="47">
-        <v>720.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K72" t="n" s="109">
-        <v>29.46</v>
+        <v>62.8</v>
       </c>
       <c r="L72" t="n" s="109">
-        <v>0.65</v>
+        <v>0.5</v>
+      </c>
+      <c r="S72" t="n" s="46">
+        <v>180.0</v>
       </c>
       <c r="T72" t="n" s="109">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U72" t="s" s="46">
         <v>43</v>
@@ -3979,19 +3895,19 @@
         <v>105</v>
       </c>
       <c r="C73" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K73" t="n" s="110">
-        <v>64.75</v>
+        <v>60.4</v>
       </c>
       <c r="L73" t="n" s="110">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S73" t="n" s="46">
-        <v>191.0</v>
+        <v>1.0</v>
       </c>
       <c r="T73" t="n" s="110">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U73" t="s" s="46">
         <v>43</v>
@@ -4005,19 +3921,16 @@
         <v>106</v>
       </c>
       <c r="C74" t="n" s="47">
-        <v>2184.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K74" t="n" s="111">
-        <v>41.3</v>
+        <v>59.85</v>
       </c>
       <c r="L74" t="n" s="111">
-        <v>0.65</v>
-      </c>
-      <c r="S74" t="n" s="46">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
       <c r="T74" t="n" s="111">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U74" t="s" s="46">
         <v>43</v>
@@ -4031,16 +3944,13 @@
         <v>107</v>
       </c>
       <c r="C75" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K75" t="n" s="112">
-        <v>68.18</v>
+        <v>59.3</v>
       </c>
       <c r="L75" t="n" s="112">
-        <v>0.88</v>
-      </c>
-      <c r="S75" t="n" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T75" t="n" s="112">
         <v>4.0</v>
@@ -4057,16 +3967,16 @@
         <v>108</v>
       </c>
       <c r="C76" t="n" s="47">
-        <v>2209.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K76" t="n" s="113">
-        <v>74.79</v>
+        <v>59.0</v>
       </c>
       <c r="L76" t="n" s="113">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="T76" t="n" s="113">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U76" t="s" s="46">
         <v>43</v>
@@ -4080,16 +3990,16 @@
         <v>109</v>
       </c>
       <c r="C77" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K77" t="n" s="114">
-        <v>65.46</v>
+        <v>59.0</v>
       </c>
       <c r="L77" t="n" s="114">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="T77" t="n" s="114">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U77" t="s" s="46">
         <v>43</v>
@@ -4103,13 +4013,13 @@
         <v>110</v>
       </c>
       <c r="C78" t="n" s="47">
-        <v>2184.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K78" t="n" s="115">
-        <v>36.77</v>
+        <v>59.0</v>
       </c>
       <c r="L78" t="n" s="115">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="T78" t="n" s="115">
         <v>5.0</v>
@@ -4126,16 +4036,16 @@
         <v>111</v>
       </c>
       <c r="C79" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K79" t="n" s="116">
-        <v>65.59</v>
+        <v>58.85</v>
       </c>
       <c r="L79" t="n" s="116">
-        <v>0.35</v>
+        <v>0.0</v>
       </c>
       <c r="T79" t="n" s="116">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U79" t="s" s="46">
         <v>43</v>
@@ -4152,16 +4062,13 @@
         <v>8760.0</v>
       </c>
       <c r="K80" t="n" s="117">
-        <v>62.3</v>
+        <v>58.85</v>
       </c>
       <c r="L80" t="n" s="117">
-        <v>0.5</v>
-      </c>
-      <c r="S80" t="n" s="46">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
       <c r="T80" t="n" s="117">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U80" t="s" s="46">
         <v>43</v>
@@ -4178,16 +4085,13 @@
         <v>8760.0</v>
       </c>
       <c r="K81" t="n" s="118">
-        <v>59.9</v>
+        <v>58.85</v>
       </c>
       <c r="L81" t="n" s="118">
-        <v>0.35</v>
-      </c>
-      <c r="S81" t="n" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T81" t="n" s="118">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U81" t="s" s="46">
         <v>43</v>
@@ -4200,17 +4104,17 @@
       <c r="B82" t="s">
         <v>114</v>
       </c>
-      <c r="C82" t="n" s="47">
-        <v>8784.0</v>
+      <c r="C82" t="n" s="119">
+        <v>3.97</v>
       </c>
       <c r="K82" t="n" s="119">
-        <v>59.85</v>
+        <v>55.98</v>
       </c>
       <c r="L82" t="n" s="119">
-        <v>0.0</v>
+        <v>-12.86</v>
       </c>
       <c r="T82" t="n" s="119">
-        <v>4.0</v>
+        <v>150.0</v>
       </c>
       <c r="U82" t="s" s="46">
         <v>43</v>
@@ -4223,17 +4127,17 @@
       <c r="B83" t="s">
         <v>115</v>
       </c>
-      <c r="C83" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C83" t="n" s="120">
+        <v>3.97</v>
       </c>
       <c r="K83" t="n" s="120">
-        <v>59.3</v>
+        <v>53.81</v>
       </c>
       <c r="L83" t="n" s="120">
-        <v>0.0</v>
+        <v>-13.97</v>
       </c>
       <c r="T83" t="n" s="120">
-        <v>4.0</v>
+        <v>48.0</v>
       </c>
       <c r="U83" t="s" s="46">
         <v>43</v>
@@ -4246,17 +4150,17 @@
       <c r="B84" t="s">
         <v>116</v>
       </c>
-      <c r="C84" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C84" t="n" s="121">
+        <v>3.97</v>
       </c>
       <c r="K84" t="n" s="121">
-        <v>59.0</v>
+        <v>53.92</v>
       </c>
       <c r="L84" t="n" s="121">
-        <v>0.0</v>
+        <v>-14.4</v>
       </c>
       <c r="T84" t="n" s="121">
-        <v>4.0</v>
+        <v>131.0</v>
       </c>
       <c r="U84" t="s" s="46">
         <v>43</v>
@@ -4269,17 +4173,17 @@
       <c r="B85" t="s">
         <v>117</v>
       </c>
-      <c r="C85" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C85" t="n" s="122">
+        <v>3.97</v>
       </c>
       <c r="K85" t="n" s="122">
-        <v>59.0</v>
+        <v>52.11</v>
       </c>
       <c r="L85" t="n" s="122">
-        <v>0.0</v>
+        <v>-14.26</v>
       </c>
       <c r="T85" t="n" s="122">
-        <v>5.0</v>
+        <v>157.0</v>
       </c>
       <c r="U85" t="s" s="46">
         <v>43</v>
@@ -4292,17 +4196,17 @@
       <c r="B86" t="s">
         <v>118</v>
       </c>
-      <c r="C86" t="n" s="47">
-        <v>8784.0</v>
+      <c r="C86" t="n" s="123">
+        <v>3.97</v>
       </c>
       <c r="K86" t="n" s="123">
-        <v>59.0</v>
+        <v>55.52</v>
       </c>
       <c r="L86" t="n" s="123">
-        <v>0.0</v>
+        <v>1.63</v>
       </c>
       <c r="T86" t="n" s="123">
-        <v>5.0</v>
+        <v>76.0</v>
       </c>
       <c r="U86" t="s" s="46">
         <v>43</v>
@@ -4315,17 +4219,17 @@
       <c r="B87" t="s">
         <v>119</v>
       </c>
-      <c r="C87" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C87" t="n" s="124">
+        <v>3.97</v>
       </c>
       <c r="K87" t="n" s="124">
-        <v>58.85</v>
+        <v>46.5</v>
       </c>
       <c r="L87" t="n" s="124">
-        <v>0.0</v>
+        <v>1.63</v>
       </c>
       <c r="T87" t="n" s="124">
-        <v>5.0</v>
+        <v>157.0</v>
       </c>
       <c r="U87" t="s" s="46">
         <v>43</v>
@@ -4338,17 +4242,17 @@
       <c r="B88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C88" t="n" s="125">
+        <v>7.94</v>
       </c>
       <c r="K88" t="n" s="125">
-        <v>58.85</v>
+        <v>51.01</v>
       </c>
       <c r="L88" t="n" s="125">
-        <v>0.0</v>
+        <v>1.63</v>
       </c>
       <c r="T88" t="n" s="125">
-        <v>6.0</v>
+        <v>43.0</v>
       </c>
       <c r="U88" t="s" s="46">
         <v>43</v>
@@ -4361,17 +4265,17 @@
       <c r="B89" t="s">
         <v>121</v>
       </c>
-      <c r="C89" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C89" t="n" s="126">
+        <v>27.79</v>
       </c>
       <c r="K89" t="n" s="126">
-        <v>58.85</v>
+        <v>66.47</v>
       </c>
       <c r="L89" t="n" s="126">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="T89" t="n" s="126">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="U89" t="s" s="46">
         <v>43</v>
@@ -4385,16 +4289,16 @@
         <v>122</v>
       </c>
       <c r="C90" t="n" s="127">
-        <v>3.97</v>
+        <v>27.79</v>
       </c>
       <c r="K90" t="n" s="127">
-        <v>4.15</v>
+        <v>57.47</v>
       </c>
       <c r="L90" t="n" s="127">
-        <v>-4.84</v>
+        <v>2.0</v>
       </c>
       <c r="T90" t="n" s="127">
-        <v>150.0</v>
+        <v>30.0</v>
       </c>
       <c r="U90" t="s" s="46">
         <v>43</v>
@@ -4408,16 +4312,16 @@
         <v>123</v>
       </c>
       <c r="C91" t="n" s="128">
-        <v>3.97</v>
+        <v>25.29</v>
       </c>
       <c r="K91" t="n" s="128">
-        <v>2.17</v>
+        <v>56.75</v>
       </c>
       <c r="L91" t="n" s="128">
-        <v>-4.36</v>
+        <v>2.03</v>
       </c>
       <c r="T91" t="n" s="128">
-        <v>48.0</v>
+        <v>14.0</v>
       </c>
       <c r="U91" t="s" s="46">
         <v>43</v>
@@ -4431,16 +4335,16 @@
         <v>124</v>
       </c>
       <c r="C92" t="n" s="129">
-        <v>3.97</v>
+        <v>19.04</v>
       </c>
       <c r="K92" t="n" s="129">
-        <v>67.22</v>
+        <v>63.32</v>
       </c>
       <c r="L92" t="s" s="46">
         <v>43</v>
       </c>
       <c r="T92" t="n" s="129">
-        <v>131.0</v>
+        <v>15.0</v>
       </c>
       <c r="U92" t="s" s="46">
         <v>43</v>
@@ -4454,16 +4358,19 @@
         <v>125</v>
       </c>
       <c r="C93" t="n" s="130">
-        <v>3.97</v>
+        <v>81.6</v>
       </c>
       <c r="K93" t="n" s="130">
-        <v>68.84</v>
-      </c>
-      <c r="L93" t="s" s="46">
-        <v>43</v>
+        <v>63.32</v>
+      </c>
+      <c r="L93" t="n" s="130">
+        <v>1.79</v>
+      </c>
+      <c r="S93" t="n" s="46">
+        <v>75.0</v>
       </c>
       <c r="T93" t="n" s="130">
-        <v>157.0</v>
+        <v>11.0</v>
       </c>
       <c r="U93" t="s" s="46">
         <v>43</v>
@@ -4477,16 +4384,19 @@
         <v>126</v>
       </c>
       <c r="C94" t="n" s="131">
-        <v>3.97</v>
+        <v>72.85</v>
       </c>
       <c r="K94" t="n" s="131">
-        <v>67.78</v>
-      </c>
-      <c r="L94" t="s" s="46">
-        <v>43</v>
+        <v>61.87</v>
+      </c>
+      <c r="L94" t="n" s="131">
+        <v>1.7</v>
+      </c>
+      <c r="S94" t="n" s="46">
+        <v>76.0</v>
       </c>
       <c r="T94" t="n" s="131">
-        <v>76.0</v>
+        <v>10.0</v>
       </c>
       <c r="U94" t="s" s="46">
         <v>43</v>
@@ -4500,16 +4410,16 @@
         <v>127</v>
       </c>
       <c r="C95" t="n" s="132">
-        <v>3.97</v>
+        <v>82.46</v>
       </c>
       <c r="K95" t="n" s="132">
-        <v>68.32</v>
-      </c>
-      <c r="L95" t="s" s="46">
-        <v>43</v>
+        <v>64.99</v>
+      </c>
+      <c r="L95" t="n" s="132">
+        <v>4.51</v>
       </c>
       <c r="T95" t="n" s="132">
-        <v>157.0</v>
+        <v>10.0</v>
       </c>
       <c r="U95" t="s" s="46">
         <v>43</v>
@@ -4523,16 +4433,16 @@
         <v>128</v>
       </c>
       <c r="C96" t="n" s="133">
-        <v>3.97</v>
+        <v>108.36</v>
       </c>
       <c r="K96" t="n" s="133">
-        <v>66.37</v>
-      </c>
-      <c r="L96" t="s" s="46">
-        <v>43</v>
+        <v>49.32</v>
+      </c>
+      <c r="L96" t="n" s="133">
+        <v>3.46</v>
       </c>
       <c r="T96" t="n" s="133">
-        <v>157.0</v>
+        <v>12.0</v>
       </c>
       <c r="U96" t="s" s="46">
         <v>43</v>
@@ -4546,16 +4456,16 @@
         <v>129</v>
       </c>
       <c r="C97" t="n" s="134">
-        <v>3.97</v>
+        <v>143.53</v>
       </c>
       <c r="K97" t="n" s="134">
-        <v>53.89</v>
-      </c>
-      <c r="L97" t="s" s="46">
-        <v>43</v>
+        <v>27.97</v>
+      </c>
+      <c r="L97" t="n" s="134">
+        <v>1.74</v>
       </c>
       <c r="T97" t="n" s="134">
-        <v>157.0</v>
+        <v>7.0</v>
       </c>
       <c r="U97" t="s" s="46">
         <v>43</v>
@@ -4569,16 +4479,16 @@
         <v>130</v>
       </c>
       <c r="C98" t="n" s="135">
-        <v>3.97</v>
+        <v>169.5</v>
       </c>
       <c r="K98" t="n" s="135">
-        <v>44.87</v>
-      </c>
-      <c r="L98" t="s" s="46">
-        <v>43</v>
+        <v>11.14</v>
+      </c>
+      <c r="L98" t="n" s="135">
+        <v>0.31</v>
       </c>
       <c r="T98" t="n" s="135">
-        <v>157.0</v>
+        <v>7.0</v>
       </c>
       <c r="U98" t="s" s="46">
         <v>43</v>
@@ -4592,16 +4502,16 @@
         <v>131</v>
       </c>
       <c r="C99" t="n" s="136">
-        <v>7.94</v>
+        <v>334.35</v>
       </c>
       <c r="K99" t="n" s="136">
-        <v>3.16</v>
+        <v>44.02</v>
       </c>
       <c r="L99" t="n" s="136">
-        <v>-4.6</v>
+        <v>2.98</v>
       </c>
       <c r="T99" t="n" s="136">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="U99" t="s" s="46">
         <v>43</v>
@@ -4615,16 +4525,16 @@
         <v>132</v>
       </c>
       <c r="C100" t="n" s="137">
-        <v>7.94</v>
+        <v>602.4</v>
       </c>
       <c r="K100" t="n" s="137">
-        <v>49.38</v>
-      </c>
-      <c r="L100" t="s" s="46">
-        <v>43</v>
+        <v>17.85</v>
+      </c>
+      <c r="L100" t="n" s="137">
+        <v>1.41</v>
       </c>
       <c r="T100" t="n" s="137">
-        <v>43.0</v>
+        <v>6.0</v>
       </c>
       <c r="U100" t="s" s="46">
         <v>43</v>
@@ -4638,16 +4548,16 @@
         <v>133</v>
       </c>
       <c r="C101" t="n" s="138">
-        <v>27.79</v>
+        <v>619.19</v>
       </c>
       <c r="K101" t="n" s="138">
-        <v>62.47</v>
+        <v>34.6</v>
       </c>
       <c r="L101" t="n" s="138">
-        <v>7.8</v>
+        <v>2.15</v>
       </c>
       <c r="T101" t="n" s="138">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="U101" t="s" s="46">
         <v>43</v>
@@ -4661,16 +4571,16 @@
         <v>134</v>
       </c>
       <c r="C102" t="n" s="139">
-        <v>27.79</v>
+        <v>277.52</v>
       </c>
       <c r="K102" t="n" s="139">
-        <v>59.97</v>
+        <v>49.03</v>
       </c>
       <c r="L102" t="n" s="139">
-        <v>4.5</v>
+        <v>-3.39</v>
       </c>
       <c r="T102" t="n" s="139">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="U102" t="s" s="46">
         <v>43</v>
@@ -4684,16 +4594,16 @@
         <v>135</v>
       </c>
       <c r="C103" t="n" s="140">
-        <v>27.79</v>
+        <v>334.35</v>
       </c>
       <c r="K103" t="n" s="140">
-        <v>55.47</v>
+        <v>46.41</v>
       </c>
       <c r="L103" t="n" s="140">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="T103" t="n" s="140">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="U103" t="s" s="46">
         <v>43</v>
@@ -4707,16 +4617,16 @@
         <v>136</v>
       </c>
       <c r="C104" t="n" s="141">
-        <v>25.29</v>
+        <v>602.4</v>
       </c>
       <c r="K104" t="n" s="141">
-        <v>54.72</v>
+        <v>13.76</v>
       </c>
       <c r="L104" t="n" s="141">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="T104" t="n" s="141">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="U104" t="s" s="46">
         <v>43</v>
@@ -4730,19 +4640,16 @@
         <v>137</v>
       </c>
       <c r="C105" t="n" s="142">
-        <v>81.6</v>
+        <v>619.19</v>
       </c>
       <c r="K105" t="n" s="142">
-        <v>61.53</v>
+        <v>33.29</v>
       </c>
       <c r="L105" t="n" s="142">
-        <v>1.75</v>
-      </c>
-      <c r="S105" t="n" s="46">
-        <v>75.0</v>
+        <v>-0.18</v>
       </c>
       <c r="T105" t="n" s="142">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="U105" t="s" s="46">
         <v>43</v>
@@ -4756,19 +4663,19 @@
         <v>138</v>
       </c>
       <c r="C106" t="n" s="143">
-        <v>72.85</v>
+        <v>1833.46</v>
       </c>
       <c r="K106" t="n" s="143">
-        <v>60.17</v>
+        <v>33.0</v>
       </c>
       <c r="L106" t="n" s="143">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="S106" t="n" s="46">
-        <v>76.0</v>
+        <v>131.0</v>
       </c>
       <c r="T106" t="n" s="143">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="U106" t="s" s="46">
         <v>43</v>
@@ -4782,16 +4689,19 @@
         <v>139</v>
       </c>
       <c r="C107" t="n" s="144">
-        <v>82.46</v>
+        <v>1833.46</v>
       </c>
       <c r="K107" t="n" s="144">
-        <v>60.48</v>
+        <v>33.6</v>
       </c>
       <c r="L107" t="n" s="144">
-        <v>-0.8</v>
+        <v>1.22</v>
+      </c>
+      <c r="S107" t="n" s="46">
+        <v>80.0</v>
       </c>
       <c r="T107" t="n" s="144">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="U107" t="s" s="46">
         <v>43</v>
@@ -4805,16 +4715,19 @@
         <v>140</v>
       </c>
       <c r="C108" t="n" s="145">
-        <v>108.36</v>
+        <v>1837.33</v>
       </c>
       <c r="K108" t="n" s="145">
-        <v>45.86</v>
+        <v>33.05</v>
       </c>
       <c r="L108" t="n" s="145">
-        <v>-0.39</v>
+        <v>0.72</v>
+      </c>
+      <c r="S108" t="n" s="46">
+        <v>25.0</v>
       </c>
       <c r="T108" t="n" s="145">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="U108" t="s" s="46">
         <v>43</v>
@@ -4828,16 +4741,19 @@
         <v>141</v>
       </c>
       <c r="C109" t="n" s="146">
-        <v>143.53</v>
+        <v>1833.46</v>
       </c>
       <c r="K109" t="n" s="146">
-        <v>26.23</v>
+        <v>32.5</v>
       </c>
       <c r="L109" t="n" s="146">
-        <v>0.79</v>
+        <v>0.72</v>
+      </c>
+      <c r="S109" t="n" s="46">
+        <v>25.0</v>
       </c>
       <c r="T109" t="n" s="146">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U109" t="s" s="46">
         <v>43</v>
@@ -4851,16 +4767,19 @@
         <v>142</v>
       </c>
       <c r="C110" t="n" s="147">
-        <v>169.5</v>
+        <v>1833.46</v>
       </c>
       <c r="K110" t="n" s="147">
-        <v>10.83</v>
+        <v>32.2</v>
       </c>
       <c r="L110" t="n" s="147">
-        <v>0.65</v>
+        <v>0.72</v>
+      </c>
+      <c r="S110" t="n" s="46">
+        <v>25.0</v>
       </c>
       <c r="T110" t="n" s="147">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U110" t="s" s="46">
         <v>43</v>
@@ -4874,16 +4793,16 @@
         <v>143</v>
       </c>
       <c r="C111" t="n" s="148">
-        <v>334.35</v>
+        <v>1833.46</v>
       </c>
       <c r="K111" t="n" s="148">
-        <v>41.04</v>
+        <v>32.2</v>
       </c>
       <c r="L111" t="n" s="148">
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="T111" t="n" s="148">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U111" t="s" s="46">
         <v>43</v>
@@ -4897,16 +4816,16 @@
         <v>144</v>
       </c>
       <c r="C112" t="n" s="149">
-        <v>602.4</v>
+        <v>1837.33</v>
       </c>
       <c r="K112" t="n" s="149">
-        <v>16.44</v>
+        <v>32.2</v>
       </c>
       <c r="L112" t="n" s="149">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="T112" t="n" s="149">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U112" t="s" s="46">
         <v>43</v>
@@ -4920,16 +4839,16 @@
         <v>145</v>
       </c>
       <c r="C113" t="n" s="150">
-        <v>619.19</v>
+        <v>1833.46</v>
       </c>
       <c r="K113" t="n" s="150">
-        <v>32.45</v>
+        <v>32.05</v>
       </c>
       <c r="L113" t="n" s="150">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="T113" t="n" s="150">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U113" t="s" s="46">
         <v>43</v>
@@ -4943,16 +4862,16 @@
         <v>146</v>
       </c>
       <c r="C114" t="n" s="151">
-        <v>277.52</v>
+        <v>1833.46</v>
       </c>
       <c r="K114" t="n" s="151">
-        <v>52.42</v>
+        <v>32.05</v>
       </c>
       <c r="L114" t="n" s="151">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="T114" t="n" s="151">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U114" t="s" s="46">
         <v>43</v>
@@ -4966,16 +4885,16 @@
         <v>147</v>
       </c>
       <c r="C115" t="n" s="152">
-        <v>334.35</v>
+        <v>1833.46</v>
       </c>
       <c r="K115" t="n" s="152">
-        <v>46.31</v>
+        <v>32.05</v>
       </c>
       <c r="L115" t="n" s="152">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="T115" t="n" s="152">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U115" t="s" s="46">
         <v>43</v>
@@ -4989,16 +4908,16 @@
         <v>148</v>
       </c>
       <c r="C116" t="n" s="153">
-        <v>602.4</v>
+        <v>9171.17</v>
       </c>
       <c r="K116" t="n" s="153">
-        <v>13.74</v>
+        <v>32.87</v>
       </c>
       <c r="L116" t="n" s="153">
-        <v>0.35</v>
+        <v>0.92</v>
       </c>
       <c r="T116" t="n" s="153">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U116" t="s" s="46">
         <v>43</v>
@@ -5012,16 +4931,16 @@
         <v>149</v>
       </c>
       <c r="C117" t="n" s="154">
-        <v>619.19</v>
+        <v>9171.17</v>
       </c>
       <c r="K117" t="n" s="154">
-        <v>33.47</v>
+        <v>32.71</v>
       </c>
       <c r="L117" t="n" s="154">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
       <c r="T117" t="n" s="154">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U117" t="s" s="46">
         <v>43</v>
@@ -5035,19 +4954,16 @@
         <v>150</v>
       </c>
       <c r="C118" t="n" s="155">
-        <v>1833.46</v>
+        <v>18342.34</v>
       </c>
       <c r="K118" t="n" s="155">
-        <v>31.78</v>
+        <v>32.49</v>
       </c>
       <c r="L118" t="n" s="155">
-        <v>0.5</v>
-      </c>
-      <c r="S118" t="n" s="46">
-        <v>131.0</v>
+        <v>0.66</v>
       </c>
       <c r="T118" t="n" s="155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U118" t="s" s="46">
         <v>43</v>
@@ -5060,20 +4976,17 @@
       <c r="B119" t="s">
         <v>151</v>
       </c>
-      <c r="C119" t="n" s="156">
-        <v>1833.46</v>
+      <c r="C119" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K119" t="n" s="156">
-        <v>32.38</v>
+        <v>78.57</v>
       </c>
       <c r="L119" t="n" s="156">
-        <v>0.35</v>
-      </c>
-      <c r="S119" t="n" s="46">
-        <v>80.0</v>
+        <v>-20.74</v>
       </c>
       <c r="T119" t="n" s="156">
-        <v>3.0</v>
+        <v>56.0</v>
       </c>
       <c r="U119" t="s" s="46">
         <v>43</v>
@@ -5086,20 +4999,17 @@
       <c r="B120" t="s">
         <v>152</v>
       </c>
-      <c r="C120" t="n" s="157">
-        <v>1837.33</v>
+      <c r="C120" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K120" t="n" s="157">
-        <v>32.33</v>
+        <v>75.37</v>
       </c>
       <c r="L120" t="n" s="157">
-        <v>0.0</v>
-      </c>
-      <c r="S120" t="n" s="46">
-        <v>25.0</v>
+        <v>-22.21</v>
       </c>
       <c r="T120" t="n" s="157">
-        <v>4.0</v>
+        <v>73.0</v>
       </c>
       <c r="U120" t="s" s="46">
         <v>43</v>
@@ -5112,20 +5022,17 @@
       <c r="B121" t="s">
         <v>153</v>
       </c>
-      <c r="C121" t="n" s="158">
-        <v>1833.46</v>
+      <c r="C121" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K121" t="n" s="158">
-        <v>31.78</v>
+        <v>75.48</v>
       </c>
       <c r="L121" t="n" s="158">
-        <v>0.0</v>
-      </c>
-      <c r="S121" t="n" s="46">
-        <v>25.0</v>
+        <v>-22.4</v>
       </c>
       <c r="T121" t="n" s="158">
-        <v>4.0</v>
+        <v>71.0</v>
       </c>
       <c r="U121" t="s" s="46">
         <v>43</v>
@@ -5138,20 +5045,17 @@
       <c r="B122" t="s">
         <v>154</v>
       </c>
-      <c r="C122" t="n" s="159">
-        <v>1833.46</v>
+      <c r="C122" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K122" t="n" s="159">
-        <v>31.48</v>
+        <v>73.67</v>
       </c>
       <c r="L122" t="n" s="159">
-        <v>0.0</v>
-      </c>
-      <c r="S122" t="n" s="46">
-        <v>25.0</v>
+        <v>-21.52</v>
       </c>
       <c r="T122" t="n" s="159">
-        <v>4.0</v>
+        <v>71.0</v>
       </c>
       <c r="U122" t="s" s="46">
         <v>43</v>
@@ -5164,17 +5068,17 @@
       <c r="B123" t="s">
         <v>155</v>
       </c>
-      <c r="C123" t="n" s="160">
-        <v>1833.46</v>
+      <c r="C123" t="n" s="47">
+        <v>60.0</v>
       </c>
       <c r="K123" t="n" s="160">
-        <v>31.73</v>
+        <v>103.69</v>
       </c>
       <c r="L123" t="n" s="160">
-        <v>0.0</v>
+        <v>10.14</v>
       </c>
       <c r="T123" t="n" s="160">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="U123" t="s" s="46">
         <v>43</v>
@@ -5187,17 +5091,17 @@
       <c r="B124" t="s">
         <v>156</v>
       </c>
-      <c r="C124" t="n" s="161">
-        <v>1837.33</v>
+      <c r="C124" t="n" s="47">
+        <v>60.0</v>
       </c>
       <c r="K124" t="n" s="161">
-        <v>31.82</v>
+        <v>89.65</v>
       </c>
       <c r="L124" t="n" s="161">
-        <v>0.01</v>
+        <v>3.12</v>
       </c>
       <c r="T124" t="n" s="161">
-        <v>5.0</v>
+        <v>53.0</v>
       </c>
       <c r="U124" t="s" s="46">
         <v>43</v>
@@ -5210,17 +5114,17 @@
       <c r="B125" t="s">
         <v>157</v>
       </c>
-      <c r="C125" t="n" s="162">
-        <v>1833.46</v>
+      <c r="C125" t="n" s="47">
+        <v>60.0</v>
       </c>
       <c r="K125" t="n" s="162">
-        <v>31.67</v>
+        <v>88.53</v>
       </c>
       <c r="L125" t="n" s="162">
-        <v>0.01</v>
+        <v>3.17</v>
       </c>
       <c r="T125" t="n" s="162">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="U125" t="s" s="46">
         <v>43</v>
@@ -5233,17 +5137,17 @@
       <c r="B126" t="s">
         <v>158</v>
       </c>
-      <c r="C126" t="n" s="163">
-        <v>1833.46</v>
+      <c r="C126" t="n" s="47">
+        <v>60.0</v>
       </c>
       <c r="K126" t="n" s="163">
-        <v>31.67</v>
-      </c>
-      <c r="L126" t="n" s="163">
-        <v>0.01</v>
+        <v>112.08</v>
+      </c>
+      <c r="L126" t="s" s="46">
+        <v>43</v>
       </c>
       <c r="T126" t="n" s="163">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="U126" t="s" s="46">
         <v>43</v>
@@ -5256,17 +5160,20 @@
       <c r="B127" t="s">
         <v>159</v>
       </c>
-      <c r="C127" t="n" s="164">
-        <v>1833.46</v>
+      <c r="C127" t="n" s="47">
+        <v>240.0</v>
       </c>
       <c r="K127" t="n" s="164">
-        <v>31.67</v>
+        <v>112.08</v>
       </c>
       <c r="L127" t="n" s="164">
-        <v>0.01</v>
+        <v>3.17</v>
+      </c>
+      <c r="S127" t="n" s="46">
+        <v>10.0</v>
       </c>
       <c r="T127" t="n" s="164">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="U127" t="s" s="46">
         <v>43</v>
@@ -5279,17 +5186,20 @@
       <c r="B128" t="s">
         <v>160</v>
       </c>
-      <c r="C128" t="n" s="165">
-        <v>9171.17</v>
+      <c r="C128" t="n" s="47">
+        <v>276.0</v>
       </c>
       <c r="K128" t="n" s="165">
-        <v>31.95</v>
+        <v>109.51</v>
       </c>
       <c r="L128" t="n" s="165">
-        <v>0.17</v>
+        <v>3.01</v>
+      </c>
+      <c r="S128" t="n" s="46">
+        <v>10.0</v>
       </c>
       <c r="T128" t="n" s="165">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="U128" t="s" s="46">
         <v>43</v>
@@ -5302,17 +5212,17 @@
       <c r="B129" t="s">
         <v>161</v>
       </c>
-      <c r="C129" t="n" s="166">
-        <v>9171.17</v>
+      <c r="C129" t="n" s="47">
+        <v>264.0</v>
       </c>
       <c r="K129" t="n" s="166">
-        <v>31.94</v>
+        <v>99.69</v>
       </c>
       <c r="L129" t="n" s="166">
-        <v>0.07</v>
+        <v>8.38</v>
       </c>
       <c r="T129" t="n" s="166">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="U129" t="s" s="46">
         <v>43</v>
@@ -5325,17 +5235,17 @@
       <c r="B130" t="s">
         <v>162</v>
       </c>
-      <c r="C130" t="n" s="167">
-        <v>18342.34</v>
+      <c r="C130" t="n" s="47">
+        <v>240.0</v>
       </c>
       <c r="K130" t="n" s="167">
-        <v>31.83</v>
+        <v>75.65</v>
       </c>
       <c r="L130" t="n" s="167">
-        <v>0.09</v>
+        <v>6.41</v>
       </c>
       <c r="T130" t="n" s="167">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="U130" t="s" s="46">
         <v>43</v>
@@ -5349,16 +5259,16 @@
         <v>163</v>
       </c>
       <c r="C131" t="n" s="47">
-        <v>12.0</v>
+        <v>264.0</v>
       </c>
       <c r="K131" t="n" s="168">
-        <v>97.28</v>
-      </c>
-      <c r="L131" t="s" s="46">
-        <v>43</v>
+        <v>42.91</v>
+      </c>
+      <c r="L131" t="n" s="168">
+        <v>3.31</v>
       </c>
       <c r="T131" t="n" s="168">
-        <v>71.0</v>
+        <v>9.0</v>
       </c>
       <c r="U131" t="s" s="46">
         <v>43</v>
@@ -5372,16 +5282,16 @@
         <v>164</v>
       </c>
       <c r="C132" t="n" s="47">
-        <v>12.0</v>
+        <v>264.0</v>
       </c>
       <c r="K132" t="n" s="169">
-        <v>99.31</v>
-      </c>
-      <c r="L132" t="s" s="46">
-        <v>43</v>
+        <v>20.27</v>
+      </c>
+      <c r="L132" t="n" s="169">
+        <v>0.56</v>
       </c>
       <c r="T132" t="n" s="169">
-        <v>71.0</v>
+        <v>10.0</v>
       </c>
       <c r="U132" t="s" s="46">
         <v>43</v>
@@ -5395,16 +5305,16 @@
         <v>165</v>
       </c>
       <c r="C133" t="n" s="47">
-        <v>12.0</v>
+        <v>768.0</v>
       </c>
       <c r="K133" t="n" s="170">
-        <v>97.58</v>
-      </c>
-      <c r="L133" t="s" s="46">
-        <v>43</v>
+        <v>72.66</v>
+      </c>
+      <c r="L133" t="n" s="170">
+        <v>6.02</v>
       </c>
       <c r="T133" t="n" s="170">
-        <v>71.0</v>
+        <v>15.0</v>
       </c>
       <c r="U133" t="s" s="46">
         <v>43</v>
@@ -5418,16 +5328,16 @@
         <v>166</v>
       </c>
       <c r="C134" t="n" s="47">
-        <v>12.0</v>
+        <v>780.0</v>
       </c>
       <c r="K134" t="n" s="171">
-        <v>97.88</v>
-      </c>
-      <c r="L134" t="s" s="46">
-        <v>43</v>
+        <v>29.47</v>
+      </c>
+      <c r="L134" t="n" s="171">
+        <v>2.77</v>
       </c>
       <c r="T134" t="n" s="171">
-        <v>71.0</v>
+        <v>9.0</v>
       </c>
       <c r="U134" t="s" s="46">
         <v>43</v>
@@ -5441,16 +5351,16 @@
         <v>167</v>
       </c>
       <c r="C135" t="n" s="47">
-        <v>12.0</v>
+        <v>792.0</v>
       </c>
       <c r="K135" t="n" s="172">
-        <v>95.19</v>
-      </c>
-      <c r="L135" t="s" s="46">
-        <v>43</v>
+        <v>57.11</v>
+      </c>
+      <c r="L135" t="n" s="172">
+        <v>4.41</v>
       </c>
       <c r="T135" t="n" s="172">
-        <v>71.0</v>
+        <v>4.0</v>
       </c>
       <c r="U135" t="s" s="46">
         <v>43</v>
@@ -5464,16 +5374,16 @@
         <v>168</v>
       </c>
       <c r="C136" t="n" s="47">
-        <v>60.0</v>
+        <v>792.0</v>
       </c>
       <c r="K136" t="n" s="173">
-        <v>97.45</v>
+        <v>80.92</v>
       </c>
       <c r="L136" t="n" s="173">
-        <v>12.16</v>
+        <v>-4.2</v>
       </c>
       <c r="T136" t="n" s="173">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="U136" t="s" s="46">
         <v>43</v>
@@ -5487,16 +5397,16 @@
         <v>169</v>
       </c>
       <c r="C137" t="n" s="47">
-        <v>60.0</v>
+        <v>768.0</v>
       </c>
       <c r="K137" t="n" s="174">
-        <v>93.55</v>
+        <v>81.68</v>
       </c>
       <c r="L137" t="n" s="174">
-        <v>7.02</v>
+        <v>0.17</v>
       </c>
       <c r="T137" t="n" s="174">
-        <v>53.0</v>
+        <v>12.0</v>
       </c>
       <c r="U137" t="s" s="46">
         <v>43</v>
@@ -5510,16 +5420,16 @@
         <v>170</v>
       </c>
       <c r="C138" t="n" s="47">
-        <v>60.0</v>
+        <v>780.0</v>
       </c>
       <c r="K138" t="n" s="175">
-        <v>86.53</v>
+        <v>24.22</v>
       </c>
       <c r="L138" t="n" s="175">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="T138" t="n" s="175">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="U138" t="s" s="46">
         <v>43</v>
@@ -5533,16 +5443,16 @@
         <v>171</v>
       </c>
       <c r="C139" t="n" s="47">
-        <v>60.0</v>
+        <v>792.0</v>
       </c>
       <c r="K139" t="n" s="176">
-        <v>85.36</v>
+        <v>58.59</v>
       </c>
       <c r="L139" t="n" s="176">
-        <v>0.78</v>
+        <v>-0.32</v>
       </c>
       <c r="T139" t="n" s="176">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
       <c r="U139" t="s" s="46">
         <v>43</v>
@@ -5556,19 +5466,16 @@
         <v>172</v>
       </c>
       <c r="C140" t="n" s="47">
-        <v>240.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K140" t="n" s="177">
-        <v>108.91</v>
+        <v>60.06</v>
       </c>
       <c r="L140" t="n" s="177">
-        <v>3.1</v>
-      </c>
-      <c r="S140" t="n" s="46">
-        <v>10.0</v>
+        <v>2.22</v>
       </c>
       <c r="T140" t="n" s="177">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="U140" t="s" s="46">
         <v>43</v>
@@ -5582,19 +5489,16 @@
         <v>173</v>
       </c>
       <c r="C141" t="n" s="47">
-        <v>276.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K141" t="n" s="178">
-        <v>106.5</v>
+        <v>59.14</v>
       </c>
       <c r="L141" t="n" s="178">
-        <v>0.88</v>
-      </c>
-      <c r="S141" t="n" s="46">
-        <v>10.0</v>
+        <v>2.15</v>
       </c>
       <c r="T141" t="n" s="178">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="U141" t="s" s="46">
         <v>43</v>
@@ -5608,16 +5512,16 @@
         <v>174</v>
       </c>
       <c r="C142" t="n" s="47">
-        <v>264.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K142" t="n" s="179">
-        <v>91.31</v>
+        <v>58.17</v>
       </c>
       <c r="L142" t="n" s="179">
-        <v>-0.56</v>
+        <v>1.27</v>
       </c>
       <c r="T142" t="n" s="179">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="U142" t="s" s="46">
         <v>43</v>
@@ -5631,16 +5535,16 @@
         <v>175</v>
       </c>
       <c r="C143" t="n" s="47">
-        <v>240.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K143" t="n" s="180">
-        <v>69.24</v>
+        <v>57.2</v>
       </c>
       <c r="L143" t="n" s="180">
-        <v>-0.1</v>
+        <v>1.27</v>
       </c>
       <c r="T143" t="n" s="180">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="U143" t="s" s="46">
         <v>43</v>
@@ -5654,16 +5558,16 @@
         <v>176</v>
       </c>
       <c r="C144" t="n" s="47">
-        <v>264.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K144" t="n" s="181">
-        <v>39.6</v>
+        <v>56.67</v>
       </c>
       <c r="L144" t="n" s="181">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="T144" t="n" s="181">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="U144" t="s" s="46">
         <v>43</v>
@@ -5677,16 +5581,16 @@
         <v>177</v>
       </c>
       <c r="C145" t="n" s="47">
-        <v>264.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K145" t="n" s="182">
-        <v>19.71</v>
+        <v>56.67</v>
       </c>
       <c r="L145" t="n" s="182">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="T145" t="n" s="182">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="U145" t="s" s="46">
         <v>43</v>
@@ -5700,16 +5604,16 @@
         <v>178</v>
       </c>
       <c r="C146" t="n" s="47">
-        <v>768.0</v>
+        <v>3144.0</v>
       </c>
       <c r="K146" t="n" s="183">
-        <v>66.64</v>
+        <v>56.67</v>
       </c>
       <c r="L146" t="n" s="183">
-        <v>0.28</v>
+        <v>0.67</v>
       </c>
       <c r="T146" t="n" s="183">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="U146" t="s" s="46">
         <v>43</v>
@@ -5723,16 +5627,16 @@
         <v>179</v>
       </c>
       <c r="C147" t="n" s="47">
-        <v>780.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K147" t="n" s="184">
-        <v>26.7</v>
+        <v>56.41</v>
       </c>
       <c r="L147" t="n" s="184">
-        <v>1.03</v>
+        <v>0.67</v>
       </c>
       <c r="T147" t="n" s="184">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="U147" t="s" s="46">
         <v>43</v>
@@ -5746,16 +5650,16 @@
         <v>180</v>
       </c>
       <c r="C148" t="n" s="47">
-        <v>792.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K148" t="n" s="185">
-        <v>52.7</v>
+        <v>56.41</v>
       </c>
       <c r="L148" t="n" s="185">
-        <v>1.45</v>
+        <v>0.67</v>
       </c>
       <c r="T148" t="n" s="185">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="U148" t="s" s="46">
         <v>43</v>
@@ -5769,16 +5673,16 @@
         <v>181</v>
       </c>
       <c r="C149" t="n" s="47">
-        <v>792.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K149" t="n" s="186">
-        <v>85.12</v>
+        <v>56.41</v>
       </c>
       <c r="L149" t="n" s="186">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="T149" t="n" s="186">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="U149" t="s" s="46">
         <v>43</v>
@@ -5792,16 +5696,16 @@
         <v>182</v>
       </c>
       <c r="C150" t="n" s="47">
-        <v>768.0</v>
+        <v>168.0</v>
       </c>
       <c r="K150" t="n" s="187">
-        <v>81.51</v>
+        <v>87.0</v>
       </c>
       <c r="L150" t="n" s="187">
-        <v>0.62</v>
+        <v>6.5</v>
       </c>
       <c r="T150" t="n" s="187">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="U150" t="s" s="46">
         <v>43</v>
@@ -5815,16 +5719,16 @@
         <v>183</v>
       </c>
       <c r="C151" t="n" s="47">
-        <v>780.0</v>
+        <v>169.0</v>
       </c>
       <c r="K151" t="n" s="188">
-        <v>24.18</v>
+        <v>78.0</v>
       </c>
       <c r="L151" t="n" s="188">
-        <v>0.61</v>
+        <v>2.0</v>
       </c>
       <c r="T151" t="n" s="188">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="U151" t="s" s="46">
         <v>43</v>
@@ -5838,16 +5742,16 @@
         <v>184</v>
       </c>
       <c r="C152" t="n" s="47">
-        <v>792.0</v>
+        <v>168.0</v>
       </c>
       <c r="K152" t="n" s="189">
-        <v>58.91</v>
+        <v>77.28</v>
       </c>
       <c r="L152" t="n" s="189">
-        <v>0.62</v>
+        <v>2.03</v>
       </c>
       <c r="T152" t="n" s="189">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="U152" t="s" s="46">
         <v>43</v>
@@ -5861,16 +5765,16 @@
         <v>185</v>
       </c>
       <c r="C153" t="n" s="47">
-        <v>3132.0</v>
+        <v>168.0</v>
       </c>
       <c r="K153" t="n" s="190">
-        <v>57.84</v>
-      </c>
-      <c r="L153" t="n" s="190">
-        <v>0.91</v>
+        <v>77.85</v>
+      </c>
+      <c r="L153" t="s" s="46">
+        <v>43</v>
       </c>
       <c r="T153" t="n" s="190">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="U153" t="s" s="46">
         <v>43</v>
@@ -5884,16 +5788,16 @@
         <v>186</v>
       </c>
       <c r="C154" t="n" s="47">
-        <v>3132.0</v>
+        <v>720.0</v>
       </c>
       <c r="K154" t="n" s="191">
-        <v>56.99</v>
+        <v>77.85</v>
       </c>
       <c r="L154" t="n" s="191">
-        <v>0.62</v>
+        <v>2.1</v>
       </c>
       <c r="T154" t="n" s="191">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="U154" t="s" s="46">
         <v>43</v>
@@ -5907,16 +5811,16 @@
         <v>187</v>
       </c>
       <c r="C155" t="n" s="47">
-        <v>3120.0</v>
+        <v>744.0</v>
       </c>
       <c r="K155" t="n" s="192">
-        <v>56.9</v>
+        <v>76.0</v>
       </c>
       <c r="L155" t="n" s="192">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T155" t="n" s="192">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U155" t="s" s="46">
         <v>43</v>
@@ -5930,16 +5834,16 @@
         <v>188</v>
       </c>
       <c r="C156" t="n" s="47">
-        <v>3132.0</v>
+        <v>744.0</v>
       </c>
       <c r="K156" t="n" s="193">
-        <v>55.93</v>
+        <v>74.6</v>
       </c>
       <c r="L156" t="n" s="193">
-        <v>0.0</v>
+        <v>0.35</v>
       </c>
       <c r="T156" t="n" s="193">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U156" t="s" s="46">
         <v>43</v>
@@ -5953,16 +5857,16 @@
         <v>189</v>
       </c>
       <c r="C157" t="n" s="47">
-        <v>3132.0</v>
+        <v>672.0</v>
       </c>
       <c r="K157" t="n" s="194">
-        <v>55.4</v>
+        <v>72.92</v>
       </c>
       <c r="L157" t="n" s="194">
-        <v>0.0</v>
+        <v>0.64</v>
       </c>
       <c r="T157" t="n" s="194">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="U157" t="s" s="46">
         <v>43</v>
@@ -5976,16 +5880,16 @@
         <v>190</v>
       </c>
       <c r="C158" t="n" s="47">
-        <v>3132.0</v>
+        <v>743.0</v>
       </c>
       <c r="K158" t="n" s="195">
-        <v>55.84</v>
+        <v>45.75</v>
       </c>
       <c r="L158" t="n" s="195">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="T158" t="n" s="195">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="U158" t="s" s="46">
         <v>43</v>
@@ -5999,16 +5903,16 @@
         <v>191</v>
       </c>
       <c r="C159" t="n" s="47">
-        <v>3144.0</v>
+        <v>720.0</v>
       </c>
       <c r="K159" t="n" s="196">
-        <v>56.0</v>
+        <v>29.16</v>
       </c>
       <c r="L159" t="n" s="196">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="T159" t="n" s="196">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="U159" t="s" s="46">
         <v>43</v>
@@ -6022,16 +5926,16 @@
         <v>192</v>
       </c>
       <c r="C160" t="n" s="47">
-        <v>3120.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K160" t="n" s="197">
-        <v>55.74</v>
+        <v>64.15</v>
       </c>
       <c r="L160" t="n" s="197">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="T160" t="n" s="197">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="U160" t="s" s="46">
         <v>43</v>
@@ -6045,16 +5949,16 @@
         <v>193</v>
       </c>
       <c r="C161" t="n" s="47">
-        <v>3120.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K161" t="n" s="198">
-        <v>55.74</v>
+        <v>41.0</v>
       </c>
       <c r="L161" t="n" s="198">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="T161" t="n" s="198">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="U161" t="s" s="46">
         <v>43</v>
@@ -6068,16 +5972,16 @@
         <v>194</v>
       </c>
       <c r="C162" t="n" s="47">
-        <v>3132.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K162" t="n" s="199">
-        <v>55.74</v>
+        <v>67.64</v>
       </c>
       <c r="L162" t="n" s="199">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="T162" t="n" s="199">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="U162" t="s" s="46">
         <v>43</v>
@@ -6091,16 +5995,16 @@
         <v>195</v>
       </c>
       <c r="C163" t="n" s="47">
-        <v>168.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K163" t="n" s="200">
-        <v>83.0</v>
+        <v>74.23</v>
       </c>
       <c r="L163" t="n" s="200">
-        <v>7.8</v>
+        <v>0.44</v>
       </c>
       <c r="T163" t="n" s="200">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="U163" t="s" s="46">
         <v>43</v>
@@ -6114,16 +6018,16 @@
         <v>196</v>
       </c>
       <c r="C164" t="n" s="47">
-        <v>168.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K164" t="n" s="201">
-        <v>80.5</v>
+        <v>64.96</v>
       </c>
       <c r="L164" t="n" s="201">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="T164" t="n" s="201">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="U164" t="s" s="46">
         <v>43</v>
@@ -6137,16 +6041,16 @@
         <v>197</v>
       </c>
       <c r="C165" t="n" s="47">
-        <v>169.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K165" t="n" s="202">
-        <v>76.0</v>
+        <v>36.27</v>
       </c>
       <c r="L165" t="n" s="202">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="T165" t="n" s="202">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="U165" t="s" s="46">
         <v>43</v>
@@ -6160,16 +6064,16 @@
         <v>198</v>
       </c>
       <c r="C166" t="n" s="47">
-        <v>168.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K166" t="n" s="203">
-        <v>75.25</v>
+        <v>65.09</v>
       </c>
       <c r="L166" t="n" s="203">
         <v>0.5</v>
       </c>
       <c r="T166" t="n" s="203">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="U166" t="s" s="46">
         <v>43</v>
@@ -6183,16 +6087,16 @@
         <v>199</v>
       </c>
       <c r="C167" t="n" s="47">
-        <v>720.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K167" t="n" s="204">
-        <v>75.75</v>
+        <v>61.8</v>
       </c>
       <c r="L167" t="n" s="204">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="T167" t="n" s="204">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U167" t="s" s="46">
         <v>43</v>
@@ -6206,16 +6110,16 @@
         <v>200</v>
       </c>
       <c r="C168" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K168" t="n" s="205">
-        <v>74.0</v>
+        <v>59.4</v>
       </c>
       <c r="L168" t="n" s="205">
         <v>0.5</v>
       </c>
       <c r="T168" t="n" s="205">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="U168" t="s" s="46">
         <v>43</v>
@@ -6229,16 +6133,16 @@
         <v>201</v>
       </c>
       <c r="C169" t="n" s="47">
-        <v>744.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K169" t="n" s="206">
-        <v>74.25</v>
+        <v>58.85</v>
       </c>
       <c r="L169" t="n" s="206">
-        <v>-0.6</v>
+        <v>0.0</v>
       </c>
       <c r="T169" t="n" s="206">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="U169" t="s" s="46">
         <v>43</v>
@@ -6252,16 +6156,16 @@
         <v>202</v>
       </c>
       <c r="C170" t="n" s="47">
-        <v>672.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K170" t="n" s="207">
-        <v>72.28</v>
+        <v>58.3</v>
       </c>
       <c r="L170" t="n" s="207">
-        <v>-0.22</v>
+        <v>0.0</v>
       </c>
       <c r="T170" t="n" s="207">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="U170" t="s" s="46">
         <v>43</v>
@@ -6275,16 +6179,16 @@
         <v>203</v>
       </c>
       <c r="C171" t="n" s="47">
-        <v>743.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K171" t="n" s="208">
-        <v>45.52</v>
+        <v>58.0</v>
       </c>
       <c r="L171" t="n" s="208">
-        <v>0.94</v>
+        <v>0.0</v>
       </c>
       <c r="T171" t="n" s="208">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U171" t="s" s="46">
         <v>43</v>
@@ -6298,16 +6202,16 @@
         <v>204</v>
       </c>
       <c r="C172" t="n" s="47">
-        <v>720.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K172" t="n" s="209">
-        <v>28.46</v>
+        <v>58.0</v>
       </c>
       <c r="L172" t="n" s="209">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T172" t="n" s="209">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U172" t="s" s="46">
         <v>43</v>
@@ -6321,16 +6225,16 @@
         <v>205</v>
       </c>
       <c r="C173" t="n" s="47">
-        <v>2159.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K173" t="n" s="210">
-        <v>63.75</v>
+        <v>58.0</v>
       </c>
       <c r="L173" t="n" s="210">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="T173" t="n" s="210">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U173" t="s" s="46">
         <v>43</v>
@@ -6344,16 +6248,16 @@
         <v>206</v>
       </c>
       <c r="C174" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K174" t="n" s="211">
-        <v>40.3</v>
+        <v>57.85</v>
       </c>
       <c r="L174" t="n" s="211">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T174" t="n" s="211">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="U174" t="s" s="46">
         <v>43</v>
@@ -6367,13 +6271,13 @@
         <v>207</v>
       </c>
       <c r="C175" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K175" t="n" s="212">
-        <v>67.18</v>
+        <v>57.85</v>
       </c>
       <c r="L175" t="n" s="212">
-        <v>0.88</v>
+        <v>0.0</v>
       </c>
       <c r="T175" t="n" s="212">
         <v>3.0</v>
@@ -6390,16 +6294,16 @@
         <v>208</v>
       </c>
       <c r="C176" t="n" s="47">
-        <v>2209.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K176" t="n" s="213">
-        <v>73.79</v>
+        <v>57.85</v>
       </c>
       <c r="L176" t="n" s="213">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="T176" t="n" s="213">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U176" t="s" s="46">
         <v>43</v>
@@ -6412,17 +6316,17 @@
       <c r="B177" t="s">
         <v>209</v>
       </c>
-      <c r="C177" t="n" s="47">
-        <v>2159.0</v>
+      <c r="C177" t="n" s="214">
+        <v>2.4</v>
       </c>
       <c r="K177" t="n" s="214">
-        <v>64.46</v>
+        <v>98.65</v>
       </c>
       <c r="L177" t="n" s="214">
-        <v>0.35</v>
+        <v>9.94</v>
       </c>
       <c r="T177" t="n" s="214">
-        <v>7.0</v>
+        <v>55.0</v>
       </c>
       <c r="U177" t="s" s="46">
         <v>43</v>
@@ -6435,17 +6339,17 @@
       <c r="B178" t="s">
         <v>210</v>
       </c>
-      <c r="C178" t="n" s="47">
-        <v>2184.0</v>
+      <c r="C178" t="n" s="215">
+        <v>2.4</v>
       </c>
       <c r="K178" t="n" s="215">
-        <v>35.77</v>
+        <v>88.74</v>
       </c>
       <c r="L178" t="n" s="215">
-        <v>0.35</v>
+        <v>1.1</v>
       </c>
       <c r="T178" t="n" s="215">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="U178" t="s" s="46">
         <v>43</v>
@@ -6458,17 +6362,17 @@
       <c r="B179" t="s">
         <v>211</v>
       </c>
-      <c r="C179" t="n" s="47">
-        <v>2208.0</v>
+      <c r="C179" t="n" s="216">
+        <v>2.4</v>
       </c>
       <c r="K179" t="n" s="216">
-        <v>64.59</v>
+        <v>88.85</v>
       </c>
       <c r="L179" t="n" s="216">
-        <v>0.35</v>
+        <v>0.58</v>
       </c>
       <c r="T179" t="n" s="216">
-        <v>3.0</v>
+        <v>52.0</v>
       </c>
       <c r="U179" t="s" s="46">
         <v>43</v>
@@ -6481,17 +6385,17 @@
       <c r="B180" t="s">
         <v>212</v>
       </c>
-      <c r="C180" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C180" t="n" s="217">
+        <v>2.4</v>
       </c>
       <c r="K180" t="n" s="217">
-        <v>61.3</v>
+        <v>87.04</v>
       </c>
       <c r="L180" t="n" s="217">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="T180" t="n" s="217">
-        <v>4.0</v>
+        <v>60.0</v>
       </c>
       <c r="U180" t="s" s="46">
         <v>43</v>
@@ -6504,17 +6408,17 @@
       <c r="B181" t="s">
         <v>213</v>
       </c>
-      <c r="C181" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C181" t="n" s="218">
+        <v>2.4</v>
       </c>
       <c r="K181" t="n" s="218">
-        <v>58.9</v>
+        <v>77.9</v>
       </c>
       <c r="L181" t="n" s="218">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="T181" t="n" s="218">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="U181" t="s" s="46">
         <v>43</v>
@@ -6527,17 +6431,17 @@
       <c r="B182" t="s">
         <v>214</v>
       </c>
-      <c r="C182" t="n" s="47">
-        <v>8784.0</v>
+      <c r="C182" t="n" s="219">
+        <v>2.4</v>
       </c>
       <c r="K182" t="n" s="219">
-        <v>58.85</v>
+        <v>70.88</v>
       </c>
       <c r="L182" t="n" s="219">
-        <v>0.0</v>
+        <v>-0.04</v>
       </c>
       <c r="T182" t="n" s="219">
-        <v>3.0</v>
+        <v>60.0</v>
       </c>
       <c r="U182" t="s" s="46">
         <v>43</v>
@@ -6550,17 +6454,17 @@
       <c r="B183" t="s">
         <v>215</v>
       </c>
-      <c r="C183" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C183" t="n" s="220">
+        <v>4.8</v>
       </c>
       <c r="K183" t="n" s="220">
-        <v>58.3</v>
+        <v>74.39</v>
       </c>
       <c r="L183" t="n" s="220">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="T183" t="n" s="220">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="U183" t="s" s="46">
         <v>43</v>
@@ -6573,17 +6477,17 @@
       <c r="B184" t="s">
         <v>216</v>
       </c>
-      <c r="C184" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C184" t="n" s="221">
+        <v>16.8</v>
       </c>
       <c r="K184" t="n" s="221">
-        <v>58.0</v>
+        <v>87.65</v>
       </c>
       <c r="L184" t="n" s="221">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="T184" t="n" s="221">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="U184" t="s" s="46">
         <v>43</v>
@@ -6596,17 +6500,17 @@
       <c r="B185" t="s">
         <v>217</v>
       </c>
-      <c r="C185" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C185" t="n" s="222">
+        <v>16.9</v>
       </c>
       <c r="K185" t="n" s="222">
-        <v>58.0</v>
+        <v>78.65</v>
       </c>
       <c r="L185" t="n" s="222">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T185" t="n" s="222">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="U185" t="s" s="46">
         <v>43</v>
@@ -6619,17 +6523,17 @@
       <c r="B186" t="s">
         <v>218</v>
       </c>
-      <c r="C186" t="n" s="47">
-        <v>8784.0</v>
+      <c r="C186" t="n" s="223">
+        <v>16.8</v>
       </c>
       <c r="K186" t="n" s="223">
-        <v>58.0</v>
+        <v>77.93</v>
       </c>
       <c r="L186" t="n" s="223">
-        <v>0.0</v>
+        <v>2.03</v>
       </c>
       <c r="T186" t="n" s="223">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="U186" t="s" s="46">
         <v>43</v>
@@ -6642,17 +6546,17 @@
       <c r="B187" t="s">
         <v>219</v>
       </c>
-      <c r="C187" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C187" t="n" s="224">
+        <v>16.8</v>
       </c>
       <c r="K187" t="n" s="224">
-        <v>57.85</v>
-      </c>
-      <c r="L187" t="n" s="224">
-        <v>0.0</v>
+        <v>78.5</v>
+      </c>
+      <c r="L187" t="s" s="46">
+        <v>43</v>
       </c>
       <c r="T187" t="n" s="224">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="U187" t="s" s="46">
         <v>43</v>
@@ -6666,16 +6570,16 @@
         <v>220</v>
       </c>
       <c r="C188" t="n" s="47">
-        <v>8760.0</v>
+        <v>72.0</v>
       </c>
       <c r="K188" t="n" s="225">
-        <v>57.85</v>
+        <v>78.5</v>
       </c>
       <c r="L188" t="n" s="225">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
       <c r="T188" t="n" s="225">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="U188" t="s" s="46">
         <v>43</v>
@@ -6688,17 +6592,17 @@
       <c r="B189" t="s">
         <v>221</v>
       </c>
-      <c r="C189" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C189" t="n" s="226">
+        <v>74.4</v>
       </c>
       <c r="K189" t="n" s="226">
-        <v>57.85</v>
+        <v>76.65</v>
       </c>
       <c r="L189" t="n" s="226">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T189" t="n" s="226">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="U189" t="s" s="46">
         <v>43</v>
@@ -6712,16 +6616,16 @@
         <v>222</v>
       </c>
       <c r="C190" t="n" s="227">
-        <v>2.4</v>
+        <v>74.4</v>
       </c>
       <c r="K190" t="n" s="227">
-        <v>53.13</v>
+        <v>75.6</v>
       </c>
       <c r="L190" t="n" s="227">
-        <v>12.56</v>
+        <v>0.35</v>
       </c>
       <c r="T190" t="n" s="227">
-        <v>55.0</v>
+        <v>8.0</v>
       </c>
       <c r="U190" t="s" s="46">
         <v>43</v>
@@ -6735,16 +6639,16 @@
         <v>223</v>
       </c>
       <c r="C191" t="n" s="228">
-        <v>2.4</v>
+        <v>67.2</v>
       </c>
       <c r="K191" t="n" s="228">
-        <v>25.93</v>
+        <v>73.92</v>
       </c>
       <c r="L191" t="n" s="228">
-        <v>-11.56</v>
+        <v>0.64</v>
       </c>
       <c r="T191" t="n" s="228">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="U191" t="s" s="46">
         <v>43</v>
@@ -6758,16 +6662,16 @@
         <v>224</v>
       </c>
       <c r="C192" t="n" s="229">
-        <v>2.4</v>
+        <v>74.3</v>
       </c>
       <c r="K192" t="n" s="229">
-        <v>86.54</v>
-      </c>
-      <c r="L192" t="s" s="46">
-        <v>43</v>
+        <v>46.75</v>
+      </c>
+      <c r="L192" t="n" s="229">
+        <v>0.23</v>
       </c>
       <c r="T192" t="n" s="229">
-        <v>52.0</v>
+        <v>7.0</v>
       </c>
       <c r="U192" t="s" s="46">
         <v>43</v>
@@ -6780,17 +6684,17 @@
       <c r="B193" t="s">
         <v>225</v>
       </c>
-      <c r="C193" t="n" s="230">
-        <v>2.4</v>
+      <c r="C193" t="n" s="47">
+        <v>72.0</v>
       </c>
       <c r="K193" t="n" s="230">
-        <v>88.71</v>
-      </c>
-      <c r="L193" t="s" s="46">
-        <v>43</v>
+        <v>30.16</v>
+      </c>
+      <c r="L193" t="n" s="230">
+        <v>0.7</v>
       </c>
       <c r="T193" t="n" s="230">
-        <v>60.0</v>
+        <v>7.0</v>
       </c>
       <c r="U193" t="s" s="46">
         <v>43</v>
@@ -6804,16 +6708,16 @@
         <v>226</v>
       </c>
       <c r="C194" t="n" s="231">
-        <v>2.4</v>
+        <v>215.9</v>
       </c>
       <c r="K194" t="n" s="231">
-        <v>87.64</v>
-      </c>
-      <c r="L194" t="s" s="46">
-        <v>43</v>
+        <v>65.15</v>
+      </c>
+      <c r="L194" t="n" s="231">
+        <v>0.4</v>
       </c>
       <c r="T194" t="n" s="231">
-        <v>43.0</v>
+        <v>7.0</v>
       </c>
       <c r="U194" t="s" s="46">
         <v>43</v>
@@ -6827,16 +6731,16 @@
         <v>227</v>
       </c>
       <c r="C195" t="n" s="232">
-        <v>2.4</v>
+        <v>218.4</v>
       </c>
       <c r="K195" t="n" s="232">
-        <v>88.27</v>
-      </c>
-      <c r="L195" t="s" s="46">
-        <v>43</v>
+        <v>42.0</v>
+      </c>
+      <c r="L195" t="n" s="232">
+        <v>0.7</v>
       </c>
       <c r="T195" t="n" s="232">
-        <v>60.0</v>
+        <v>6.0</v>
       </c>
       <c r="U195" t="s" s="46">
         <v>43</v>
@@ -6850,16 +6754,16 @@
         <v>228</v>
       </c>
       <c r="C196" t="n" s="233">
-        <v>2.4</v>
+        <v>220.8</v>
       </c>
       <c r="K196" t="n" s="233">
-        <v>86.28</v>
-      </c>
-      <c r="L196" t="s" s="46">
-        <v>43</v>
+        <v>68.64</v>
+      </c>
+      <c r="L196" t="n" s="233">
+        <v>0.46</v>
       </c>
       <c r="T196" t="n" s="233">
-        <v>60.0</v>
+        <v>4.0</v>
       </c>
       <c r="U196" t="s" s="46">
         <v>43</v>
@@ -6873,16 +6777,16 @@
         <v>229</v>
       </c>
       <c r="C197" t="n" s="234">
-        <v>2.4</v>
+        <v>220.9</v>
       </c>
       <c r="K197" t="n" s="234">
-        <v>77.19</v>
-      </c>
-      <c r="L197" t="s" s="46">
-        <v>43</v>
+        <v>75.23</v>
+      </c>
+      <c r="L197" t="n" s="234">
+        <v>0.44</v>
       </c>
       <c r="T197" t="n" s="234">
-        <v>60.0</v>
+        <v>5.0</v>
       </c>
       <c r="U197" t="s" s="46">
         <v>43</v>
@@ -6896,16 +6800,16 @@
         <v>230</v>
       </c>
       <c r="C198" t="n" s="235">
-        <v>2.4</v>
+        <v>215.9</v>
       </c>
       <c r="K198" t="n" s="235">
-        <v>70.92</v>
-      </c>
-      <c r="L198" t="s" s="46">
-        <v>43</v>
+        <v>65.96</v>
+      </c>
+      <c r="L198" t="n" s="235">
+        <v>0.5</v>
       </c>
       <c r="T198" t="n" s="235">
-        <v>60.0</v>
+        <v>7.0</v>
       </c>
       <c r="U198" t="s" s="46">
         <v>43</v>
@@ -6919,16 +6823,16 @@
         <v>231</v>
       </c>
       <c r="C199" t="n" s="236">
-        <v>4.8</v>
+        <v>218.4</v>
       </c>
       <c r="K199" t="n" s="236">
-        <v>39.53</v>
+        <v>37.27</v>
       </c>
       <c r="L199" t="n" s="236">
         <v>0.5</v>
       </c>
       <c r="T199" t="n" s="236">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="U199" t="s" s="46">
         <v>43</v>
@@ -6942,16 +6846,16 @@
         <v>232</v>
       </c>
       <c r="C200" t="n" s="237">
-        <v>4.8</v>
+        <v>220.8</v>
       </c>
       <c r="K200" t="n" s="237">
-        <v>74.06</v>
-      </c>
-      <c r="L200" t="s" s="46">
-        <v>43</v>
+        <v>66.09</v>
+      </c>
+      <c r="L200" t="n" s="237">
+        <v>0.5</v>
       </c>
       <c r="T200" t="n" s="237">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="U200" t="s" s="46">
         <v>43</v>
@@ -6964,17 +6868,17 @@
       <c r="B201" t="s">
         <v>233</v>
       </c>
-      <c r="C201" t="n" s="238">
-        <v>16.8</v>
+      <c r="C201" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K201" t="n" s="238">
-        <v>83.65</v>
+        <v>62.8</v>
       </c>
       <c r="L201" t="n" s="238">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="T201" t="n" s="238">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="U201" t="s" s="46">
         <v>43</v>
@@ -6987,17 +6891,17 @@
       <c r="B202" t="s">
         <v>234</v>
       </c>
-      <c r="C202" t="n" s="239">
-        <v>16.8</v>
+      <c r="C202" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K202" t="n" s="239">
-        <v>81.15</v>
+        <v>60.4</v>
       </c>
       <c r="L202" t="n" s="239">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="T202" t="n" s="239">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="U202" t="s" s="46">
         <v>43</v>
@@ -7011,16 +6915,16 @@
         <v>235</v>
       </c>
       <c r="C203" t="n" s="240">
-        <v>16.9</v>
+        <v>878.4</v>
       </c>
       <c r="K203" t="n" s="240">
-        <v>76.65</v>
+        <v>59.85</v>
       </c>
       <c r="L203" t="n" s="240">
         <v>0.0</v>
       </c>
       <c r="T203" t="n" s="240">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="U203" t="s" s="46">
         <v>43</v>
@@ -7033,17 +6937,17 @@
       <c r="B204" t="s">
         <v>236</v>
       </c>
-      <c r="C204" t="n" s="241">
-        <v>16.8</v>
+      <c r="C204" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K204" t="n" s="241">
-        <v>75.9</v>
+        <v>59.3</v>
       </c>
       <c r="L204" t="n" s="241">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T204" t="n" s="241">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="U204" t="s" s="46">
         <v>43</v>
@@ -7057,16 +6961,16 @@
         <v>237</v>
       </c>
       <c r="C205" t="n" s="47">
-        <v>72.0</v>
+        <v>876.0</v>
       </c>
       <c r="K205" t="n" s="242">
-        <v>76.4</v>
+        <v>59.0</v>
       </c>
       <c r="L205" t="n" s="242">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T205" t="n" s="242">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U205" t="s" s="46">
         <v>43</v>
@@ -7079,17 +6983,17 @@
       <c r="B206" t="s">
         <v>238</v>
       </c>
-      <c r="C206" t="n" s="243">
-        <v>74.4</v>
+      <c r="C206" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K206" t="n" s="243">
-        <v>74.65</v>
+        <v>59.0</v>
       </c>
       <c r="L206" t="n" s="243">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T206" t="n" s="243">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U206" t="s" s="46">
         <v>43</v>
@@ -7103,16 +7007,16 @@
         <v>239</v>
       </c>
       <c r="C207" t="n" s="244">
-        <v>74.4</v>
+        <v>878.4</v>
       </c>
       <c r="K207" t="n" s="244">
-        <v>75.25</v>
+        <v>59.0</v>
       </c>
       <c r="L207" t="n" s="244">
-        <v>-0.6</v>
+        <v>0.0</v>
       </c>
       <c r="T207" t="n" s="244">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U207" t="s" s="46">
         <v>43</v>
@@ -7125,17 +7029,17 @@
       <c r="B208" t="s">
         <v>240</v>
       </c>
-      <c r="C208" t="n" s="245">
-        <v>67.2</v>
+      <c r="C208" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K208" t="n" s="245">
-        <v>73.28</v>
+        <v>58.85</v>
       </c>
       <c r="L208" t="n" s="245">
-        <v>-0.22</v>
+        <v>0.0</v>
       </c>
       <c r="T208" t="n" s="245">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U208" t="s" s="46">
         <v>43</v>
@@ -7148,17 +7052,17 @@
       <c r="B209" t="s">
         <v>241</v>
       </c>
-      <c r="C209" t="n" s="246">
-        <v>74.3</v>
+      <c r="C209" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K209" t="n" s="246">
-        <v>46.52</v>
+        <v>58.85</v>
       </c>
       <c r="L209" t="n" s="246">
-        <v>0.94</v>
+        <v>0.0</v>
       </c>
       <c r="T209" t="n" s="246">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U209" t="s" s="46">
         <v>43</v>
@@ -7172,16 +7076,16 @@
         <v>242</v>
       </c>
       <c r="C210" t="n" s="47">
-        <v>72.0</v>
+        <v>876.0</v>
       </c>
       <c r="K210" t="n" s="247">
-        <v>29.46</v>
+        <v>58.85</v>
       </c>
       <c r="L210" t="n" s="247">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T210" t="n" s="247">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U210" t="s" s="46">
         <v>43</v>
@@ -7194,17 +7098,17 @@
       <c r="B211" t="s">
         <v>243</v>
       </c>
-      <c r="C211" t="n" s="248">
-        <v>215.9</v>
+      <c r="C211" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K211" t="n" s="248">
-        <v>64.75</v>
+        <v>98.65</v>
       </c>
       <c r="L211" t="n" s="248">
-        <v>0.05</v>
+        <v>10.07</v>
       </c>
       <c r="T211" t="n" s="248">
-        <v>7.0</v>
+        <v>54.0</v>
       </c>
       <c r="U211" t="s" s="46">
         <v>43</v>
@@ -7217,17 +7121,17 @@
       <c r="B212" t="s">
         <v>244</v>
       </c>
-      <c r="C212" t="n" s="249">
-        <v>218.4</v>
+      <c r="C212" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K212" t="n" s="249">
-        <v>41.3</v>
+        <v>89.0</v>
       </c>
       <c r="L212" t="n" s="249">
-        <v>0.65</v>
+        <v>1.63</v>
       </c>
       <c r="T212" t="n" s="249">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="U212" t="s" s="46">
         <v>43</v>
@@ -7240,17 +7144,17 @@
       <c r="B213" t="s">
         <v>245</v>
       </c>
-      <c r="C213" t="n" s="250">
-        <v>220.8</v>
+      <c r="C213" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K213" t="n" s="250">
-        <v>68.18</v>
+        <v>89.11</v>
       </c>
       <c r="L213" t="n" s="250">
-        <v>0.88</v>
+        <v>1.63</v>
       </c>
       <c r="T213" t="n" s="250">
-        <v>4.0</v>
+        <v>51.0</v>
       </c>
       <c r="U213" t="s" s="46">
         <v>43</v>
@@ -7263,17 +7167,17 @@
       <c r="B214" t="s">
         <v>246</v>
       </c>
-      <c r="C214" t="n" s="251">
-        <v>220.9</v>
+      <c r="C214" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K214" t="n" s="251">
-        <v>74.79</v>
+        <v>87.3</v>
       </c>
       <c r="L214" t="n" s="251">
-        <v>0.41</v>
+        <v>1.63</v>
       </c>
       <c r="T214" t="n" s="251">
-        <v>5.0</v>
+        <v>58.0</v>
       </c>
       <c r="U214" t="s" s="46">
         <v>43</v>
@@ -7286,17 +7190,17 @@
       <c r="B215" t="s">
         <v>247</v>
       </c>
-      <c r="C215" t="n" s="252">
-        <v>215.9</v>
+      <c r="C215" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K215" t="n" s="252">
-        <v>65.46</v>
+        <v>78.16</v>
       </c>
       <c r="L215" t="n" s="252">
-        <v>0.35</v>
+        <v>1.63</v>
       </c>
       <c r="T215" t="n" s="252">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="U215" t="s" s="46">
         <v>43</v>
@@ -7309,17 +7213,17 @@
       <c r="B216" t="s">
         <v>248</v>
       </c>
-      <c r="C216" t="n" s="253">
-        <v>218.4</v>
+      <c r="C216" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K216" t="n" s="253">
-        <v>36.77</v>
+        <v>71.14</v>
       </c>
       <c r="L216" t="n" s="253">
-        <v>0.35</v>
+        <v>1.63</v>
       </c>
       <c r="T216" t="n" s="253">
-        <v>5.0</v>
+        <v>58.0</v>
       </c>
       <c r="U216" t="s" s="46">
         <v>43</v>
@@ -7332,17 +7236,17 @@
       <c r="B217" t="s">
         <v>249</v>
       </c>
-      <c r="C217" t="n" s="254">
-        <v>220.8</v>
+      <c r="C217" t="n" s="47">
+        <v>48.0</v>
       </c>
       <c r="K217" t="n" s="254">
-        <v>65.59</v>
+        <v>74.65</v>
       </c>
       <c r="L217" t="n" s="254">
-        <v>0.35</v>
+        <v>1.63</v>
       </c>
       <c r="T217" t="n" s="254">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="U217" t="s" s="46">
         <v>43</v>
@@ -7356,16 +7260,16 @@
         <v>250</v>
       </c>
       <c r="C218" t="n" s="47">
-        <v>876.0</v>
+        <v>168.0</v>
       </c>
       <c r="K218" t="n" s="255">
-        <v>62.3</v>
+        <v>87.0</v>
       </c>
       <c r="L218" t="n" s="255">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="T218" t="n" s="255">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="U218" t="s" s="46">
         <v>43</v>
@@ -7379,16 +7283,16 @@
         <v>251</v>
       </c>
       <c r="C219" t="n" s="47">
-        <v>876.0</v>
+        <v>169.0</v>
       </c>
       <c r="K219" t="n" s="256">
-        <v>59.9</v>
+        <v>78.0</v>
       </c>
       <c r="L219" t="n" s="256">
-        <v>0.35</v>
+        <v>2.0</v>
       </c>
       <c r="T219" t="n" s="256">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="U219" t="s" s="46">
         <v>43</v>
@@ -7401,17 +7305,17 @@
       <c r="B220" t="s">
         <v>252</v>
       </c>
-      <c r="C220" t="n" s="257">
-        <v>878.4</v>
+      <c r="C220" t="n" s="47">
+        <v>168.0</v>
       </c>
       <c r="K220" t="n" s="257">
-        <v>59.85</v>
+        <v>77.28</v>
       </c>
       <c r="L220" t="n" s="257">
-        <v>0.0</v>
+        <v>2.03</v>
       </c>
       <c r="T220" t="n" s="257">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="U220" t="s" s="46">
         <v>43</v>
@@ -7425,16 +7329,16 @@
         <v>253</v>
       </c>
       <c r="C221" t="n" s="47">
-        <v>876.0</v>
+        <v>168.0</v>
       </c>
       <c r="K221" t="n" s="258">
-        <v>59.3</v>
-      </c>
-      <c r="L221" t="n" s="258">
-        <v>0.0</v>
+        <v>77.85</v>
+      </c>
+      <c r="L221" t="s" s="46">
+        <v>43</v>
       </c>
       <c r="T221" t="n" s="258">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="U221" t="s" s="46">
         <v>43</v>
@@ -7448,16 +7352,16 @@
         <v>254</v>
       </c>
       <c r="C222" t="n" s="47">
-        <v>876.0</v>
+        <v>720.0</v>
       </c>
       <c r="K222" t="n" s="259">
-        <v>59.0</v>
+        <v>77.85</v>
       </c>
       <c r="L222" t="n" s="259">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
       <c r="T222" t="n" s="259">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="U222" t="s" s="46">
         <v>43</v>
@@ -7471,16 +7375,16 @@
         <v>255</v>
       </c>
       <c r="C223" t="n" s="47">
-        <v>876.0</v>
+        <v>744.0</v>
       </c>
       <c r="K223" t="n" s="260">
-        <v>59.0</v>
+        <v>76.0</v>
       </c>
       <c r="L223" t="n" s="260">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T223" t="n" s="260">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="U223" t="s" s="46">
         <v>43</v>
@@ -7493,17 +7397,17 @@
       <c r="B224" t="s">
         <v>256</v>
       </c>
-      <c r="C224" t="n" s="261">
-        <v>878.4</v>
+      <c r="C224" t="n" s="47">
+        <v>744.0</v>
       </c>
       <c r="K224" t="n" s="261">
-        <v>59.0</v>
+        <v>74.6</v>
       </c>
       <c r="L224" t="n" s="261">
-        <v>0.0</v>
+        <v>0.35</v>
       </c>
       <c r="T224" t="n" s="261">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="U224" t="s" s="46">
         <v>43</v>
@@ -7517,16 +7421,16 @@
         <v>257</v>
       </c>
       <c r="C225" t="n" s="47">
-        <v>876.0</v>
+        <v>672.0</v>
       </c>
       <c r="K225" t="n" s="262">
-        <v>58.85</v>
+        <v>72.92</v>
       </c>
       <c r="L225" t="n" s="262">
-        <v>0.0</v>
+        <v>0.64</v>
       </c>
       <c r="T225" t="n" s="262">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="U225" t="s" s="46">
         <v>43</v>
@@ -7540,16 +7444,16 @@
         <v>258</v>
       </c>
       <c r="C226" t="n" s="47">
-        <v>876.0</v>
+        <v>743.0</v>
       </c>
       <c r="K226" t="n" s="263">
-        <v>58.85</v>
+        <v>45.75</v>
       </c>
       <c r="L226" t="n" s="263">
-        <v>0.0</v>
+        <v>0.23</v>
       </c>
       <c r="T226" t="n" s="263">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U226" t="s" s="46">
         <v>43</v>
@@ -7563,16 +7467,16 @@
         <v>259</v>
       </c>
       <c r="C227" t="n" s="47">
-        <v>876.0</v>
+        <v>720.0</v>
       </c>
       <c r="K227" t="n" s="264">
-        <v>58.85</v>
+        <v>29.16</v>
       </c>
       <c r="L227" t="n" s="264">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="T227" t="n" s="264">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U227" t="s" s="46">
         <v>43</v>
@@ -7586,16 +7490,16 @@
         <v>260</v>
       </c>
       <c r="C228" t="n" s="47">
-        <v>24.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K228" t="n" s="265">
-        <v>53.1</v>
+        <v>64.15</v>
       </c>
       <c r="L228" t="n" s="265">
-        <v>12.56</v>
+        <v>0.4</v>
       </c>
       <c r="T228" t="n" s="265">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="U228" t="s" s="46">
         <v>43</v>
@@ -7609,16 +7513,16 @@
         <v>261</v>
       </c>
       <c r="C229" t="n" s="47">
-        <v>24.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K229" t="n" s="266">
-        <v>25.9</v>
+        <v>41.0</v>
       </c>
       <c r="L229" t="n" s="266">
-        <v>-11.56</v>
+        <v>0.7</v>
       </c>
       <c r="T229" t="n" s="266">
-        <v>30.0</v>
+        <v>6.0</v>
       </c>
       <c r="U229" t="s" s="46">
         <v>43</v>
@@ -7632,16 +7536,16 @@
         <v>262</v>
       </c>
       <c r="C230" t="n" s="47">
-        <v>24.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K230" t="n" s="267">
-        <v>85.87</v>
-      </c>
-      <c r="L230" t="s" s="46">
-        <v>43</v>
+        <v>67.64</v>
+      </c>
+      <c r="L230" t="n" s="267">
+        <v>0.46</v>
       </c>
       <c r="T230" t="n" s="267">
-        <v>51.0</v>
+        <v>3.0</v>
       </c>
       <c r="U230" t="s" s="46">
         <v>43</v>
@@ -7655,16 +7559,16 @@
         <v>263</v>
       </c>
       <c r="C231" t="n" s="47">
-        <v>24.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K231" t="n" s="268">
-        <v>88.58</v>
-      </c>
-      <c r="L231" t="s" s="46">
-        <v>43</v>
+        <v>74.23</v>
+      </c>
+      <c r="L231" t="n" s="268">
+        <v>0.44</v>
       </c>
       <c r="T231" t="n" s="268">
-        <v>58.0</v>
+        <v>5.0</v>
       </c>
       <c r="U231" t="s" s="46">
         <v>43</v>
@@ -7678,16 +7582,16 @@
         <v>264</v>
       </c>
       <c r="C232" t="n" s="47">
-        <v>24.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K232" t="n" s="269">
-        <v>87.37</v>
-      </c>
-      <c r="L232" t="s" s="46">
-        <v>43</v>
+        <v>64.96</v>
+      </c>
+      <c r="L232" t="n" s="269">
+        <v>0.5</v>
       </c>
       <c r="T232" t="n" s="269">
-        <v>42.0</v>
+        <v>7.0</v>
       </c>
       <c r="U232" t="s" s="46">
         <v>43</v>
@@ -7701,16 +7605,16 @@
         <v>265</v>
       </c>
       <c r="C233" t="n" s="47">
-        <v>24.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K233" t="n" s="270">
-        <v>87.48</v>
-      </c>
-      <c r="L233" t="s" s="46">
-        <v>43</v>
+        <v>36.27</v>
+      </c>
+      <c r="L233" t="n" s="270">
+        <v>0.5</v>
       </c>
       <c r="T233" t="n" s="270">
-        <v>58.0</v>
+        <v>5.0</v>
       </c>
       <c r="U233" t="s" s="46">
         <v>43</v>
@@ -7724,16 +7628,16 @@
         <v>266</v>
       </c>
       <c r="C234" t="n" s="47">
-        <v>24.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K234" t="n" s="271">
-        <v>85.67</v>
-      </c>
-      <c r="L234" t="s" s="46">
-        <v>43</v>
+        <v>65.09</v>
+      </c>
+      <c r="L234" t="n" s="271">
+        <v>0.5</v>
       </c>
       <c r="T234" t="n" s="271">
-        <v>58.0</v>
+        <v>3.0</v>
       </c>
       <c r="U234" t="s" s="46">
         <v>43</v>
@@ -7747,16 +7651,16 @@
         <v>267</v>
       </c>
       <c r="C235" t="n" s="47">
-        <v>24.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K235" t="n" s="272">
-        <v>76.53</v>
-      </c>
-      <c r="L235" t="s" s="46">
-        <v>43</v>
+        <v>61.8</v>
+      </c>
+      <c r="L235" t="n" s="272">
+        <v>0.5</v>
       </c>
       <c r="T235" t="n" s="272">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
       <c r="U235" t="s" s="46">
         <v>43</v>
@@ -7770,16 +7674,16 @@
         <v>268</v>
       </c>
       <c r="C236" t="n" s="47">
-        <v>24.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K236" t="n" s="273">
-        <v>69.51</v>
-      </c>
-      <c r="L236" t="s" s="46">
-        <v>43</v>
+        <v>59.4</v>
+      </c>
+      <c r="L236" t="n" s="273">
+        <v>0.5</v>
       </c>
       <c r="T236" t="n" s="273">
-        <v>58.0</v>
+        <v>3.0</v>
       </c>
       <c r="U236" t="s" s="46">
         <v>43</v>
@@ -7793,16 +7697,16 @@
         <v>269</v>
       </c>
       <c r="C237" t="n" s="47">
-        <v>48.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K237" t="n" s="274">
-        <v>39.5</v>
+        <v>58.85</v>
       </c>
       <c r="L237" t="n" s="274">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T237" t="n" s="274">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="U237" t="s" s="46">
         <v>43</v>
@@ -7816,16 +7720,16 @@
         <v>270</v>
       </c>
       <c r="C238" t="n" s="47">
-        <v>48.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K238" t="n" s="275">
-        <v>73.02</v>
-      </c>
-      <c r="L238" t="s" s="46">
-        <v>43</v>
+        <v>58.3</v>
+      </c>
+      <c r="L238" t="n" s="275">
+        <v>0.0</v>
       </c>
       <c r="T238" t="n" s="275">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="U238" t="s" s="46">
         <v>43</v>
@@ -7839,16 +7743,16 @@
         <v>271</v>
       </c>
       <c r="C239" t="n" s="47">
-        <v>168.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K239" t="n" s="276">
-        <v>83.0</v>
+        <v>58.0</v>
       </c>
       <c r="L239" t="n" s="276">
-        <v>7.8</v>
+        <v>0.0</v>
       </c>
       <c r="T239" t="n" s="276">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="U239" t="s" s="46">
         <v>43</v>
@@ -7862,16 +7766,16 @@
         <v>272</v>
       </c>
       <c r="C240" t="n" s="47">
-        <v>168.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K240" t="n" s="277">
-        <v>80.5</v>
+        <v>58.0</v>
       </c>
       <c r="L240" t="n" s="277">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="T240" t="n" s="277">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="U240" t="s" s="46">
         <v>43</v>
@@ -7885,16 +7789,16 @@
         <v>273</v>
       </c>
       <c r="C241" t="n" s="47">
-        <v>169.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K241" t="n" s="278">
-        <v>76.0</v>
+        <v>58.0</v>
       </c>
       <c r="L241" t="n" s="278">
         <v>0.0</v>
       </c>
       <c r="T241" t="n" s="278">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="U241" t="s" s="46">
         <v>43</v>
@@ -7908,16 +7812,16 @@
         <v>274</v>
       </c>
       <c r="C242" t="n" s="47">
-        <v>168.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K242" t="n" s="279">
-        <v>75.25</v>
+        <v>57.85</v>
       </c>
       <c r="L242" t="n" s="279">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T242" t="n" s="279">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="U242" t="s" s="46">
         <v>43</v>
@@ -7931,16 +7835,16 @@
         <v>275</v>
       </c>
       <c r="C243" t="n" s="47">
-        <v>720.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K243" t="n" s="280">
-        <v>75.75</v>
+        <v>57.85</v>
       </c>
       <c r="L243" t="n" s="280">
-        <v>1.75</v>
+        <v>0.0</v>
       </c>
       <c r="T243" t="n" s="280">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="U243" t="s" s="46">
         <v>43</v>
@@ -7954,16 +7858,16 @@
         <v>276</v>
       </c>
       <c r="C244" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K244" t="n" s="281">
-        <v>74.0</v>
+        <v>57.85</v>
       </c>
       <c r="L244" t="n" s="281">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T244" t="n" s="281">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="U244" t="s" s="46">
         <v>43</v>
@@ -7977,19 +7881,19 @@
         <v>277</v>
       </c>
       <c r="C245" t="n" s="47">
-        <v>744.0</v>
+        <v>720.0</v>
       </c>
       <c r="K245" t="n" s="282">
-        <v>74.25</v>
+        <v>4.61</v>
       </c>
       <c r="L245" t="n" s="282">
-        <v>-0.6</v>
+        <v>1.35</v>
       </c>
       <c r="T245" t="n" s="282">
-        <v>8.0</v>
-      </c>
-      <c r="U245" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U245" t="n" s="282">
+        <v>0.29</v>
       </c>
     </row>
     <row r="246">
@@ -8000,19 +7904,19 @@
         <v>278</v>
       </c>
       <c r="C246" t="n" s="47">
-        <v>672.0</v>
+        <v>720.0</v>
       </c>
       <c r="K246" t="n" s="283">
-        <v>72.28</v>
+        <v>3.9</v>
       </c>
       <c r="L246" t="n" s="283">
-        <v>-0.22</v>
+        <v>1.22</v>
       </c>
       <c r="T246" t="n" s="283">
-        <v>9.0</v>
-      </c>
-      <c r="U246" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U246" t="n" s="283">
+        <v>0.29</v>
       </c>
     </row>
     <row r="247">
@@ -8023,19 +7927,19 @@
         <v>279</v>
       </c>
       <c r="C247" t="n" s="47">
-        <v>743.0</v>
+        <v>720.0</v>
       </c>
       <c r="K247" t="n" s="284">
-        <v>45.52</v>
+        <v>3.25</v>
       </c>
       <c r="L247" t="n" s="284">
-        <v>0.94</v>
+        <v>1.07</v>
       </c>
       <c r="T247" t="n" s="284">
-        <v>7.0</v>
-      </c>
-      <c r="U247" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U247" t="n" s="284">
+        <v>0.29</v>
       </c>
     </row>
     <row r="248">
@@ -8049,16 +7953,16 @@
         <v>720.0</v>
       </c>
       <c r="K248" t="n" s="285">
-        <v>28.46</v>
+        <v>2.66</v>
       </c>
       <c r="L248" t="n" s="285">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="T248" t="n" s="285">
-        <v>7.0</v>
-      </c>
-      <c r="U248" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U248" t="n" s="285">
+        <v>0.29</v>
       </c>
     </row>
     <row r="249">
@@ -8069,19 +7973,19 @@
         <v>281</v>
       </c>
       <c r="C249" t="n" s="47">
-        <v>2159.0</v>
+        <v>720.0</v>
       </c>
       <c r="K249" t="n" s="286">
-        <v>63.75</v>
+        <v>0.16</v>
       </c>
       <c r="L249" t="n" s="286">
-        <v>0.05</v>
+        <v>-0.27</v>
       </c>
       <c r="T249" t="n" s="286">
-        <v>7.0</v>
-      </c>
-      <c r="U249" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U249" t="n" s="286">
+        <v>0.29</v>
       </c>
     </row>
     <row r="250">
@@ -8092,19 +7996,19 @@
         <v>282</v>
       </c>
       <c r="C250" t="n" s="47">
-        <v>2184.0</v>
+        <v>720.0</v>
       </c>
       <c r="K250" t="n" s="287">
-        <v>40.3</v>
+        <v>0.25</v>
       </c>
       <c r="L250" t="n" s="287">
-        <v>0.65</v>
+        <v>-0.37</v>
       </c>
       <c r="T250" t="n" s="287">
-        <v>6.0</v>
-      </c>
-      <c r="U250" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U250" t="n" s="287">
+        <v>0.29</v>
       </c>
     </row>
     <row r="251">
@@ -8115,19 +8019,19 @@
         <v>283</v>
       </c>
       <c r="C251" t="n" s="47">
-        <v>2208.0</v>
+        <v>720.0</v>
       </c>
       <c r="K251" t="n" s="288">
-        <v>67.18</v>
+        <v>0.38</v>
       </c>
       <c r="L251" t="n" s="288">
-        <v>0.88</v>
+        <v>-0.47</v>
       </c>
       <c r="T251" t="n" s="288">
-        <v>3.0</v>
-      </c>
-      <c r="U251" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U251" t="n" s="288">
+        <v>0.29</v>
       </c>
     </row>
     <row r="252">
@@ -8138,19 +8042,19 @@
         <v>284</v>
       </c>
       <c r="C252" t="n" s="47">
-        <v>2209.0</v>
+        <v>720.0</v>
       </c>
       <c r="K252" t="n" s="289">
-        <v>73.79</v>
+        <v>0.55</v>
       </c>
       <c r="L252" t="n" s="289">
-        <v>0.41</v>
+        <v>-0.6</v>
       </c>
       <c r="T252" t="n" s="289">
-        <v>5.0</v>
-      </c>
-      <c r="U252" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U252" t="n" s="289">
+        <v>0.29</v>
       </c>
     </row>
     <row r="253">
@@ -8161,19 +8065,19 @@
         <v>285</v>
       </c>
       <c r="C253" t="n" s="47">
-        <v>2159.0</v>
+        <v>744.0</v>
       </c>
       <c r="K253" t="n" s="290">
-        <v>64.46</v>
+        <v>3.73</v>
       </c>
       <c r="L253" t="n" s="290">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="T253" t="n" s="290">
-        <v>7.0</v>
-      </c>
-      <c r="U253" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U253" t="n" s="290">
+        <v>0.29</v>
       </c>
     </row>
     <row r="254">
@@ -8184,19 +8088,19 @@
         <v>286</v>
       </c>
       <c r="C254" t="n" s="47">
-        <v>2184.0</v>
+        <v>744.0</v>
       </c>
       <c r="K254" t="n" s="291">
-        <v>35.77</v>
+        <v>3.23</v>
       </c>
       <c r="L254" t="n" s="291">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="T254" t="n" s="291">
-        <v>5.0</v>
-      </c>
-      <c r="U254" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U254" t="n" s="291">
+        <v>0.29</v>
       </c>
     </row>
     <row r="255">
@@ -8207,19 +8111,19 @@
         <v>287</v>
       </c>
       <c r="C255" t="n" s="47">
-        <v>2208.0</v>
+        <v>744.0</v>
       </c>
       <c r="K255" t="n" s="292">
-        <v>64.59</v>
+        <v>2.78</v>
       </c>
       <c r="L255" t="n" s="292">
-        <v>0.35</v>
+        <v>0.76</v>
       </c>
       <c r="T255" t="n" s="292">
-        <v>3.0</v>
-      </c>
-      <c r="U255" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U255" t="n" s="292">
+        <v>0.29</v>
       </c>
     </row>
     <row r="256">
@@ -8230,19 +8134,19 @@
         <v>288</v>
       </c>
       <c r="C256" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K256" t="n" s="293">
-        <v>61.3</v>
+        <v>2.37</v>
       </c>
       <c r="L256" t="n" s="293">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="T256" t="n" s="293">
-        <v>4.0</v>
-      </c>
-      <c r="U256" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U256" t="n" s="293">
+        <v>0.29</v>
       </c>
     </row>
     <row r="257">
@@ -8253,19 +8157,19 @@
         <v>289</v>
       </c>
       <c r="C257" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K257" t="n" s="294">
-        <v>58.9</v>
+        <v>1.24</v>
       </c>
       <c r="L257" t="n" s="294">
-        <v>0.35</v>
+        <v>-0.66</v>
       </c>
       <c r="T257" t="n" s="294">
-        <v>3.0</v>
-      </c>
-      <c r="U257" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U257" t="n" s="294">
+        <v>0.29</v>
       </c>
     </row>
     <row r="258">
@@ -8276,19 +8180,19 @@
         <v>290</v>
       </c>
       <c r="C258" t="n" s="47">
-        <v>8784.0</v>
+        <v>744.0</v>
       </c>
       <c r="K258" t="n" s="295">
-        <v>58.85</v>
+        <v>1.54</v>
       </c>
       <c r="L258" t="n" s="295">
-        <v>0.0</v>
+        <v>-0.75</v>
       </c>
       <c r="T258" t="n" s="295">
-        <v>3.0</v>
-      </c>
-      <c r="U258" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U258" t="n" s="295">
+        <v>0.29</v>
       </c>
     </row>
     <row r="259">
@@ -8299,19 +8203,19 @@
         <v>291</v>
       </c>
       <c r="C259" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K259" t="n" s="296">
-        <v>58.3</v>
+        <v>1.89</v>
       </c>
       <c r="L259" t="n" s="296">
-        <v>0.0</v>
+        <v>-0.85</v>
       </c>
       <c r="T259" t="n" s="296">
-        <v>3.0</v>
-      </c>
-      <c r="U259" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U259" t="n" s="296">
+        <v>0.29</v>
       </c>
     </row>
     <row r="260">
@@ -8322,19 +8226,19 @@
         <v>292</v>
       </c>
       <c r="C260" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K260" t="n" s="297">
-        <v>58.0</v>
+        <v>2.29</v>
       </c>
       <c r="L260" t="n" s="297">
-        <v>0.0</v>
+        <v>-0.95</v>
       </c>
       <c r="T260" t="n" s="297">
-        <v>3.0</v>
-      </c>
-      <c r="U260" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U260" t="n" s="297">
+        <v>0.29</v>
       </c>
     </row>
     <row r="261">
@@ -8345,19 +8249,19 @@
         <v>293</v>
       </c>
       <c r="C261" t="n" s="47">
-        <v>8760.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K261" t="n" s="298">
-        <v>58.0</v>
+        <v>1.57</v>
       </c>
       <c r="L261" t="n" s="298">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="T261" t="n" s="298">
-        <v>3.0</v>
-      </c>
-      <c r="U261" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U261" t="n" s="298">
+        <v>0.24</v>
       </c>
     </row>
     <row r="262">
@@ -8368,19 +8272,19 @@
         <v>294</v>
       </c>
       <c r="C262" t="n" s="47">
-        <v>8784.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K262" t="n" s="299">
-        <v>58.0</v>
+        <v>1.28</v>
       </c>
       <c r="L262" t="n" s="299">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="T262" t="n" s="299">
-        <v>3.0</v>
-      </c>
-      <c r="U262" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U262" t="n" s="299">
+        <v>0.24</v>
       </c>
     </row>
     <row r="263">
@@ -8391,19 +8295,19 @@
         <v>295</v>
       </c>
       <c r="C263" t="n" s="47">
-        <v>8760.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K263" t="n" s="300">
-        <v>57.85</v>
+        <v>1.03</v>
       </c>
       <c r="L263" t="n" s="300">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="T263" t="n" s="300">
-        <v>3.0</v>
-      </c>
-      <c r="U263" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U263" t="n" s="300">
+        <v>0.24</v>
       </c>
     </row>
     <row r="264">
@@ -8414,19 +8318,19 @@
         <v>296</v>
       </c>
       <c r="C264" t="n" s="47">
-        <v>8760.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K264" t="n" s="301">
-        <v>57.85</v>
+        <v>0.82</v>
       </c>
       <c r="L264" t="n" s="301">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="T264" t="n" s="301">
-        <v>3.0</v>
-      </c>
-      <c r="U264" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U264" t="n" s="301">
+        <v>0.24</v>
       </c>
     </row>
     <row r="265">
@@ -8437,19 +8341,19 @@
         <v>297</v>
       </c>
       <c r="C265" t="n" s="47">
-        <v>8760.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K265" t="n" s="302">
-        <v>57.85</v>
+        <v>2.63</v>
       </c>
       <c r="L265" t="n" s="302">
-        <v>0.0</v>
+        <v>-0.24</v>
       </c>
       <c r="T265" t="n" s="302">
-        <v>4.0</v>
-      </c>
-      <c r="U265" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U265" t="n" s="302">
+        <v>0.24</v>
       </c>
     </row>
     <row r="266">
@@ -8460,19 +8364,19 @@
         <v>298</v>
       </c>
       <c r="C266" t="n" s="47">
-        <v>720.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K266" t="n" s="303">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="L266" t="n" s="303">
-        <v>0.97</v>
+        <v>-0.27</v>
       </c>
       <c r="T266" t="n" s="303">
         <v>0.0</v>
       </c>
       <c r="U266" t="n" s="303">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="267">
@@ -8483,19 +8387,19 @@
         <v>299</v>
       </c>
       <c r="C267" t="n" s="47">
-        <v>720.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K267" t="n" s="304">
-        <v>2.68</v>
+        <v>3.76</v>
       </c>
       <c r="L267" t="n" s="304">
-        <v>0.84</v>
+        <v>-0.29</v>
       </c>
       <c r="T267" t="n" s="304">
         <v>0.0</v>
       </c>
       <c r="U267" t="n" s="304">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="268">
@@ -8506,19 +8410,19 @@
         <v>300</v>
       </c>
       <c r="C268" t="n" s="47">
-        <v>720.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K268" t="n" s="305">
-        <v>2.18</v>
+        <v>4.41</v>
       </c>
       <c r="L268" t="n" s="305">
-        <v>0.72</v>
+        <v>-0.31</v>
       </c>
       <c r="T268" t="n" s="305">
         <v>0.0</v>
       </c>
       <c r="U268" t="n" s="305">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="269">
@@ -8529,19 +8433,19 @@
         <v>301</v>
       </c>
       <c r="C269" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K269" t="n" s="306">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="L269" t="n" s="306">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="T269" t="n" s="306">
         <v>0.0</v>
       </c>
       <c r="U269" t="n" s="306">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="270">
@@ -8552,19 +8456,19 @@
         <v>302</v>
       </c>
       <c r="C270" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K270" t="n" s="307">
-        <v>0.43</v>
+        <v>3.41</v>
       </c>
       <c r="L270" t="n" s="307">
-        <v>-0.35</v>
+        <v>0.37</v>
       </c>
       <c r="T270" t="n" s="307">
         <v>0.0</v>
       </c>
       <c r="U270" t="n" s="307">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="271">
@@ -8575,19 +8479,19 @@
         <v>303</v>
       </c>
       <c r="C271" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K271" t="n" s="308">
-        <v>0.62</v>
+        <v>2.93</v>
       </c>
       <c r="L271" t="n" s="308">
-        <v>-0.44</v>
+        <v>0.34</v>
       </c>
       <c r="T271" t="n" s="308">
         <v>0.0</v>
       </c>
       <c r="U271" t="n" s="308">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="272">
@@ -8598,19 +8502,19 @@
         <v>304</v>
       </c>
       <c r="C272" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K272" t="n" s="309">
-        <v>0.85</v>
+        <v>2.49</v>
       </c>
       <c r="L272" t="n" s="309">
-        <v>-0.55</v>
+        <v>0.29</v>
       </c>
       <c r="T272" t="n" s="309">
         <v>0.0</v>
       </c>
       <c r="U272" t="n" s="309">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="273">
@@ -8621,19 +8525,19 @@
         <v>305</v>
       </c>
       <c r="C273" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K273" t="n" s="310">
-        <v>1.15</v>
+        <v>0.71</v>
       </c>
       <c r="L273" t="n" s="310">
-        <v>-0.66</v>
+        <v>-0.14</v>
       </c>
       <c r="T273" t="n" s="310">
         <v>0.0</v>
       </c>
       <c r="U273" t="n" s="310">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="274">
@@ -8644,19 +8548,19 @@
         <v>306</v>
       </c>
       <c r="C274" t="n" s="47">
-        <v>744.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K274" t="n" s="311">
-        <v>2.78</v>
+        <v>0.95</v>
       </c>
       <c r="L274" t="n" s="311">
-        <v>0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="T274" t="n" s="311">
         <v>0.0</v>
       </c>
       <c r="U274" t="n" s="311">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="275">
@@ -8667,19 +8571,19 @@
         <v>307</v>
       </c>
       <c r="C275" t="n" s="47">
-        <v>744.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K275" t="n" s="312">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="L275" t="n" s="312">
-        <v>0.18</v>
+        <v>-0.21</v>
       </c>
       <c r="T275" t="n" s="312">
         <v>0.0</v>
       </c>
       <c r="U275" t="n" s="312">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="276">
@@ -8690,19 +8594,19 @@
         <v>308</v>
       </c>
       <c r="C276" t="n" s="47">
-        <v>744.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K276" t="n" s="313">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="L276" t="n" s="313">
-        <v>0.16</v>
+        <v>-0.24</v>
       </c>
       <c r="T276" t="n" s="313">
         <v>0.0</v>
       </c>
       <c r="U276" t="n" s="313">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="277">
@@ -8713,19 +8617,19 @@
         <v>309</v>
       </c>
       <c r="C277" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K277" t="n" s="314">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="L277" t="n" s="314">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="T277" t="n" s="314">
         <v>0.0</v>
       </c>
       <c r="U277" t="n" s="314">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="278">
@@ -8736,19 +8640,19 @@
         <v>310</v>
       </c>
       <c r="C278" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K278" t="n" s="315">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="L278" t="n" s="315">
-        <v>-0.2</v>
+        <v>0.08</v>
       </c>
       <c r="T278" t="n" s="315">
         <v>0.0</v>
       </c>
       <c r="U278" t="n" s="315">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="279">
@@ -8759,19 +8663,19 @@
         <v>311</v>
       </c>
       <c r="C279" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K279" t="n" s="316">
-        <v>2.29</v>
+        <v>0.71</v>
       </c>
       <c r="L279" t="n" s="316">
-        <v>-0.23</v>
+        <v>0.06</v>
       </c>
       <c r="T279" t="n" s="316">
         <v>0.0</v>
       </c>
       <c r="U279" t="n" s="316">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="280">
@@ -8782,19 +8686,19 @@
         <v>312</v>
       </c>
       <c r="C280" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K280" t="n" s="317">
-        <v>2.74</v>
+        <v>0.55</v>
       </c>
       <c r="L280" t="n" s="317">
-        <v>-0.25</v>
+        <v>0.04</v>
       </c>
       <c r="T280" t="n" s="317">
         <v>0.0</v>
       </c>
       <c r="U280" t="n" s="317">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="281">
@@ -8805,19 +8709,19 @@
         <v>313</v>
       </c>
       <c r="C281" t="n" s="47">
-        <v>744.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K281" t="n" s="318">
-        <v>3.24</v>
+        <v>2.74</v>
       </c>
       <c r="L281" t="n" s="318">
-        <v>-0.27</v>
+        <v>-0.31</v>
       </c>
       <c r="T281" t="n" s="318">
         <v>0.0</v>
       </c>
       <c r="U281" t="n" s="318">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="282">
@@ -8828,13 +8732,13 @@
         <v>314</v>
       </c>
       <c r="C282" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K282" t="n" s="319">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="L282" t="n" s="319">
-        <v>0.0</v>
+        <v>-0.33</v>
       </c>
       <c r="T282" t="n" s="319">
         <v>0.0</v>
@@ -8851,13 +8755,13 @@
         <v>315</v>
       </c>
       <c r="C283" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K283" t="n" s="320">
-        <v>1.2</v>
+        <v>3.92</v>
       </c>
       <c r="L283" t="n" s="320">
-        <v>0.0</v>
+        <v>-0.36</v>
       </c>
       <c r="T283" t="n" s="320">
         <v>0.0</v>
@@ -8874,13 +8778,13 @@
         <v>316</v>
       </c>
       <c r="C284" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K284" t="n" s="321">
-        <v>0.97</v>
+        <v>4.59</v>
       </c>
       <c r="L284" t="n" s="321">
-        <v>0.0</v>
+        <v>-0.38</v>
       </c>
       <c r="T284" t="n" s="321">
         <v>0.0</v>
@@ -8897,10 +8801,10 @@
         <v>317</v>
       </c>
       <c r="C285" t="n" s="47">
-        <v>2159.0</v>
+        <v>720.0</v>
       </c>
       <c r="K285" t="n" s="322">
-        <v>0.77</v>
+        <v>0.0</v>
       </c>
       <c r="L285" t="n" s="322">
         <v>0.0</v>
@@ -8908,8 +8812,8 @@
       <c r="T285" t="n" s="322">
         <v>0.0</v>
       </c>
-      <c r="U285" t="n" s="322">
-        <v>0.24</v>
+      <c r="U285" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="286">
@@ -8920,19 +8824,19 @@
         <v>318</v>
       </c>
       <c r="C286" t="n" s="47">
-        <v>2159.0</v>
+        <v>720.0</v>
       </c>
       <c r="K286" t="n" s="323">
-        <v>2.87</v>
+        <v>0.0</v>
       </c>
       <c r="L286" t="n" s="323">
-        <v>-0.04</v>
+        <v>0.0</v>
       </c>
       <c r="T286" t="n" s="323">
         <v>0.0</v>
       </c>
-      <c r="U286" t="n" s="323">
-        <v>0.24</v>
+      <c r="U286" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="287">
@@ -8943,19 +8847,19 @@
         <v>319</v>
       </c>
       <c r="C287" t="n" s="47">
-        <v>2159.0</v>
+        <v>744.0</v>
       </c>
       <c r="K287" t="n" s="324">
-        <v>3.43</v>
+        <v>0.0</v>
       </c>
       <c r="L287" t="n" s="324">
-        <v>-0.05</v>
+        <v>0.0</v>
       </c>
       <c r="T287" t="n" s="324">
         <v>0.0</v>
       </c>
-      <c r="U287" t="n" s="324">
-        <v>0.24</v>
+      <c r="U287" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="288">
@@ -8966,19 +8870,19 @@
         <v>320</v>
       </c>
       <c r="C288" t="n" s="47">
-        <v>2159.0</v>
+        <v>744.0</v>
       </c>
       <c r="K288" t="n" s="325">
-        <v>4.05</v>
+        <v>0.0</v>
       </c>
       <c r="L288" t="n" s="325">
-        <v>-0.05</v>
+        <v>0.0</v>
       </c>
       <c r="T288" t="n" s="325">
         <v>0.0</v>
       </c>
-      <c r="U288" t="n" s="325">
-        <v>0.24</v>
+      <c r="U288" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="289">
@@ -8989,19 +8893,19 @@
         <v>321</v>
       </c>
       <c r="C289" t="n" s="47">
-        <v>2159.0</v>
+        <v>744.0</v>
       </c>
       <c r="K289" t="n" s="326">
-        <v>4.72</v>
+        <v>0.0</v>
       </c>
       <c r="L289" t="n" s="326">
-        <v>-0.05</v>
+        <v>0.0</v>
       </c>
       <c r="T289" t="n" s="326">
         <v>0.0</v>
       </c>
-      <c r="U289" t="n" s="326">
-        <v>0.24</v>
+      <c r="U289" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="290">
@@ -9012,501 +8916,18 @@
         <v>322</v>
       </c>
       <c r="C290" t="n" s="47">
-        <v>2184.0</v>
+        <v>744.0</v>
       </c>
       <c r="K290" t="n" s="327">
-        <v>3.54</v>
+        <v>0.0</v>
       </c>
       <c r="L290" t="n" s="327">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
       <c r="T290" t="n" s="327">
         <v>0.0</v>
       </c>
-      <c r="U290" t="n" s="327">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B291" t="s">
-        <v>323</v>
-      </c>
-      <c r="C291" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K291" t="n" s="328">
-        <v>3.04</v>
-      </c>
-      <c r="L291" t="n" s="328">
-        <v>0.33</v>
-      </c>
-      <c r="T291" t="n" s="328">
-        <v>0.0</v>
-      </c>
-      <c r="U291" t="n" s="328">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B292" t="s">
-        <v>324</v>
-      </c>
-      <c r="C292" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K292" t="n" s="329">
-        <v>2.59</v>
-      </c>
-      <c r="L292" t="n" s="329">
-        <v>0.3</v>
-      </c>
-      <c r="T292" t="n" s="329">
-        <v>0.0</v>
-      </c>
-      <c r="U292" t="n" s="329">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B293" t="s">
-        <v>325</v>
-      </c>
-      <c r="C293" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K293" t="n" s="330">
-        <v>2.2</v>
-      </c>
-      <c r="L293" t="n" s="330">
-        <v>0.27</v>
-      </c>
-      <c r="T293" t="n" s="330">
-        <v>0.0</v>
-      </c>
-      <c r="U293" t="n" s="330">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B294" t="s">
-        <v>326</v>
-      </c>
-      <c r="C294" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K294" t="n" s="331">
-        <v>0.85</v>
-      </c>
-      <c r="L294" t="n" s="331">
-        <v>-0.14</v>
-      </c>
-      <c r="T294" t="n" s="331">
-        <v>0.0</v>
-      </c>
-      <c r="U294" t="n" s="331">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B295" t="s">
-        <v>327</v>
-      </c>
-      <c r="C295" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K295" t="n" s="332">
-        <v>1.12</v>
-      </c>
-      <c r="L295" t="n" s="332">
-        <v>-0.17</v>
-      </c>
-      <c r="T295" t="n" s="332">
-        <v>0.0</v>
-      </c>
-      <c r="U295" t="n" s="332">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B296" t="s">
-        <v>328</v>
-      </c>
-      <c r="C296" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K296" t="n" s="333">
-        <v>1.45</v>
-      </c>
-      <c r="L296" t="n" s="333">
-        <v>-0.2</v>
-      </c>
-      <c r="T296" t="n" s="333">
-        <v>0.0</v>
-      </c>
-      <c r="U296" t="n" s="333">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B297" t="s">
-        <v>329</v>
-      </c>
-      <c r="C297" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="K297" t="n" s="334">
-        <v>1.82</v>
-      </c>
-      <c r="L297" t="n" s="334">
-        <v>-0.24</v>
-      </c>
-      <c r="T297" t="n" s="334">
-        <v>0.0</v>
-      </c>
-      <c r="U297" t="n" s="334">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B298" t="s">
-        <v>330</v>
-      </c>
-      <c r="C298" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K298" t="n" s="335">
-        <v>1.03</v>
-      </c>
-      <c r="L298" t="n" s="335">
-        <v>0.11</v>
-      </c>
-      <c r="T298" t="n" s="335">
-        <v>0.0</v>
-      </c>
-      <c r="U298" t="n" s="335">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B299" t="s">
-        <v>331</v>
-      </c>
-      <c r="C299" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K299" t="n" s="336">
-        <v>0.82</v>
-      </c>
-      <c r="L299" t="n" s="336">
-        <v>0.09</v>
-      </c>
-      <c r="T299" t="n" s="336">
-        <v>0.0</v>
-      </c>
-      <c r="U299" t="n" s="336">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B300" t="s">
-        <v>332</v>
-      </c>
-      <c r="C300" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K300" t="n" s="337">
-        <v>0.65</v>
-      </c>
-      <c r="L300" t="n" s="337">
-        <v>0.08</v>
-      </c>
-      <c r="T300" t="n" s="337">
-        <v>0.0</v>
-      </c>
-      <c r="U300" t="n" s="337">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B301" t="s">
-        <v>333</v>
-      </c>
-      <c r="C301" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K301" t="n" s="338">
-        <v>0.51</v>
-      </c>
-      <c r="L301" t="n" s="338">
-        <v>0.07</v>
-      </c>
-      <c r="T301" t="n" s="338">
-        <v>0.0</v>
-      </c>
-      <c r="U301" t="n" s="338">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B302" t="s">
-        <v>334</v>
-      </c>
-      <c r="C302" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K302" t="n" s="339">
-        <v>3.05</v>
-      </c>
-      <c r="L302" t="n" s="339">
-        <v>-0.28</v>
-      </c>
-      <c r="T302" t="n" s="339">
-        <v>0.0</v>
-      </c>
-      <c r="U302" t="n" s="339">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B303" t="s">
-        <v>335</v>
-      </c>
-      <c r="C303" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K303" t="n" s="340">
-        <v>3.63</v>
-      </c>
-      <c r="L303" t="n" s="340">
-        <v>-0.32</v>
-      </c>
-      <c r="T303" t="n" s="340">
-        <v>0.0</v>
-      </c>
-      <c r="U303" t="n" s="340">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B304" t="s">
-        <v>336</v>
-      </c>
-      <c r="C304" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K304" t="n" s="341">
-        <v>4.28</v>
-      </c>
-      <c r="L304" t="n" s="341">
-        <v>-0.34</v>
-      </c>
-      <c r="T304" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="U304" t="n" s="341">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B305" t="s">
-        <v>337</v>
-      </c>
-      <c r="C305" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="K305" t="n" s="342">
-        <v>4.97</v>
-      </c>
-      <c r="L305" t="n" s="342">
-        <v>-0.37</v>
-      </c>
-      <c r="T305" t="n" s="342">
-        <v>0.0</v>
-      </c>
-      <c r="U305" t="n" s="342">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B306" t="s">
-        <v>338</v>
-      </c>
-      <c r="C306" t="n" s="47">
-        <v>720.0</v>
-      </c>
-      <c r="K306" t="n" s="343">
-        <v>0.0</v>
-      </c>
-      <c r="L306" t="n" s="343">
-        <v>0.0</v>
-      </c>
-      <c r="T306" t="n" s="343">
-        <v>0.0</v>
-      </c>
-      <c r="U306" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B307" t="s">
-        <v>339</v>
-      </c>
-      <c r="C307" t="n" s="47">
-        <v>720.0</v>
-      </c>
-      <c r="K307" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="L307" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="T307" t="n" s="344">
-        <v>0.0</v>
-      </c>
-      <c r="U307" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B308" t="s">
-        <v>340</v>
-      </c>
-      <c r="C308" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K308" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="L308" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="T308" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="U308" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B309" t="s">
-        <v>341</v>
-      </c>
-      <c r="C309" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K309" t="n" s="346">
-        <v>0.0</v>
-      </c>
-      <c r="L309" t="n" s="346">
-        <v>0.0</v>
-      </c>
-      <c r="T309" t="n" s="346">
-        <v>0.0</v>
-      </c>
-      <c r="U309" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B310" t="s">
-        <v>342</v>
-      </c>
-      <c r="C310" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K310" t="n" s="347">
-        <v>0.0</v>
-      </c>
-      <c r="L310" t="n" s="347">
-        <v>0.0</v>
-      </c>
-      <c r="T310" t="n" s="347">
-        <v>0.0</v>
-      </c>
-      <c r="U310" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B311" t="s">
-        <v>343</v>
-      </c>
-      <c r="C311" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K311" t="n" s="348">
-        <v>0.0</v>
-      </c>
-      <c r="L311" t="n" s="348">
-        <v>0.0</v>
-      </c>
-      <c r="T311" t="n" s="348">
-        <v>0.0</v>
-      </c>
-      <c r="U311" t="s" s="46">
+      <c r="U290" t="s" s="46">
         <v>43</v>
       </c>
     </row>

--- a/omipdaily_temp.xlsx
+++ b/omipdaily_temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="317">
   <si>
     <t>NOTE: Circulation and commercial use of OMIPdaily reports outside a Client's licensed distribution area is strictly prohibited. Clients that are unsure of their licensed distribution or require an extension of their current license should contact OMIP, or email: marketing@omip.pt.</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Daily Trading Report:</t>
   </si>
   <si>
-    <t>06/10/2025</t>
+    <t>07/10/2025</t>
   </si>
   <si>
     <t>Power (FTB/FTK/FPB/FDB/FFB/FGE/FWB/SWB/SPB) &amp; Nat Gas (FGE) &amp; Financial Transmission Rights (FTR) &amp; Options on FTB (OEB)</t>
@@ -140,15 +140,12 @@
     <t>%</t>
   </si>
   <si>
-    <t>FTB D Tu07Oct-25</t>
+    <t>FTB D We08Oct-25</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>FTB D We08Oct-25</t>
-  </si>
-  <si>
     <t>FTB D Th09Oct-25</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>FTB PPA 26/35</t>
   </si>
   <si>
-    <t>FPB D Tu07Oct-25</t>
-  </si>
-  <si>
     <t>FPB D We08Oct-25</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>FPB YR-35</t>
   </si>
   <si>
-    <t>FTS D Tu07Oct-25</t>
-  </si>
-  <si>
     <t>FTS D We08Oct-25</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
     <t>FTS PPA 26/35</t>
   </si>
   <si>
-    <t>FTK D Tu07Oct-25</t>
-  </si>
-  <si>
     <t>FTK D We08Oct-25</t>
   </si>
   <si>
@@ -641,9 +629,6 @@
     <t>FWB YR-35</t>
   </si>
   <si>
-    <t>SPB D Tu07Oct-25</t>
-  </si>
-  <si>
     <t>SPB D We08Oct-25</t>
   </si>
   <si>
@@ -741,9 +726,6 @@
   </si>
   <si>
     <t>SPB YR-35</t>
-  </si>
-  <si>
-    <t>SWB D Tu07Oct-25</t>
   </si>
   <si>
     <t>SWB D We08Oct-25</t>
@@ -1092,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1221,24 +1203,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
@@ -2112,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U290"/>
+  <dimension ref="A1:U284"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -2352,13 +2316,13 @@
         <v>24.0</v>
       </c>
       <c r="K11" t="n" s="48">
-        <v>98.65</v>
+        <v>99.19</v>
       </c>
       <c r="L11" t="n" s="48">
-        <v>10.07</v>
+        <v>10.19</v>
       </c>
       <c r="T11" t="n" s="48">
-        <v>34.0</v>
+        <v>87.0</v>
       </c>
       <c r="U11" t="s" s="46">
         <v>43</v>
@@ -2375,13 +2339,13 @@
         <v>24.0</v>
       </c>
       <c r="K12" t="n" s="49">
-        <v>89.0</v>
+        <v>92.5</v>
       </c>
       <c r="L12" t="n" s="49">
-        <v>1.63</v>
+        <v>3.39</v>
       </c>
       <c r="T12" t="n" s="49">
-        <v>30.0</v>
+        <v>87.0</v>
       </c>
       <c r="U12" t="s" s="46">
         <v>43</v>
@@ -2398,13 +2362,13 @@
         <v>24.0</v>
       </c>
       <c r="K13" t="n" s="50">
-        <v>89.11</v>
+        <v>90.69</v>
       </c>
       <c r="L13" t="n" s="50">
-        <v>1.63</v>
+        <v>3.39</v>
       </c>
       <c r="T13" t="n" s="50">
-        <v>58.0</v>
+        <v>86.0</v>
       </c>
       <c r="U13" t="s" s="46">
         <v>43</v>
@@ -2421,13 +2385,13 @@
         <v>24.0</v>
       </c>
       <c r="K14" t="n" s="51">
-        <v>87.3</v>
+        <v>81.55</v>
       </c>
       <c r="L14" t="n" s="51">
-        <v>1.63</v>
+        <v>3.39</v>
       </c>
       <c r="T14" t="n" s="51">
-        <v>58.0</v>
+        <v>77.0</v>
       </c>
       <c r="U14" t="s" s="46">
         <v>43</v>
@@ -2444,13 +2408,13 @@
         <v>24.0</v>
       </c>
       <c r="K15" t="n" s="52">
-        <v>78.16</v>
+        <v>74.53</v>
       </c>
       <c r="L15" t="n" s="52">
-        <v>1.63</v>
+        <v>3.39</v>
       </c>
       <c r="T15" t="n" s="52">
-        <v>42.0</v>
+        <v>70.0</v>
       </c>
       <c r="U15" t="s" s="46">
         <v>43</v>
@@ -2464,16 +2428,16 @@
         <v>48</v>
       </c>
       <c r="C16" t="n" s="47">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="K16" t="n" s="53">
-        <v>71.14</v>
+        <v>78.04</v>
       </c>
       <c r="L16" t="n" s="53">
-        <v>1.63</v>
+        <v>3.39</v>
       </c>
       <c r="T16" t="n" s="53">
-        <v>58.0</v>
+        <v>50.0</v>
       </c>
       <c r="U16" t="s" s="46">
         <v>43</v>
@@ -2487,16 +2451,16 @@
         <v>49</v>
       </c>
       <c r="C17" t="n" s="47">
-        <v>48.0</v>
+        <v>168.0</v>
       </c>
       <c r="K17" t="n" s="54">
-        <v>74.65</v>
+        <v>90.5</v>
       </c>
       <c r="L17" t="n" s="54">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n" s="54">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="U17" t="s" s="46">
         <v>43</v>
@@ -2510,16 +2474,16 @@
         <v>50</v>
       </c>
       <c r="C18" t="n" s="47">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="K18" t="n" s="55">
-        <v>87.0</v>
+        <v>81.5</v>
       </c>
       <c r="L18" t="n" s="55">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n" s="55">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="U18" t="s" s="46">
         <v>43</v>
@@ -2533,16 +2497,16 @@
         <v>51</v>
       </c>
       <c r="C19" t="n" s="47">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="K19" t="n" s="56">
-        <v>78.0</v>
+        <v>79.97</v>
       </c>
       <c r="L19" t="n" s="56">
-        <v>2.0</v>
+        <v>2.69</v>
       </c>
       <c r="T19" t="n" s="56">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="U19" t="s" s="46">
         <v>43</v>
@@ -2559,13 +2523,13 @@
         <v>168.0</v>
       </c>
       <c r="K20" t="n" s="57">
-        <v>77.28</v>
+        <v>78.5</v>
       </c>
       <c r="L20" t="n" s="57">
-        <v>2.03</v>
+        <v>0.65</v>
       </c>
       <c r="T20" t="n" s="57">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="U20" t="s" s="46">
         <v>43</v>
@@ -2579,16 +2543,46 @@
         <v>53</v>
       </c>
       <c r="C21" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
+      </c>
+      <c r="E21" t="n" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="F21" t="n" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="G21" t="n" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="H21" t="n" s="58">
+        <v>78.0</v>
+      </c>
+      <c r="I21" t="n" s="58">
+        <v>77.0</v>
+      </c>
+      <c r="J21" t="n" s="58">
+        <v>79.4</v>
       </c>
       <c r="K21" t="n" s="58">
-        <v>77.85</v>
-      </c>
-      <c r="L21" t="s" s="46">
-        <v>43</v>
+        <v>78.5</v>
+      </c>
+      <c r="L21" t="n" s="58">
+        <v>0.65</v>
+      </c>
+      <c r="N21" t="n" s="47">
+        <v>3.0</v>
+      </c>
+      <c r="O21" t="n" s="58">
+        <v>2160.0</v>
+      </c>
+      <c r="P21" t="n" s="47">
+        <v>6.0</v>
+      </c>
+      <c r="S21" t="n" s="46">
+        <v>480.0</v>
       </c>
       <c r="T21" t="n" s="58">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="U21" t="s" s="46">
         <v>43</v>
@@ -2602,25 +2596,25 @@
         <v>54</v>
       </c>
       <c r="C22" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="I22" t="n" s="59">
-        <v>76.8</v>
+        <v>75.3</v>
       </c>
       <c r="J22" t="n" s="59">
-        <v>79.2</v>
+        <v>77.7</v>
       </c>
       <c r="K22" t="n" s="59">
-        <v>77.85</v>
+        <v>76.6</v>
       </c>
       <c r="L22" t="n" s="59">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="S22" t="n" s="46">
-        <v>477.0</v>
+        <v>474.0</v>
       </c>
       <c r="T22" t="n" s="59">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="U22" t="s" s="46">
         <v>43</v>
@@ -2636,41 +2630,14 @@
       <c r="C23" t="n" s="47">
         <v>744.0</v>
       </c>
-      <c r="E23" t="n" s="60">
-        <v>76.0</v>
-      </c>
-      <c r="F23" t="n" s="60">
-        <v>76.0</v>
-      </c>
-      <c r="G23" t="n" s="60">
-        <v>76.0</v>
-      </c>
-      <c r="H23" t="n" s="60">
-        <v>76.0</v>
-      </c>
-      <c r="I23" t="n" s="60">
-        <v>74.6</v>
-      </c>
-      <c r="J23" t="n" s="60">
-        <v>76.0</v>
-      </c>
       <c r="K23" t="n" s="60">
-        <v>76.0</v>
+        <v>74.51</v>
       </c>
       <c r="L23" t="n" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="N23" t="n" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="O23" t="n" s="60">
-        <v>744.0</v>
-      </c>
-      <c r="P23" t="n" s="47">
-        <v>2.0</v>
+        <v>-0.09</v>
       </c>
       <c r="S23" t="n" s="46">
-        <v>474.0</v>
+        <v>7.0</v>
       </c>
       <c r="T23" t="n" s="60">
         <v>8.0</v>
@@ -2687,16 +2654,13 @@
         <v>56</v>
       </c>
       <c r="C24" t="n" s="47">
-        <v>744.0</v>
+        <v>672.0</v>
       </c>
       <c r="K24" t="n" s="61">
-        <v>74.6</v>
+        <v>73.36</v>
       </c>
       <c r="L24" t="n" s="61">
-        <v>0.35</v>
-      </c>
-      <c r="S24" t="n" s="46">
-        <v>7.0</v>
+        <v>0.44</v>
       </c>
       <c r="T24" t="n" s="61">
         <v>8.0</v>
@@ -2713,16 +2677,16 @@
         <v>57</v>
       </c>
       <c r="C25" t="n" s="47">
-        <v>672.0</v>
+        <v>743.0</v>
       </c>
       <c r="K25" t="n" s="62">
-        <v>72.92</v>
+        <v>45.88</v>
       </c>
       <c r="L25" t="n" s="62">
-        <v>0.64</v>
+        <v>0.13</v>
       </c>
       <c r="T25" t="n" s="62">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U25" t="s" s="46">
         <v>43</v>
@@ -2736,16 +2700,16 @@
         <v>58</v>
       </c>
       <c r="C26" t="n" s="47">
-        <v>743.0</v>
+        <v>720.0</v>
       </c>
       <c r="K26" t="n" s="63">
-        <v>45.75</v>
+        <v>29.81</v>
       </c>
       <c r="L26" t="n" s="63">
-        <v>0.23</v>
+        <v>0.65</v>
       </c>
       <c r="T26" t="n" s="63">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U26" t="s" s="46">
         <v>43</v>
@@ -2759,16 +2723,25 @@
         <v>59</v>
       </c>
       <c r="C27" t="n" s="47">
-        <v>720.0</v>
+        <v>2159.0</v>
+      </c>
+      <c r="I27" t="n" s="64">
+        <v>63.25</v>
+      </c>
+      <c r="J27" t="n" s="64">
+        <v>65.25</v>
       </c>
       <c r="K27" t="n" s="64">
-        <v>29.16</v>
+        <v>64.3</v>
       </c>
       <c r="L27" t="n" s="64">
-        <v>0.7</v>
+        <v>0.15</v>
+      </c>
+      <c r="S27" t="n" s="46">
+        <v>156.0</v>
       </c>
       <c r="T27" t="n" s="64">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U27" t="s" s="46">
         <v>43</v>
@@ -2782,25 +2755,25 @@
         <v>60</v>
       </c>
       <c r="C28" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="I28" t="n" s="65">
-        <v>63.25</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n" s="65">
-        <v>65.25</v>
+        <v>42.5</v>
       </c>
       <c r="K28" t="n" s="65">
-        <v>64.15</v>
+        <v>41.65</v>
       </c>
       <c r="L28" t="n" s="65">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="S28" t="n" s="46">
-        <v>156.0</v>
+        <v>7.0</v>
       </c>
       <c r="T28" t="n" s="65">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U28" t="s" s="46">
         <v>43</v>
@@ -2814,25 +2787,19 @@
         <v>61</v>
       </c>
       <c r="C29" t="n" s="47">
-        <v>2184.0</v>
-      </c>
-      <c r="I29" t="n" s="66">
-        <v>40.25</v>
-      </c>
-      <c r="J29" t="n" s="66">
-        <v>42.25</v>
+        <v>2208.0</v>
       </c>
       <c r="K29" t="n" s="66">
-        <v>41.0</v>
+        <v>67.89</v>
       </c>
       <c r="L29" t="n" s="66">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="S29" t="n" s="46">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="T29" t="n" s="66">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U29" t="s" s="46">
         <v>43</v>
@@ -2846,19 +2813,19 @@
         <v>62</v>
       </c>
       <c r="C30" t="n" s="47">
-        <v>2208.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K30" t="n" s="67">
-        <v>67.64</v>
+        <v>74.18</v>
       </c>
       <c r="L30" t="n" s="67">
-        <v>0.46</v>
+        <v>-0.05</v>
       </c>
       <c r="S30" t="n" s="46">
+        <v>11.0</v>
+      </c>
+      <c r="T30" t="n" s="67">
         <v>5.0</v>
-      </c>
-      <c r="T30" t="n" s="67">
-        <v>3.0</v>
       </c>
       <c r="U30" t="s" s="46">
         <v>43</v>
@@ -2872,19 +2839,16 @@
         <v>63</v>
       </c>
       <c r="C31" t="n" s="47">
-        <v>2209.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K31" t="n" s="68">
-        <v>74.23</v>
+        <v>64.91</v>
       </c>
       <c r="L31" t="n" s="68">
-        <v>0.44</v>
-      </c>
-      <c r="S31" t="n" s="46">
-        <v>11.0</v>
+        <v>-0.05</v>
       </c>
       <c r="T31" t="n" s="68">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U31" t="s" s="46">
         <v>43</v>
@@ -2898,16 +2862,16 @@
         <v>64</v>
       </c>
       <c r="C32" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K32" t="n" s="69">
-        <v>64.96</v>
+        <v>36.22</v>
       </c>
       <c r="L32" t="n" s="69">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="T32" t="n" s="69">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U32" t="s" s="46">
         <v>43</v>
@@ -2921,13 +2885,13 @@
         <v>65</v>
       </c>
       <c r="C33" t="n" s="47">
-        <v>2184.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K33" t="n" s="70">
-        <v>36.27</v>
+        <v>65.04</v>
       </c>
       <c r="L33" t="n" s="70">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="T33" t="n" s="70">
         <v>5.0</v>
@@ -2944,16 +2908,25 @@
         <v>66</v>
       </c>
       <c r="C34" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
+      </c>
+      <c r="I34" t="n" s="71">
+        <v>61.5</v>
+      </c>
+      <c r="J34" t="n" s="71">
+        <v>62.5</v>
       </c>
       <c r="K34" t="n" s="71">
-        <v>65.09</v>
+        <v>62.05</v>
       </c>
       <c r="L34" t="n" s="71">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="S34" t="n" s="46">
+        <v>288.0</v>
       </c>
       <c r="T34" t="n" s="71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U34" t="s" s="46">
         <v>43</v>
@@ -2970,22 +2943,22 @@
         <v>8760.0</v>
       </c>
       <c r="I35" t="n" s="72">
-        <v>61.25</v>
+        <v>58.5</v>
       </c>
       <c r="J35" t="n" s="72">
-        <v>62.25</v>
+        <v>60.5</v>
       </c>
       <c r="K35" t="n" s="72">
-        <v>61.8</v>
+        <v>59.35</v>
       </c>
       <c r="L35" t="n" s="72">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="S35" t="n" s="46">
-        <v>288.0</v>
+        <v>147.0</v>
       </c>
       <c r="T35" t="n" s="72">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U35" t="s" s="46">
         <v>43</v>
@@ -2999,22 +2972,16 @@
         <v>68</v>
       </c>
       <c r="C36" t="n" s="47">
-        <v>8760.0</v>
-      </c>
-      <c r="I36" t="n" s="73">
-        <v>58.25</v>
-      </c>
-      <c r="J36" t="n" s="73">
-        <v>60.25</v>
+        <v>8784.0</v>
       </c>
       <c r="K36" t="n" s="73">
-        <v>59.4</v>
+        <v>58.85</v>
       </c>
       <c r="L36" t="n" s="73">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="S36" t="n" s="46">
-        <v>147.0</v>
+        <v>107.0</v>
       </c>
       <c r="T36" t="n" s="73">
         <v>3.0</v>
@@ -3031,16 +2998,16 @@
         <v>69</v>
       </c>
       <c r="C37" t="n" s="47">
-        <v>8784.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K37" t="n" s="74">
-        <v>58.85</v>
+        <v>58.3</v>
       </c>
       <c r="L37" t="n" s="74">
         <v>0.0</v>
       </c>
       <c r="S37" t="n" s="46">
-        <v>107.0</v>
+        <v>101.0</v>
       </c>
       <c r="T37" t="n" s="74">
         <v>3.0</v>
@@ -3060,13 +3027,13 @@
         <v>8760.0</v>
       </c>
       <c r="K38" t="n" s="75">
-        <v>58.3</v>
+        <v>58.0</v>
       </c>
       <c r="L38" t="n" s="75">
         <v>0.0</v>
       </c>
       <c r="S38" t="n" s="46">
-        <v>101.0</v>
+        <v>99.0</v>
       </c>
       <c r="T38" t="n" s="75">
         <v>3.0</v>
@@ -3092,7 +3059,7 @@
         <v>0.0</v>
       </c>
       <c r="S39" t="n" s="46">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="T39" t="n" s="76">
         <v>3.0</v>
@@ -3109,7 +3076,7 @@
         <v>72</v>
       </c>
       <c r="C40" t="n" s="47">
-        <v>8760.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K40" t="n" s="77">
         <v>58.0</v>
@@ -3118,7 +3085,7 @@
         <v>0.0</v>
       </c>
       <c r="S40" t="n" s="46">
-        <v>97.0</v>
+        <v>15.0</v>
       </c>
       <c r="T40" t="n" s="77">
         <v>3.0</v>
@@ -3135,10 +3102,10 @@
         <v>73</v>
       </c>
       <c r="C41" t="n" s="47">
-        <v>8784.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K41" t="n" s="78">
-        <v>58.0</v>
+        <v>57.85</v>
       </c>
       <c r="L41" t="n" s="78">
         <v>0.0</v>
@@ -3169,9 +3136,6 @@
       <c r="L42" t="n" s="79">
         <v>0.0</v>
       </c>
-      <c r="S42" t="n" s="46">
-        <v>15.0</v>
-      </c>
       <c r="T42" t="n" s="79">
         <v>3.0</v>
       </c>
@@ -3210,16 +3174,16 @@
         <v>76</v>
       </c>
       <c r="C44" t="n" s="47">
-        <v>8760.0</v>
+        <v>43824.0</v>
       </c>
       <c r="K44" t="n" s="81">
-        <v>57.85</v>
+        <v>59.31</v>
       </c>
       <c r="L44" t="n" s="81">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="T44" t="n" s="81">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U44" t="s" s="46">
         <v>43</v>
@@ -3236,10 +3200,10 @@
         <v>43824.0</v>
       </c>
       <c r="K45" t="n" s="82">
-        <v>59.27</v>
+        <v>58.5</v>
       </c>
       <c r="L45" t="n" s="82">
-        <v>0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="T45" t="n" s="82">
         <v>3.0</v>
@@ -3256,13 +3220,13 @@
         <v>78</v>
       </c>
       <c r="C46" t="n" s="47">
-        <v>43824.0</v>
+        <v>87648.0</v>
       </c>
       <c r="K46" t="n" s="83">
-        <v>58.51</v>
+        <v>58.61</v>
       </c>
       <c r="L46" t="n" s="83">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="T46" t="n" s="83">
         <v>3.0</v>
@@ -3279,16 +3243,16 @@
         <v>79</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>87648.0</v>
+        <v>24.0</v>
       </c>
       <c r="K47" t="n" s="84">
-        <v>58.59</v>
+        <v>98.29</v>
       </c>
       <c r="L47" t="n" s="84">
-        <v>0.1</v>
+        <v>9.55</v>
       </c>
       <c r="T47" t="n" s="84">
-        <v>3.0</v>
+        <v>89.0</v>
       </c>
       <c r="U47" t="s" s="46">
         <v>43</v>
@@ -3305,13 +3269,13 @@
         <v>24.0</v>
       </c>
       <c r="K48" t="n" s="85">
-        <v>98.65</v>
+        <v>92.03</v>
       </c>
       <c r="L48" t="n" s="85">
-        <v>9.94</v>
+        <v>3.18</v>
       </c>
       <c r="T48" t="n" s="85">
-        <v>35.0</v>
+        <v>89.0</v>
       </c>
       <c r="U48" t="s" s="46">
         <v>43</v>
@@ -3328,13 +3292,13 @@
         <v>24.0</v>
       </c>
       <c r="K49" t="n" s="86">
-        <v>88.74</v>
+        <v>90.22</v>
       </c>
       <c r="L49" t="n" s="86">
-        <v>1.1</v>
+        <v>3.18</v>
       </c>
       <c r="T49" t="n" s="86">
-        <v>31.0</v>
+        <v>88.0</v>
       </c>
       <c r="U49" t="s" s="46">
         <v>43</v>
@@ -3351,13 +3315,13 @@
         <v>24.0</v>
       </c>
       <c r="K50" t="n" s="87">
-        <v>88.85</v>
+        <v>81.08</v>
       </c>
       <c r="L50" t="n" s="87">
-        <v>0.58</v>
+        <v>3.18</v>
       </c>
       <c r="T50" t="n" s="87">
-        <v>60.0</v>
+        <v>78.0</v>
       </c>
       <c r="U50" t="s" s="46">
         <v>43</v>
@@ -3374,13 +3338,13 @@
         <v>24.0</v>
       </c>
       <c r="K51" t="n" s="88">
-        <v>87.04</v>
+        <v>74.06</v>
       </c>
       <c r="L51" t="n" s="88">
-        <v>0.76</v>
+        <v>3.18</v>
       </c>
       <c r="T51" t="n" s="88">
-        <v>60.0</v>
+        <v>71.0</v>
       </c>
       <c r="U51" t="s" s="46">
         <v>43</v>
@@ -3394,16 +3358,16 @@
         <v>84</v>
       </c>
       <c r="C52" t="n" s="47">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="K52" t="n" s="89">
-        <v>77.9</v>
+        <v>77.57</v>
       </c>
       <c r="L52" t="n" s="89">
-        <v>0.71</v>
+        <v>3.18</v>
       </c>
       <c r="T52" t="n" s="89">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
       <c r="U52" t="s" s="46">
         <v>43</v>
@@ -3417,16 +3381,16 @@
         <v>85</v>
       </c>
       <c r="C53" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K53" t="n" s="90">
-        <v>70.88</v>
+        <v>91.15</v>
       </c>
       <c r="L53" t="n" s="90">
-        <v>-0.04</v>
+        <v>3.5</v>
       </c>
       <c r="T53" t="n" s="90">
-        <v>60.0</v>
+        <v>27.0</v>
       </c>
       <c r="U53" t="s" s="46">
         <v>43</v>
@@ -3440,16 +3404,16 @@
         <v>86</v>
       </c>
       <c r="C54" t="n" s="47">
-        <v>48.0</v>
+        <v>169.0</v>
       </c>
       <c r="K54" t="n" s="91">
-        <v>74.39</v>
+        <v>82.15</v>
       </c>
       <c r="L54" t="n" s="91">
-        <v>0.33</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n" s="91">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="U54" t="s" s="46">
         <v>43</v>
@@ -3466,13 +3430,13 @@
         <v>168.0</v>
       </c>
       <c r="K55" t="n" s="92">
-        <v>87.65</v>
+        <v>80.62</v>
       </c>
       <c r="L55" t="n" s="92">
-        <v>6.5</v>
+        <v>2.69</v>
       </c>
       <c r="T55" t="n" s="92">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="U55" t="s" s="46">
         <v>43</v>
@@ -3486,16 +3450,16 @@
         <v>88</v>
       </c>
       <c r="C56" t="n" s="47">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="K56" t="n" s="93">
-        <v>78.65</v>
+        <v>79.15</v>
       </c>
       <c r="L56" t="n" s="93">
-        <v>2.0</v>
+        <v>0.65</v>
       </c>
       <c r="T56" t="n" s="93">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="U56" t="s" s="46">
         <v>43</v>
@@ -3509,16 +3473,19 @@
         <v>89</v>
       </c>
       <c r="C57" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
       </c>
       <c r="K57" t="n" s="94">
-        <v>77.93</v>
+        <v>79.15</v>
       </c>
       <c r="L57" t="n" s="94">
-        <v>2.03</v>
+        <v>0.65</v>
+      </c>
+      <c r="S57" t="n" s="46">
+        <v>563.0</v>
       </c>
       <c r="T57" t="n" s="94">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="U57" t="s" s="46">
         <v>43</v>
@@ -3532,16 +3499,19 @@
         <v>90</v>
       </c>
       <c r="C58" t="n" s="47">
-        <v>168.0</v>
+        <v>744.0</v>
       </c>
       <c r="K58" t="n" s="95">
-        <v>78.5</v>
-      </c>
-      <c r="L58" t="s" s="46">
-        <v>43</v>
+        <v>77.25</v>
+      </c>
+      <c r="L58" t="n" s="95">
+        <v>0.6</v>
+      </c>
+      <c r="S58" t="n" s="46">
+        <v>563.0</v>
       </c>
       <c r="T58" t="n" s="95">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="U58" t="s" s="46">
         <v>43</v>
@@ -3555,19 +3525,16 @@
         <v>91</v>
       </c>
       <c r="C59" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K59" t="n" s="96">
-        <v>78.5</v>
+        <v>75.51</v>
       </c>
       <c r="L59" t="n" s="96">
-        <v>2.1</v>
-      </c>
-      <c r="S59" t="n" s="46">
-        <v>563.0</v>
+        <v>-0.09</v>
       </c>
       <c r="T59" t="n" s="96">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="U59" t="s" s="46">
         <v>43</v>
@@ -3581,16 +3548,13 @@
         <v>92</v>
       </c>
       <c r="C60" t="n" s="47">
-        <v>744.0</v>
+        <v>672.0</v>
       </c>
       <c r="K60" t="n" s="97">
-        <v>76.65</v>
+        <v>74.36</v>
       </c>
       <c r="L60" t="n" s="97">
-        <v>2.0</v>
-      </c>
-      <c r="S60" t="n" s="46">
-        <v>563.0</v>
+        <v>0.44</v>
       </c>
       <c r="T60" t="n" s="97">
         <v>8.0</v>
@@ -3607,16 +3571,16 @@
         <v>93</v>
       </c>
       <c r="C61" t="n" s="47">
-        <v>744.0</v>
+        <v>743.0</v>
       </c>
       <c r="K61" t="n" s="98">
-        <v>75.6</v>
+        <v>46.88</v>
       </c>
       <c r="L61" t="n" s="98">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="T61" t="n" s="98">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U61" t="s" s="46">
         <v>43</v>
@@ -3630,16 +3594,16 @@
         <v>94</v>
       </c>
       <c r="C62" t="n" s="47">
-        <v>672.0</v>
+        <v>720.0</v>
       </c>
       <c r="K62" t="n" s="99">
-        <v>73.92</v>
+        <v>30.81</v>
       </c>
       <c r="L62" t="n" s="99">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="T62" t="n" s="99">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U62" t="s" s="46">
         <v>43</v>
@@ -3653,16 +3617,19 @@
         <v>95</v>
       </c>
       <c r="C63" t="n" s="47">
-        <v>743.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K63" t="n" s="100">
-        <v>46.75</v>
+        <v>65.3</v>
       </c>
       <c r="L63" t="n" s="100">
-        <v>0.23</v>
+        <v>0.15</v>
+      </c>
+      <c r="S63" t="n" s="46">
+        <v>191.0</v>
       </c>
       <c r="T63" t="n" s="100">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U63" t="s" s="46">
         <v>43</v>
@@ -3676,16 +3643,19 @@
         <v>96</v>
       </c>
       <c r="C64" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K64" t="n" s="101">
-        <v>30.16</v>
+        <v>42.65</v>
       </c>
       <c r="L64" t="n" s="101">
-        <v>0.7</v>
+        <v>0.65</v>
+      </c>
+      <c r="S64" t="n" s="46">
+        <v>91.0</v>
       </c>
       <c r="T64" t="n" s="101">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="U64" t="s" s="46">
         <v>43</v>
@@ -3699,19 +3669,19 @@
         <v>97</v>
       </c>
       <c r="C65" t="n" s="47">
-        <v>2159.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K65" t="n" s="102">
-        <v>65.15</v>
+        <v>68.89</v>
       </c>
       <c r="L65" t="n" s="102">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S65" t="n" s="46">
-        <v>191.0</v>
+        <v>1.0</v>
       </c>
       <c r="T65" t="n" s="102">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U65" t="s" s="46">
         <v>43</v>
@@ -3725,19 +3695,16 @@
         <v>98</v>
       </c>
       <c r="C66" t="n" s="47">
-        <v>2184.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K66" t="n" s="103">
-        <v>42.0</v>
+        <v>75.18</v>
       </c>
       <c r="L66" t="n" s="103">
-        <v>0.7</v>
-      </c>
-      <c r="S66" t="n" s="46">
-        <v>91.0</v>
+        <v>-0.05</v>
       </c>
       <c r="T66" t="n" s="103">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U66" t="s" s="46">
         <v>43</v>
@@ -3751,19 +3718,16 @@
         <v>99</v>
       </c>
       <c r="C67" t="n" s="47">
-        <v>2208.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K67" t="n" s="104">
-        <v>68.64</v>
+        <v>65.91</v>
       </c>
       <c r="L67" t="n" s="104">
-        <v>0.46</v>
-      </c>
-      <c r="S67" t="n" s="46">
-        <v>1.0</v>
+        <v>-0.05</v>
       </c>
       <c r="T67" t="n" s="104">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U67" t="s" s="46">
         <v>43</v>
@@ -3777,16 +3741,16 @@
         <v>100</v>
       </c>
       <c r="C68" t="n" s="47">
-        <v>2209.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K68" t="n" s="105">
-        <v>75.23</v>
+        <v>37.22</v>
       </c>
       <c r="L68" t="n" s="105">
-        <v>0.44</v>
+        <v>-0.05</v>
       </c>
       <c r="T68" t="n" s="105">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U68" t="s" s="46">
         <v>43</v>
@@ -3800,16 +3764,16 @@
         <v>101</v>
       </c>
       <c r="C69" t="n" s="47">
-        <v>2159.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K69" t="n" s="106">
-        <v>65.96</v>
+        <v>66.04</v>
       </c>
       <c r="L69" t="n" s="106">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="T69" t="n" s="106">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U69" t="s" s="46">
         <v>43</v>
@@ -3823,16 +3787,22 @@
         <v>102</v>
       </c>
       <c r="C70" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
+      </c>
+      <c r="I70" t="n" s="107">
+        <v>61.3</v>
       </c>
       <c r="K70" t="n" s="107">
-        <v>37.27</v>
+        <v>63.05</v>
       </c>
       <c r="L70" t="n" s="107">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="S70" t="n" s="46">
+        <v>180.0</v>
       </c>
       <c r="T70" t="n" s="107">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U70" t="s" s="46">
         <v>43</v>
@@ -3846,13 +3816,19 @@
         <v>103</v>
       </c>
       <c r="C71" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
+      </c>
+      <c r="I71" t="n" s="108">
+        <v>58.75</v>
       </c>
       <c r="K71" t="n" s="108">
-        <v>66.09</v>
+        <v>60.35</v>
       </c>
       <c r="L71" t="n" s="108">
-        <v>0.5</v>
+        <v>-0.05</v>
+      </c>
+      <c r="S71" t="n" s="46">
+        <v>1.0</v>
       </c>
       <c r="T71" t="n" s="108">
         <v>3.0</v>
@@ -3869,19 +3845,19 @@
         <v>104</v>
       </c>
       <c r="C72" t="n" s="47">
-        <v>8760.0</v>
+        <v>8784.0</v>
+      </c>
+      <c r="I72" t="n" s="109">
+        <v>58.0</v>
       </c>
       <c r="K72" t="n" s="109">
-        <v>62.8</v>
+        <v>59.85</v>
       </c>
       <c r="L72" t="n" s="109">
-        <v>0.5</v>
-      </c>
-      <c r="S72" t="n" s="46">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
       <c r="T72" t="n" s="109">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U72" t="s" s="46">
         <v>43</v>
@@ -3897,17 +3873,17 @@
       <c r="C73" t="n" s="47">
         <v>8760.0</v>
       </c>
+      <c r="I73" t="n" s="110">
+        <v>57.0</v>
+      </c>
       <c r="K73" t="n" s="110">
-        <v>60.4</v>
+        <v>59.3</v>
       </c>
       <c r="L73" t="n" s="110">
-        <v>0.5</v>
-      </c>
-      <c r="S73" t="n" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T73" t="n" s="110">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U73" t="s" s="46">
         <v>43</v>
@@ -3921,10 +3897,10 @@
         <v>106</v>
       </c>
       <c r="C74" t="n" s="47">
-        <v>8784.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K74" t="n" s="111">
-        <v>59.85</v>
+        <v>59.0</v>
       </c>
       <c r="L74" t="n" s="111">
         <v>0.0</v>
@@ -3947,7 +3923,7 @@
         <v>8760.0</v>
       </c>
       <c r="K75" t="n" s="112">
-        <v>59.3</v>
+        <v>59.0</v>
       </c>
       <c r="L75" t="n" s="112">
         <v>0.0</v>
@@ -3967,7 +3943,7 @@
         <v>108</v>
       </c>
       <c r="C76" t="n" s="47">
-        <v>8760.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K76" t="n" s="113">
         <v>59.0</v>
@@ -3976,7 +3952,7 @@
         <v>0.0</v>
       </c>
       <c r="T76" t="n" s="113">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U76" t="s" s="46">
         <v>43</v>
@@ -3993,7 +3969,7 @@
         <v>8760.0</v>
       </c>
       <c r="K77" t="n" s="114">
-        <v>59.0</v>
+        <v>58.85</v>
       </c>
       <c r="L77" t="n" s="114">
         <v>0.0</v>
@@ -4013,16 +3989,16 @@
         <v>110</v>
       </c>
       <c r="C78" t="n" s="47">
-        <v>8784.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K78" t="n" s="115">
-        <v>59.0</v>
+        <v>58.85</v>
       </c>
       <c r="L78" t="n" s="115">
         <v>0.0</v>
       </c>
       <c r="T78" t="n" s="115">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U78" t="s" s="46">
         <v>43</v>
@@ -4045,7 +4021,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n" s="116">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U79" t="s" s="46">
         <v>43</v>
@@ -4058,17 +4034,17 @@
       <c r="B80" t="s">
         <v>112</v>
       </c>
-      <c r="C80" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C80" t="n" s="117">
+        <v>3.97</v>
       </c>
       <c r="K80" t="n" s="117">
-        <v>58.85</v>
+        <v>74.97</v>
       </c>
       <c r="L80" t="n" s="117">
-        <v>0.0</v>
+        <v>21.16</v>
       </c>
       <c r="T80" t="n" s="117">
-        <v>6.0</v>
+        <v>311.0</v>
       </c>
       <c r="U80" t="s" s="46">
         <v>43</v>
@@ -4081,17 +4057,17 @@
       <c r="B81" t="s">
         <v>113</v>
       </c>
-      <c r="C81" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C81" t="n" s="118">
+        <v>3.97</v>
       </c>
       <c r="K81" t="n" s="118">
-        <v>58.85</v>
+        <v>60.97</v>
       </c>
       <c r="L81" t="n" s="118">
-        <v>0.0</v>
+        <v>7.05</v>
       </c>
       <c r="T81" t="n" s="118">
-        <v>6.0</v>
+        <v>312.0</v>
       </c>
       <c r="U81" t="s" s="46">
         <v>43</v>
@@ -4108,13 +4084,13 @@
         <v>3.97</v>
       </c>
       <c r="K82" t="n" s="119">
-        <v>55.98</v>
+        <v>59.16</v>
       </c>
       <c r="L82" t="n" s="119">
-        <v>-12.86</v>
+        <v>7.05</v>
       </c>
       <c r="T82" t="n" s="119">
-        <v>150.0</v>
+        <v>301.0</v>
       </c>
       <c r="U82" t="s" s="46">
         <v>43</v>
@@ -4131,13 +4107,13 @@
         <v>3.97</v>
       </c>
       <c r="K83" t="n" s="120">
-        <v>53.81</v>
+        <v>58.91</v>
       </c>
       <c r="L83" t="n" s="120">
-        <v>-13.97</v>
+        <v>3.39</v>
       </c>
       <c r="T83" t="n" s="120">
-        <v>48.0</v>
+        <v>321.0</v>
       </c>
       <c r="U83" t="s" s="46">
         <v>43</v>
@@ -4154,13 +4130,13 @@
         <v>3.97</v>
       </c>
       <c r="K84" t="n" s="121">
-        <v>53.92</v>
+        <v>49.89</v>
       </c>
       <c r="L84" t="n" s="121">
-        <v>-14.4</v>
+        <v>3.39</v>
       </c>
       <c r="T84" t="n" s="121">
-        <v>131.0</v>
+        <v>269.0</v>
       </c>
       <c r="U84" t="s" s="46">
         <v>43</v>
@@ -4174,16 +4150,16 @@
         <v>117</v>
       </c>
       <c r="C85" t="n" s="122">
-        <v>3.97</v>
+        <v>7.94</v>
       </c>
       <c r="K85" t="n" s="122">
-        <v>52.11</v>
+        <v>54.4</v>
       </c>
       <c r="L85" t="n" s="122">
-        <v>-14.26</v>
+        <v>3.39</v>
       </c>
       <c r="T85" t="n" s="122">
-        <v>157.0</v>
+        <v>255.0</v>
       </c>
       <c r="U85" t="s" s="46">
         <v>43</v>
@@ -4197,16 +4173,16 @@
         <v>118</v>
       </c>
       <c r="C86" t="n" s="123">
-        <v>3.97</v>
+        <v>27.79</v>
       </c>
       <c r="K86" t="n" s="123">
-        <v>55.52</v>
+        <v>69.97</v>
       </c>
       <c r="L86" t="n" s="123">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="T86" t="n" s="123">
-        <v>76.0</v>
+        <v>46.0</v>
       </c>
       <c r="U86" t="s" s="46">
         <v>43</v>
@@ -4220,16 +4196,16 @@
         <v>119</v>
       </c>
       <c r="C87" t="n" s="124">
-        <v>3.97</v>
+        <v>27.79</v>
       </c>
       <c r="K87" t="n" s="124">
-        <v>46.5</v>
+        <v>60.97</v>
       </c>
       <c r="L87" t="n" s="124">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="T87" t="n" s="124">
-        <v>157.0</v>
+        <v>53.0</v>
       </c>
       <c r="U87" t="s" s="46">
         <v>43</v>
@@ -4243,16 +4219,16 @@
         <v>120</v>
       </c>
       <c r="C88" t="n" s="125">
-        <v>7.94</v>
+        <v>25.29</v>
       </c>
       <c r="K88" t="n" s="125">
-        <v>51.01</v>
+        <v>59.44</v>
       </c>
       <c r="L88" t="n" s="125">
-        <v>1.63</v>
+        <v>2.69</v>
       </c>
       <c r="T88" t="n" s="125">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="U88" t="s" s="46">
         <v>43</v>
@@ -4266,16 +4242,16 @@
         <v>121</v>
       </c>
       <c r="C89" t="n" s="126">
-        <v>27.79</v>
+        <v>19.04</v>
       </c>
       <c r="K89" t="n" s="126">
-        <v>66.47</v>
+        <v>63.97</v>
       </c>
       <c r="L89" t="n" s="126">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="T89" t="n" s="126">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="U89" t="s" s="46">
         <v>43</v>
@@ -4289,16 +4265,19 @@
         <v>122</v>
       </c>
       <c r="C90" t="n" s="127">
-        <v>27.79</v>
+        <v>81.6</v>
       </c>
       <c r="K90" t="n" s="127">
-        <v>57.47</v>
+        <v>63.97</v>
       </c>
       <c r="L90" t="n" s="127">
-        <v>2.0</v>
+        <v>0.65</v>
+      </c>
+      <c r="S90" t="n" s="46">
+        <v>75.0</v>
       </c>
       <c r="T90" t="n" s="127">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="U90" t="s" s="46">
         <v>43</v>
@@ -4312,16 +4291,19 @@
         <v>123</v>
       </c>
       <c r="C91" t="n" s="128">
-        <v>25.29</v>
+        <v>72.85</v>
       </c>
       <c r="K91" t="n" s="128">
-        <v>56.75</v>
+        <v>62.47</v>
       </c>
       <c r="L91" t="n" s="128">
-        <v>2.03</v>
+        <v>0.6</v>
+      </c>
+      <c r="S91" t="n" s="46">
+        <v>76.0</v>
       </c>
       <c r="T91" t="n" s="128">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="U91" t="s" s="46">
         <v>43</v>
@@ -4335,16 +4317,16 @@
         <v>124</v>
       </c>
       <c r="C92" t="n" s="129">
-        <v>19.04</v>
+        <v>82.46</v>
       </c>
       <c r="K92" t="n" s="129">
-        <v>63.32</v>
-      </c>
-      <c r="L92" t="s" s="46">
-        <v>43</v>
+        <v>64.74</v>
+      </c>
+      <c r="L92" t="n" s="129">
+        <v>-0.25</v>
       </c>
       <c r="T92" t="n" s="129">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="U92" t="s" s="46">
         <v>43</v>
@@ -4358,19 +4340,16 @@
         <v>125</v>
       </c>
       <c r="C93" t="n" s="130">
-        <v>81.6</v>
+        <v>108.36</v>
       </c>
       <c r="K93" t="n" s="130">
-        <v>63.32</v>
+        <v>49.64</v>
       </c>
       <c r="L93" t="n" s="130">
-        <v>1.79</v>
-      </c>
-      <c r="S93" t="n" s="46">
-        <v>75.0</v>
+        <v>0.32</v>
       </c>
       <c r="T93" t="n" s="130">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="U93" t="s" s="46">
         <v>43</v>
@@ -4384,19 +4363,16 @@
         <v>126</v>
       </c>
       <c r="C94" t="n" s="131">
-        <v>72.85</v>
+        <v>143.53</v>
       </c>
       <c r="K94" t="n" s="131">
-        <v>61.87</v>
+        <v>28.04</v>
       </c>
       <c r="L94" t="n" s="131">
-        <v>1.7</v>
-      </c>
-      <c r="S94" t="n" s="46">
-        <v>76.0</v>
+        <v>0.07</v>
       </c>
       <c r="T94" t="n" s="131">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="U94" t="s" s="46">
         <v>43</v>
@@ -4410,16 +4386,16 @@
         <v>127</v>
       </c>
       <c r="C95" t="n" s="132">
-        <v>82.46</v>
+        <v>169.5</v>
       </c>
       <c r="K95" t="n" s="132">
-        <v>64.99</v>
+        <v>11.79</v>
       </c>
       <c r="L95" t="n" s="132">
-        <v>4.51</v>
+        <v>0.65</v>
       </c>
       <c r="T95" t="n" s="132">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="U95" t="s" s="46">
         <v>43</v>
@@ -4433,16 +4409,16 @@
         <v>128</v>
       </c>
       <c r="C96" t="n" s="133">
-        <v>108.36</v>
+        <v>334.35</v>
       </c>
       <c r="K96" t="n" s="133">
-        <v>49.32</v>
+        <v>44.09</v>
       </c>
       <c r="L96" t="n" s="133">
-        <v>3.46</v>
+        <v>0.07</v>
       </c>
       <c r="T96" t="n" s="133">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="U96" t="s" s="46">
         <v>43</v>
@@ -4456,16 +4432,16 @@
         <v>129</v>
       </c>
       <c r="C97" t="n" s="134">
-        <v>143.53</v>
+        <v>602.4</v>
       </c>
       <c r="K97" t="n" s="134">
-        <v>27.97</v>
+        <v>18.45</v>
       </c>
       <c r="L97" t="n" s="134">
-        <v>1.74</v>
+        <v>0.6</v>
       </c>
       <c r="T97" t="n" s="134">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U97" t="s" s="46">
         <v>43</v>
@@ -4479,16 +4455,16 @@
         <v>130</v>
       </c>
       <c r="C98" t="n" s="135">
-        <v>169.5</v>
+        <v>619.19</v>
       </c>
       <c r="K98" t="n" s="135">
-        <v>11.14</v>
+        <v>34.78</v>
       </c>
       <c r="L98" t="n" s="135">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="T98" t="n" s="135">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U98" t="s" s="46">
         <v>43</v>
@@ -4502,13 +4478,13 @@
         <v>131</v>
       </c>
       <c r="C99" t="n" s="136">
-        <v>334.35</v>
+        <v>277.52</v>
       </c>
       <c r="K99" t="n" s="136">
-        <v>44.02</v>
+        <v>48.9</v>
       </c>
       <c r="L99" t="n" s="136">
-        <v>2.98</v>
+        <v>-0.13</v>
       </c>
       <c r="T99" t="n" s="136">
         <v>8.0</v>
@@ -4525,16 +4501,16 @@
         <v>132</v>
       </c>
       <c r="C100" t="n" s="137">
-        <v>602.4</v>
+        <v>334.35</v>
       </c>
       <c r="K100" t="n" s="137">
-        <v>17.85</v>
+        <v>46.36</v>
       </c>
       <c r="L100" t="n" s="137">
-        <v>1.41</v>
+        <v>-0.05</v>
       </c>
       <c r="T100" t="n" s="137">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="U100" t="s" s="46">
         <v>43</v>
@@ -4548,16 +4524,16 @@
         <v>133</v>
       </c>
       <c r="C101" t="n" s="138">
-        <v>619.19</v>
+        <v>602.4</v>
       </c>
       <c r="K101" t="n" s="138">
-        <v>34.6</v>
+        <v>13.71</v>
       </c>
       <c r="L101" t="n" s="138">
-        <v>2.15</v>
+        <v>-0.05</v>
       </c>
       <c r="T101" t="n" s="138">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U101" t="s" s="46">
         <v>43</v>
@@ -4571,16 +4547,16 @@
         <v>134</v>
       </c>
       <c r="C102" t="n" s="139">
-        <v>277.52</v>
+        <v>619.19</v>
       </c>
       <c r="K102" t="n" s="139">
-        <v>49.03</v>
+        <v>33.24</v>
       </c>
       <c r="L102" t="n" s="139">
-        <v>-3.39</v>
+        <v>-0.05</v>
       </c>
       <c r="T102" t="n" s="139">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U102" t="s" s="46">
         <v>43</v>
@@ -4594,16 +4570,19 @@
         <v>135</v>
       </c>
       <c r="C103" t="n" s="140">
-        <v>334.35</v>
+        <v>1833.46</v>
       </c>
       <c r="K103" t="n" s="140">
-        <v>46.41</v>
+        <v>33.25</v>
       </c>
       <c r="L103" t="n" s="140">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="S103" t="n" s="46">
+        <v>131.0</v>
       </c>
       <c r="T103" t="n" s="140">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="U103" t="s" s="46">
         <v>43</v>
@@ -4617,16 +4596,19 @@
         <v>136</v>
       </c>
       <c r="C104" t="n" s="141">
-        <v>602.4</v>
+        <v>1833.46</v>
       </c>
       <c r="K104" t="n" s="141">
-        <v>13.76</v>
+        <v>33.55</v>
       </c>
       <c r="L104" t="n" s="141">
-        <v>0.02</v>
+        <v>-0.05</v>
+      </c>
+      <c r="S104" t="n" s="46">
+        <v>80.0</v>
       </c>
       <c r="T104" t="n" s="141">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U104" t="s" s="46">
         <v>43</v>
@@ -4640,16 +4622,19 @@
         <v>137</v>
       </c>
       <c r="C105" t="n" s="142">
-        <v>619.19</v>
+        <v>1837.33</v>
       </c>
       <c r="K105" t="n" s="142">
-        <v>33.29</v>
+        <v>33.05</v>
       </c>
       <c r="L105" t="n" s="142">
-        <v>-0.18</v>
+        <v>0.0</v>
+      </c>
+      <c r="S105" t="n" s="46">
+        <v>25.0</v>
       </c>
       <c r="T105" t="n" s="142">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U105" t="s" s="46">
         <v>43</v>
@@ -4666,13 +4651,13 @@
         <v>1833.46</v>
       </c>
       <c r="K106" t="n" s="143">
-        <v>33.0</v>
+        <v>32.5</v>
       </c>
       <c r="L106" t="n" s="143">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="S106" t="n" s="46">
-        <v>131.0</v>
+        <v>25.0</v>
       </c>
       <c r="T106" t="n" s="143">
         <v>4.0</v>
@@ -4692,16 +4677,16 @@
         <v>1833.46</v>
       </c>
       <c r="K107" t="n" s="144">
-        <v>33.6</v>
+        <v>32.2</v>
       </c>
       <c r="L107" t="n" s="144">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="S107" t="n" s="46">
-        <v>80.0</v>
+        <v>25.0</v>
       </c>
       <c r="T107" t="n" s="144">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U107" t="s" s="46">
         <v>43</v>
@@ -4715,19 +4700,16 @@
         <v>140</v>
       </c>
       <c r="C108" t="n" s="145">
-        <v>1837.33</v>
+        <v>1833.46</v>
       </c>
       <c r="K108" t="n" s="145">
-        <v>33.05</v>
+        <v>32.2</v>
       </c>
       <c r="L108" t="n" s="145">
-        <v>0.72</v>
-      </c>
-      <c r="S108" t="n" s="46">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="T108" t="n" s="145">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U108" t="s" s="46">
         <v>43</v>
@@ -4741,19 +4723,16 @@
         <v>141</v>
       </c>
       <c r="C109" t="n" s="146">
-        <v>1833.46</v>
+        <v>1837.33</v>
       </c>
       <c r="K109" t="n" s="146">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="L109" t="n" s="146">
-        <v>0.72</v>
-      </c>
-      <c r="S109" t="n" s="46">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="T109" t="n" s="146">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U109" t="s" s="46">
         <v>43</v>
@@ -4770,16 +4749,13 @@
         <v>1833.46</v>
       </c>
       <c r="K110" t="n" s="147">
-        <v>32.2</v>
+        <v>32.05</v>
       </c>
       <c r="L110" t="n" s="147">
-        <v>0.72</v>
-      </c>
-      <c r="S110" t="n" s="46">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="T110" t="n" s="147">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U110" t="s" s="46">
         <v>43</v>
@@ -4796,13 +4772,13 @@
         <v>1833.46</v>
       </c>
       <c r="K111" t="n" s="148">
-        <v>32.2</v>
+        <v>32.05</v>
       </c>
       <c r="L111" t="n" s="148">
-        <v>0.47</v>
+        <v>0.0</v>
       </c>
       <c r="T111" t="n" s="148">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U111" t="s" s="46">
         <v>43</v>
@@ -4816,16 +4792,16 @@
         <v>144</v>
       </c>
       <c r="C112" t="n" s="149">
-        <v>1837.33</v>
+        <v>1833.46</v>
       </c>
       <c r="K112" t="n" s="149">
-        <v>32.2</v>
+        <v>32.05</v>
       </c>
       <c r="L112" t="n" s="149">
-        <v>0.38</v>
+        <v>0.0</v>
       </c>
       <c r="T112" t="n" s="149">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="U112" t="s" s="46">
         <v>43</v>
@@ -4839,16 +4815,16 @@
         <v>145</v>
       </c>
       <c r="C113" t="n" s="150">
-        <v>1833.46</v>
+        <v>9171.17</v>
       </c>
       <c r="K113" t="n" s="150">
-        <v>32.05</v>
+        <v>32.91</v>
       </c>
       <c r="L113" t="n" s="150">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T113" t="n" s="150">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U113" t="s" s="46">
         <v>43</v>
@@ -4862,16 +4838,16 @@
         <v>146</v>
       </c>
       <c r="C114" t="n" s="151">
-        <v>1833.46</v>
+        <v>9171.17</v>
       </c>
       <c r="K114" t="n" s="151">
-        <v>32.05</v>
+        <v>32.7</v>
       </c>
       <c r="L114" t="n" s="151">
-        <v>0.38</v>
+        <v>-0.01</v>
       </c>
       <c r="T114" t="n" s="151">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U114" t="s" s="46">
         <v>43</v>
@@ -4885,16 +4861,16 @@
         <v>147</v>
       </c>
       <c r="C115" t="n" s="152">
-        <v>1833.46</v>
+        <v>18342.34</v>
       </c>
       <c r="K115" t="n" s="152">
-        <v>32.05</v>
+        <v>32.51</v>
       </c>
       <c r="L115" t="n" s="152">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="T115" t="n" s="152">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U115" t="s" s="46">
         <v>43</v>
@@ -4907,17 +4883,17 @@
       <c r="B116" t="s">
         <v>148</v>
       </c>
-      <c r="C116" t="n" s="153">
-        <v>9171.17</v>
+      <c r="C116" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K116" t="n" s="153">
-        <v>32.87</v>
+        <v>89.7</v>
       </c>
       <c r="L116" t="n" s="153">
-        <v>0.92</v>
+        <v>14.33</v>
       </c>
       <c r="T116" t="n" s="153">
-        <v>4.0</v>
+        <v>108.0</v>
       </c>
       <c r="U116" t="s" s="46">
         <v>43</v>
@@ -4930,17 +4906,17 @@
       <c r="B117" t="s">
         <v>149</v>
       </c>
-      <c r="C117" t="n" s="154">
-        <v>9171.17</v>
+      <c r="C117" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K117" t="n" s="154">
-        <v>32.71</v>
+        <v>80.25</v>
       </c>
       <c r="L117" t="n" s="154">
-        <v>0.77</v>
+        <v>4.77</v>
       </c>
       <c r="T117" t="n" s="154">
-        <v>4.0</v>
+        <v>108.0</v>
       </c>
       <c r="U117" t="s" s="46">
         <v>43</v>
@@ -4953,17 +4929,17 @@
       <c r="B118" t="s">
         <v>150</v>
       </c>
-      <c r="C118" t="n" s="155">
-        <v>18342.34</v>
+      <c r="C118" t="n" s="47">
+        <v>12.0</v>
       </c>
       <c r="K118" t="n" s="155">
-        <v>32.49</v>
+        <v>78.44</v>
       </c>
       <c r="L118" t="n" s="155">
-        <v>0.66</v>
+        <v>4.77</v>
       </c>
       <c r="T118" t="n" s="155">
-        <v>5.0</v>
+        <v>105.0</v>
       </c>
       <c r="U118" t="s" s="46">
         <v>43</v>
@@ -4977,16 +4953,16 @@
         <v>151</v>
       </c>
       <c r="C119" t="n" s="47">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="K119" t="n" s="156">
-        <v>78.57</v>
+        <v>109.15</v>
       </c>
       <c r="L119" t="n" s="156">
-        <v>-20.74</v>
+        <v>5.46</v>
       </c>
       <c r="T119" t="n" s="156">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="U119" t="s" s="46">
         <v>43</v>
@@ -5000,16 +4976,16 @@
         <v>152</v>
       </c>
       <c r="C120" t="n" s="47">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="K120" t="n" s="157">
-        <v>75.37</v>
+        <v>95.11</v>
       </c>
       <c r="L120" t="n" s="157">
-        <v>-22.21</v>
+        <v>5.46</v>
       </c>
       <c r="T120" t="n" s="157">
-        <v>73.0</v>
+        <v>83.0</v>
       </c>
       <c r="U120" t="s" s="46">
         <v>43</v>
@@ -5023,16 +4999,16 @@
         <v>153</v>
       </c>
       <c r="C121" t="n" s="47">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="K121" t="n" s="158">
-        <v>75.48</v>
+        <v>92.73</v>
       </c>
       <c r="L121" t="n" s="158">
-        <v>-22.4</v>
+        <v>4.2</v>
       </c>
       <c r="T121" t="n" s="158">
-        <v>71.0</v>
+        <v>33.0</v>
       </c>
       <c r="U121" t="s" s="46">
         <v>43</v>
@@ -5046,16 +5022,16 @@
         <v>154</v>
       </c>
       <c r="C122" t="n" s="47">
-        <v>12.0</v>
+        <v>60.0</v>
       </c>
       <c r="K122" t="n" s="159">
-        <v>73.67</v>
+        <v>113.23</v>
       </c>
       <c r="L122" t="n" s="159">
-        <v>-21.52</v>
+        <v>1.15</v>
       </c>
       <c r="T122" t="n" s="159">
-        <v>71.0</v>
+        <v>36.0</v>
       </c>
       <c r="U122" t="s" s="46">
         <v>43</v>
@@ -5069,16 +5045,19 @@
         <v>155</v>
       </c>
       <c r="C123" t="n" s="47">
-        <v>60.0</v>
+        <v>240.0</v>
       </c>
       <c r="K123" t="n" s="160">
-        <v>103.69</v>
+        <v>113.23</v>
       </c>
       <c r="L123" t="n" s="160">
-        <v>10.14</v>
+        <v>1.15</v>
+      </c>
+      <c r="S123" t="n" s="46">
+        <v>10.0</v>
       </c>
       <c r="T123" t="n" s="160">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="U123" t="s" s="46">
         <v>43</v>
@@ -5092,16 +5071,19 @@
         <v>156</v>
       </c>
       <c r="C124" t="n" s="47">
-        <v>60.0</v>
+        <v>276.0</v>
       </c>
       <c r="K124" t="n" s="161">
-        <v>89.65</v>
+        <v>110.57</v>
       </c>
       <c r="L124" t="n" s="161">
-        <v>3.12</v>
+        <v>1.06</v>
+      </c>
+      <c r="S124" t="n" s="46">
+        <v>10.0</v>
       </c>
       <c r="T124" t="n" s="161">
-        <v>53.0</v>
+        <v>23.0</v>
       </c>
       <c r="U124" t="s" s="46">
         <v>43</v>
@@ -5115,16 +5097,16 @@
         <v>157</v>
       </c>
       <c r="C125" t="n" s="47">
-        <v>60.0</v>
+        <v>264.0</v>
       </c>
       <c r="K125" t="n" s="162">
-        <v>88.53</v>
+        <v>99.66</v>
       </c>
       <c r="L125" t="n" s="162">
-        <v>3.17</v>
+        <v>-0.03</v>
       </c>
       <c r="T125" t="n" s="162">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="U125" t="s" s="46">
         <v>43</v>
@@ -5138,16 +5120,16 @@
         <v>158</v>
       </c>
       <c r="C126" t="n" s="47">
-        <v>60.0</v>
+        <v>240.0</v>
       </c>
       <c r="K126" t="n" s="163">
-        <v>112.08</v>
-      </c>
-      <c r="L126" t="s" s="46">
-        <v>43</v>
+        <v>76.41</v>
+      </c>
+      <c r="L126" t="n" s="163">
+        <v>0.76</v>
       </c>
       <c r="T126" t="n" s="163">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="U126" t="s" s="46">
         <v>43</v>
@@ -5161,19 +5143,16 @@
         <v>159</v>
       </c>
       <c r="C127" t="n" s="47">
-        <v>240.0</v>
+        <v>264.0</v>
       </c>
       <c r="K127" t="n" s="164">
-        <v>112.08</v>
+        <v>43.16</v>
       </c>
       <c r="L127" t="n" s="164">
-        <v>3.17</v>
-      </c>
-      <c r="S127" t="n" s="46">
-        <v>10.0</v>
+        <v>0.25</v>
       </c>
       <c r="T127" t="n" s="164">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="U127" t="s" s="46">
         <v>43</v>
@@ -5187,19 +5166,16 @@
         <v>160</v>
       </c>
       <c r="C128" t="n" s="47">
-        <v>276.0</v>
+        <v>264.0</v>
       </c>
       <c r="K128" t="n" s="165">
-        <v>109.51</v>
+        <v>21.46</v>
       </c>
       <c r="L128" t="n" s="165">
-        <v>3.01</v>
-      </c>
-      <c r="S128" t="n" s="46">
-        <v>10.0</v>
+        <v>1.19</v>
       </c>
       <c r="T128" t="n" s="165">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="U128" t="s" s="46">
         <v>43</v>
@@ -5213,16 +5189,16 @@
         <v>161</v>
       </c>
       <c r="C129" t="n" s="47">
-        <v>264.0</v>
+        <v>768.0</v>
       </c>
       <c r="K129" t="n" s="166">
-        <v>99.69</v>
+        <v>72.97</v>
       </c>
       <c r="L129" t="n" s="166">
-        <v>8.38</v>
+        <v>0.31</v>
       </c>
       <c r="T129" t="n" s="166">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="U129" t="s" s="46">
         <v>43</v>
@@ -5236,16 +5212,16 @@
         <v>162</v>
       </c>
       <c r="C130" t="n" s="47">
-        <v>240.0</v>
+        <v>780.0</v>
       </c>
       <c r="K130" t="n" s="167">
-        <v>75.65</v>
+        <v>30.54</v>
       </c>
       <c r="L130" t="n" s="167">
-        <v>6.41</v>
+        <v>1.07</v>
       </c>
       <c r="T130" t="n" s="167">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="U130" t="s" s="46">
         <v>43</v>
@@ -5259,13 +5235,13 @@
         <v>163</v>
       </c>
       <c r="C131" t="n" s="47">
-        <v>264.0</v>
+        <v>792.0</v>
       </c>
       <c r="K131" t="n" s="168">
-        <v>42.91</v>
+        <v>57.56</v>
       </c>
       <c r="L131" t="n" s="168">
-        <v>3.31</v>
+        <v>0.45</v>
       </c>
       <c r="T131" t="n" s="168">
         <v>9.0</v>
@@ -5282,16 +5258,16 @@
         <v>164</v>
       </c>
       <c r="C132" t="n" s="47">
-        <v>264.0</v>
+        <v>792.0</v>
       </c>
       <c r="K132" t="n" s="169">
-        <v>20.27</v>
+        <v>80.93</v>
       </c>
       <c r="L132" t="n" s="169">
-        <v>0.56</v>
+        <v>0.01</v>
       </c>
       <c r="T132" t="n" s="169">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="U132" t="s" s="46">
         <v>43</v>
@@ -5308,13 +5284,13 @@
         <v>768.0</v>
       </c>
       <c r="K133" t="n" s="170">
-        <v>72.66</v>
+        <v>81.59</v>
       </c>
       <c r="L133" t="n" s="170">
-        <v>6.02</v>
+        <v>-0.09</v>
       </c>
       <c r="T133" t="n" s="170">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="U133" t="s" s="46">
         <v>43</v>
@@ -5331,13 +5307,13 @@
         <v>780.0</v>
       </c>
       <c r="K134" t="n" s="171">
-        <v>29.47</v>
+        <v>24.13</v>
       </c>
       <c r="L134" t="n" s="171">
-        <v>2.77</v>
+        <v>-0.09</v>
       </c>
       <c r="T134" t="n" s="171">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="U134" t="s" s="46">
         <v>43</v>
@@ -5354,13 +5330,13 @@
         <v>792.0</v>
       </c>
       <c r="K135" t="n" s="172">
-        <v>57.11</v>
+        <v>58.5</v>
       </c>
       <c r="L135" t="n" s="172">
-        <v>4.41</v>
+        <v>-0.09</v>
       </c>
       <c r="T135" t="n" s="172">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="U135" t="s" s="46">
         <v>43</v>
@@ -5374,16 +5350,16 @@
         <v>168</v>
       </c>
       <c r="C136" t="n" s="47">
-        <v>792.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K136" t="n" s="173">
-        <v>80.92</v>
+        <v>60.52</v>
       </c>
       <c r="L136" t="n" s="173">
-        <v>-4.2</v>
+        <v>0.46</v>
       </c>
       <c r="T136" t="n" s="173">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="U136" t="s" s="46">
         <v>43</v>
@@ -5397,16 +5373,16 @@
         <v>169</v>
       </c>
       <c r="C137" t="n" s="47">
-        <v>768.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K137" t="n" s="174">
-        <v>81.68</v>
+        <v>59.05</v>
       </c>
       <c r="L137" t="n" s="174">
-        <v>0.17</v>
+        <v>-0.09</v>
       </c>
       <c r="T137" t="n" s="174">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="U137" t="s" s="46">
         <v>43</v>
@@ -5420,16 +5396,16 @@
         <v>170</v>
       </c>
       <c r="C138" t="n" s="47">
-        <v>780.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K138" t="n" s="175">
-        <v>24.22</v>
+        <v>58.17</v>
       </c>
       <c r="L138" t="n" s="175">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="T138" t="n" s="175">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="U138" t="s" s="46">
         <v>43</v>
@@ -5443,16 +5419,16 @@
         <v>171</v>
       </c>
       <c r="C139" t="n" s="47">
-        <v>792.0</v>
+        <v>3132.0</v>
       </c>
       <c r="K139" t="n" s="176">
-        <v>58.59</v>
+        <v>57.2</v>
       </c>
       <c r="L139" t="n" s="176">
-        <v>-0.32</v>
+        <v>0.0</v>
       </c>
       <c r="T139" t="n" s="176">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="U139" t="s" s="46">
         <v>43</v>
@@ -5469,13 +5445,13 @@
         <v>3132.0</v>
       </c>
       <c r="K140" t="n" s="177">
-        <v>60.06</v>
+        <v>56.67</v>
       </c>
       <c r="L140" t="n" s="177">
-        <v>2.22</v>
+        <v>0.0</v>
       </c>
       <c r="T140" t="n" s="177">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U140" t="s" s="46">
         <v>43</v>
@@ -5492,13 +5468,13 @@
         <v>3132.0</v>
       </c>
       <c r="K141" t="n" s="178">
-        <v>59.14</v>
+        <v>56.67</v>
       </c>
       <c r="L141" t="n" s="178">
-        <v>2.15</v>
+        <v>0.0</v>
       </c>
       <c r="T141" t="n" s="178">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="U141" t="s" s="46">
         <v>43</v>
@@ -5512,16 +5488,16 @@
         <v>174</v>
       </c>
       <c r="C142" t="n" s="47">
-        <v>3120.0</v>
+        <v>3144.0</v>
       </c>
       <c r="K142" t="n" s="179">
-        <v>58.17</v>
+        <v>56.67</v>
       </c>
       <c r="L142" t="n" s="179">
-        <v>1.27</v>
+        <v>0.0</v>
       </c>
       <c r="T142" t="n" s="179">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="U142" t="s" s="46">
         <v>43</v>
@@ -5535,16 +5511,16 @@
         <v>175</v>
       </c>
       <c r="C143" t="n" s="47">
-        <v>3132.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K143" t="n" s="180">
-        <v>57.2</v>
+        <v>56.41</v>
       </c>
       <c r="L143" t="n" s="180">
-        <v>1.27</v>
+        <v>0.0</v>
       </c>
       <c r="T143" t="n" s="180">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="U143" t="s" s="46">
         <v>43</v>
@@ -5558,16 +5534,16 @@
         <v>176</v>
       </c>
       <c r="C144" t="n" s="47">
-        <v>3132.0</v>
+        <v>3120.0</v>
       </c>
       <c r="K144" t="n" s="181">
-        <v>56.67</v>
+        <v>56.41</v>
       </c>
       <c r="L144" t="n" s="181">
-        <v>1.27</v>
+        <v>0.0</v>
       </c>
       <c r="T144" t="n" s="181">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="U144" t="s" s="46">
         <v>43</v>
@@ -5584,13 +5560,13 @@
         <v>3132.0</v>
       </c>
       <c r="K145" t="n" s="182">
-        <v>56.67</v>
+        <v>56.41</v>
       </c>
       <c r="L145" t="n" s="182">
-        <v>0.83</v>
+        <v>0.0</v>
       </c>
       <c r="T145" t="n" s="182">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="U145" t="s" s="46">
         <v>43</v>
@@ -5604,16 +5580,16 @@
         <v>178</v>
       </c>
       <c r="C146" t="n" s="47">
-        <v>3144.0</v>
+        <v>168.0</v>
       </c>
       <c r="K146" t="n" s="183">
-        <v>56.67</v>
+        <v>90.5</v>
       </c>
       <c r="L146" t="n" s="183">
-        <v>0.67</v>
+        <v>3.5</v>
       </c>
       <c r="T146" t="n" s="183">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="U146" t="s" s="46">
         <v>43</v>
@@ -5627,16 +5603,16 @@
         <v>179</v>
       </c>
       <c r="C147" t="n" s="47">
-        <v>3120.0</v>
+        <v>169.0</v>
       </c>
       <c r="K147" t="n" s="184">
-        <v>56.41</v>
+        <v>81.5</v>
       </c>
       <c r="L147" t="n" s="184">
-        <v>0.67</v>
+        <v>3.5</v>
       </c>
       <c r="T147" t="n" s="184">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="U147" t="s" s="46">
         <v>43</v>
@@ -5650,16 +5626,16 @@
         <v>180</v>
       </c>
       <c r="C148" t="n" s="47">
-        <v>3120.0</v>
+        <v>168.0</v>
       </c>
       <c r="K148" t="n" s="185">
-        <v>56.41</v>
+        <v>79.97</v>
       </c>
       <c r="L148" t="n" s="185">
-        <v>0.67</v>
+        <v>2.69</v>
       </c>
       <c r="T148" t="n" s="185">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="U148" t="s" s="46">
         <v>43</v>
@@ -5673,16 +5649,16 @@
         <v>181</v>
       </c>
       <c r="C149" t="n" s="47">
-        <v>3132.0</v>
+        <v>168.0</v>
       </c>
       <c r="K149" t="n" s="186">
-        <v>56.41</v>
+        <v>78.5</v>
       </c>
       <c r="L149" t="n" s="186">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="T149" t="n" s="186">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="U149" t="s" s="46">
         <v>43</v>
@@ -5696,16 +5672,16 @@
         <v>182</v>
       </c>
       <c r="C150" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
       </c>
       <c r="K150" t="n" s="187">
-        <v>87.0</v>
+        <v>78.5</v>
       </c>
       <c r="L150" t="n" s="187">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="T150" t="n" s="187">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="U150" t="s" s="46">
         <v>43</v>
@@ -5719,16 +5695,16 @@
         <v>183</v>
       </c>
       <c r="C151" t="n" s="47">
-        <v>169.0</v>
+        <v>744.0</v>
       </c>
       <c r="K151" t="n" s="188">
-        <v>78.0</v>
+        <v>76.6</v>
       </c>
       <c r="L151" t="n" s="188">
-        <v>2.0</v>
+        <v>0.6</v>
       </c>
       <c r="T151" t="n" s="188">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U151" t="s" s="46">
         <v>43</v>
@@ -5742,16 +5718,16 @@
         <v>184</v>
       </c>
       <c r="C152" t="n" s="47">
-        <v>168.0</v>
+        <v>744.0</v>
       </c>
       <c r="K152" t="n" s="189">
-        <v>77.28</v>
+        <v>74.51</v>
       </c>
       <c r="L152" t="n" s="189">
-        <v>2.03</v>
+        <v>-0.09</v>
       </c>
       <c r="T152" t="n" s="189">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U152" t="s" s="46">
         <v>43</v>
@@ -5765,16 +5741,16 @@
         <v>185</v>
       </c>
       <c r="C153" t="n" s="47">
-        <v>168.0</v>
+        <v>672.0</v>
       </c>
       <c r="K153" t="n" s="190">
-        <v>77.85</v>
-      </c>
-      <c r="L153" t="s" s="46">
-        <v>43</v>
+        <v>73.36</v>
+      </c>
+      <c r="L153" t="n" s="190">
+        <v>0.44</v>
       </c>
       <c r="T153" t="n" s="190">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="U153" t="s" s="46">
         <v>43</v>
@@ -5788,16 +5764,16 @@
         <v>186</v>
       </c>
       <c r="C154" t="n" s="47">
-        <v>720.0</v>
+        <v>743.0</v>
       </c>
       <c r="K154" t="n" s="191">
-        <v>77.85</v>
+        <v>45.88</v>
       </c>
       <c r="L154" t="n" s="191">
-        <v>2.1</v>
+        <v>0.13</v>
       </c>
       <c r="T154" t="n" s="191">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U154" t="s" s="46">
         <v>43</v>
@@ -5811,16 +5787,16 @@
         <v>187</v>
       </c>
       <c r="C155" t="n" s="47">
-        <v>744.0</v>
+        <v>720.0</v>
       </c>
       <c r="K155" t="n" s="192">
-        <v>76.0</v>
+        <v>29.81</v>
       </c>
       <c r="L155" t="n" s="192">
-        <v>2.0</v>
+        <v>0.65</v>
       </c>
       <c r="T155" t="n" s="192">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="U155" t="s" s="46">
         <v>43</v>
@@ -5834,16 +5810,16 @@
         <v>188</v>
       </c>
       <c r="C156" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K156" t="n" s="193">
-        <v>74.6</v>
+        <v>64.3</v>
       </c>
       <c r="L156" t="n" s="193">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="T156" t="n" s="193">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="U156" t="s" s="46">
         <v>43</v>
@@ -5857,16 +5833,16 @@
         <v>189</v>
       </c>
       <c r="C157" t="n" s="47">
-        <v>672.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K157" t="n" s="194">
-        <v>72.92</v>
+        <v>41.65</v>
       </c>
       <c r="L157" t="n" s="194">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="T157" t="n" s="194">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U157" t="s" s="46">
         <v>43</v>
@@ -5880,16 +5856,16 @@
         <v>190</v>
       </c>
       <c r="C158" t="n" s="47">
-        <v>743.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K158" t="n" s="195">
-        <v>45.75</v>
+        <v>67.89</v>
       </c>
       <c r="L158" t="n" s="195">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="T158" t="n" s="195">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U158" t="s" s="46">
         <v>43</v>
@@ -5903,16 +5879,16 @@
         <v>191</v>
       </c>
       <c r="C159" t="n" s="47">
-        <v>720.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K159" t="n" s="196">
-        <v>29.16</v>
+        <v>74.18</v>
       </c>
       <c r="L159" t="n" s="196">
-        <v>0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="T159" t="n" s="196">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U159" t="s" s="46">
         <v>43</v>
@@ -5929,13 +5905,13 @@
         <v>2159.0</v>
       </c>
       <c r="K160" t="n" s="197">
-        <v>64.15</v>
+        <v>64.91</v>
       </c>
       <c r="L160" t="n" s="197">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="T160" t="n" s="197">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U160" t="s" s="46">
         <v>43</v>
@@ -5952,13 +5928,13 @@
         <v>2184.0</v>
       </c>
       <c r="K161" t="n" s="198">
-        <v>41.0</v>
+        <v>36.22</v>
       </c>
       <c r="L161" t="n" s="198">
-        <v>0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="T161" t="n" s="198">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="U161" t="s" s="46">
         <v>43</v>
@@ -5975,13 +5951,13 @@
         <v>2208.0</v>
       </c>
       <c r="K162" t="n" s="199">
-        <v>67.64</v>
+        <v>65.04</v>
       </c>
       <c r="L162" t="n" s="199">
-        <v>0.46</v>
+        <v>-0.05</v>
       </c>
       <c r="T162" t="n" s="199">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U162" t="s" s="46">
         <v>43</v>
@@ -5995,16 +5971,16 @@
         <v>195</v>
       </c>
       <c r="C163" t="n" s="47">
-        <v>2209.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K163" t="n" s="200">
-        <v>74.23</v>
+        <v>62.05</v>
       </c>
       <c r="L163" t="n" s="200">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="T163" t="n" s="200">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U163" t="s" s="46">
         <v>43</v>
@@ -6018,16 +5994,16 @@
         <v>196</v>
       </c>
       <c r="C164" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K164" t="n" s="201">
-        <v>64.96</v>
+        <v>59.35</v>
       </c>
       <c r="L164" t="n" s="201">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="T164" t="n" s="201">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U164" t="s" s="46">
         <v>43</v>
@@ -6041,16 +6017,16 @@
         <v>197</v>
       </c>
       <c r="C165" t="n" s="47">
-        <v>2184.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K165" t="n" s="202">
-        <v>36.27</v>
+        <v>58.85</v>
       </c>
       <c r="L165" t="n" s="202">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T165" t="n" s="202">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U165" t="s" s="46">
         <v>43</v>
@@ -6064,13 +6040,13 @@
         <v>198</v>
       </c>
       <c r="C166" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K166" t="n" s="203">
-        <v>65.09</v>
+        <v>58.3</v>
       </c>
       <c r="L166" t="n" s="203">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T166" t="n" s="203">
         <v>3.0</v>
@@ -6090,13 +6066,13 @@
         <v>8760.0</v>
       </c>
       <c r="K167" t="n" s="204">
-        <v>61.8</v>
+        <v>58.0</v>
       </c>
       <c r="L167" t="n" s="204">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T167" t="n" s="204">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U167" t="s" s="46">
         <v>43</v>
@@ -6113,10 +6089,10 @@
         <v>8760.0</v>
       </c>
       <c r="K168" t="n" s="205">
-        <v>59.4</v>
+        <v>58.0</v>
       </c>
       <c r="L168" t="n" s="205">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T168" t="n" s="205">
         <v>3.0</v>
@@ -6136,7 +6112,7 @@
         <v>8784.0</v>
       </c>
       <c r="K169" t="n" s="206">
-        <v>58.85</v>
+        <v>58.0</v>
       </c>
       <c r="L169" t="n" s="206">
         <v>0.0</v>
@@ -6159,7 +6135,7 @@
         <v>8760.0</v>
       </c>
       <c r="K170" t="n" s="207">
-        <v>58.3</v>
+        <v>57.85</v>
       </c>
       <c r="L170" t="n" s="207">
         <v>0.0</v>
@@ -6182,7 +6158,7 @@
         <v>8760.0</v>
       </c>
       <c r="K171" t="n" s="208">
-        <v>58.0</v>
+        <v>57.85</v>
       </c>
       <c r="L171" t="n" s="208">
         <v>0.0</v>
@@ -6205,7 +6181,7 @@
         <v>8760.0</v>
       </c>
       <c r="K172" t="n" s="209">
-        <v>58.0</v>
+        <v>57.85</v>
       </c>
       <c r="L172" t="n" s="209">
         <v>0.0</v>
@@ -6224,17 +6200,17 @@
       <c r="B173" t="s">
         <v>205</v>
       </c>
-      <c r="C173" t="n" s="47">
-        <v>8784.0</v>
+      <c r="C173" t="n" s="210">
+        <v>2.4</v>
       </c>
       <c r="K173" t="n" s="210">
-        <v>58.0</v>
+        <v>98.29</v>
       </c>
       <c r="L173" t="n" s="210">
-        <v>0.0</v>
+        <v>9.55</v>
       </c>
       <c r="T173" t="n" s="210">
-        <v>3.0</v>
+        <v>89.0</v>
       </c>
       <c r="U173" t="s" s="46">
         <v>43</v>
@@ -6247,17 +6223,17 @@
       <c r="B174" t="s">
         <v>206</v>
       </c>
-      <c r="C174" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C174" t="n" s="211">
+        <v>2.4</v>
       </c>
       <c r="K174" t="n" s="211">
-        <v>57.85</v>
+        <v>92.03</v>
       </c>
       <c r="L174" t="n" s="211">
-        <v>0.0</v>
+        <v>3.18</v>
       </c>
       <c r="T174" t="n" s="211">
-        <v>3.0</v>
+        <v>89.0</v>
       </c>
       <c r="U174" t="s" s="46">
         <v>43</v>
@@ -6270,17 +6246,17 @@
       <c r="B175" t="s">
         <v>207</v>
       </c>
-      <c r="C175" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C175" t="n" s="212">
+        <v>2.4</v>
       </c>
       <c r="K175" t="n" s="212">
-        <v>57.85</v>
+        <v>90.22</v>
       </c>
       <c r="L175" t="n" s="212">
-        <v>0.0</v>
+        <v>3.18</v>
       </c>
       <c r="T175" t="n" s="212">
-        <v>3.0</v>
+        <v>88.0</v>
       </c>
       <c r="U175" t="s" s="46">
         <v>43</v>
@@ -6293,17 +6269,17 @@
       <c r="B176" t="s">
         <v>208</v>
       </c>
-      <c r="C176" t="n" s="47">
-        <v>8760.0</v>
+      <c r="C176" t="n" s="213">
+        <v>2.4</v>
       </c>
       <c r="K176" t="n" s="213">
-        <v>57.85</v>
+        <v>81.08</v>
       </c>
       <c r="L176" t="n" s="213">
-        <v>0.0</v>
+        <v>3.18</v>
       </c>
       <c r="T176" t="n" s="213">
-        <v>4.0</v>
+        <v>78.0</v>
       </c>
       <c r="U176" t="s" s="46">
         <v>43</v>
@@ -6320,13 +6296,13 @@
         <v>2.4</v>
       </c>
       <c r="K177" t="n" s="214">
-        <v>98.65</v>
+        <v>74.06</v>
       </c>
       <c r="L177" t="n" s="214">
-        <v>9.94</v>
+        <v>3.18</v>
       </c>
       <c r="T177" t="n" s="214">
-        <v>55.0</v>
+        <v>71.0</v>
       </c>
       <c r="U177" t="s" s="46">
         <v>43</v>
@@ -6340,16 +6316,16 @@
         <v>210</v>
       </c>
       <c r="C178" t="n" s="215">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="K178" t="n" s="215">
-        <v>88.74</v>
+        <v>77.57</v>
       </c>
       <c r="L178" t="n" s="215">
-        <v>1.1</v>
+        <v>3.18</v>
       </c>
       <c r="T178" t="n" s="215">
-        <v>31.0</v>
+        <v>52.0</v>
       </c>
       <c r="U178" t="s" s="46">
         <v>43</v>
@@ -6363,16 +6339,16 @@
         <v>211</v>
       </c>
       <c r="C179" t="n" s="216">
-        <v>2.4</v>
+        <v>16.8</v>
       </c>
       <c r="K179" t="n" s="216">
-        <v>88.85</v>
+        <v>91.15</v>
       </c>
       <c r="L179" t="n" s="216">
-        <v>0.58</v>
+        <v>3.5</v>
       </c>
       <c r="T179" t="n" s="216">
-        <v>52.0</v>
+        <v>27.0</v>
       </c>
       <c r="U179" t="s" s="46">
         <v>43</v>
@@ -6386,16 +6362,16 @@
         <v>212</v>
       </c>
       <c r="C180" t="n" s="217">
-        <v>2.4</v>
+        <v>16.9</v>
       </c>
       <c r="K180" t="n" s="217">
-        <v>87.04</v>
+        <v>82.15</v>
       </c>
       <c r="L180" t="n" s="217">
-        <v>0.76</v>
+        <v>3.5</v>
       </c>
       <c r="T180" t="n" s="217">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="U180" t="s" s="46">
         <v>43</v>
@@ -6409,16 +6385,16 @@
         <v>213</v>
       </c>
       <c r="C181" t="n" s="218">
-        <v>2.4</v>
+        <v>16.8</v>
       </c>
       <c r="K181" t="n" s="218">
-        <v>77.9</v>
+        <v>80.62</v>
       </c>
       <c r="L181" t="n" s="218">
-        <v>0.71</v>
+        <v>2.69</v>
       </c>
       <c r="T181" t="n" s="218">
-        <v>43.0</v>
+        <v>19.0</v>
       </c>
       <c r="U181" t="s" s="46">
         <v>43</v>
@@ -6432,16 +6408,16 @@
         <v>214</v>
       </c>
       <c r="C182" t="n" s="219">
-        <v>2.4</v>
+        <v>16.8</v>
       </c>
       <c r="K182" t="n" s="219">
-        <v>70.88</v>
+        <v>79.15</v>
       </c>
       <c r="L182" t="n" s="219">
-        <v>-0.04</v>
+        <v>0.65</v>
       </c>
       <c r="T182" t="n" s="219">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
       <c r="U182" t="s" s="46">
         <v>43</v>
@@ -6454,17 +6430,17 @@
       <c r="B183" t="s">
         <v>215</v>
       </c>
-      <c r="C183" t="n" s="220">
-        <v>4.8</v>
+      <c r="C183" t="n" s="47">
+        <v>72.0</v>
       </c>
       <c r="K183" t="n" s="220">
-        <v>74.39</v>
+        <v>79.15</v>
       </c>
       <c r="L183" t="n" s="220">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="T183" t="n" s="220">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="U183" t="s" s="46">
         <v>43</v>
@@ -6478,16 +6454,16 @@
         <v>216</v>
       </c>
       <c r="C184" t="n" s="221">
-        <v>16.8</v>
+        <v>74.4</v>
       </c>
       <c r="K184" t="n" s="221">
-        <v>87.65</v>
+        <v>77.25</v>
       </c>
       <c r="L184" t="n" s="221">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="T184" t="n" s="221">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="U184" t="s" s="46">
         <v>43</v>
@@ -6501,16 +6477,16 @@
         <v>217</v>
       </c>
       <c r="C185" t="n" s="222">
-        <v>16.9</v>
+        <v>74.4</v>
       </c>
       <c r="K185" t="n" s="222">
-        <v>78.65</v>
+        <v>75.51</v>
       </c>
       <c r="L185" t="n" s="222">
-        <v>2.0</v>
+        <v>-0.09</v>
       </c>
       <c r="T185" t="n" s="222">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U185" t="s" s="46">
         <v>43</v>
@@ -6524,16 +6500,16 @@
         <v>218</v>
       </c>
       <c r="C186" t="n" s="223">
-        <v>16.8</v>
+        <v>67.2</v>
       </c>
       <c r="K186" t="n" s="223">
-        <v>77.93</v>
+        <v>74.36</v>
       </c>
       <c r="L186" t="n" s="223">
-        <v>2.03</v>
+        <v>0.44</v>
       </c>
       <c r="T186" t="n" s="223">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="U186" t="s" s="46">
         <v>43</v>
@@ -6547,16 +6523,16 @@
         <v>219</v>
       </c>
       <c r="C187" t="n" s="224">
-        <v>16.8</v>
+        <v>74.3</v>
       </c>
       <c r="K187" t="n" s="224">
-        <v>78.5</v>
-      </c>
-      <c r="L187" t="s" s="46">
-        <v>43</v>
+        <v>46.88</v>
+      </c>
+      <c r="L187" t="n" s="224">
+        <v>0.13</v>
       </c>
       <c r="T187" t="n" s="224">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="U187" t="s" s="46">
         <v>43</v>
@@ -6573,13 +6549,13 @@
         <v>72.0</v>
       </c>
       <c r="K188" t="n" s="225">
-        <v>78.5</v>
+        <v>30.81</v>
       </c>
       <c r="L188" t="n" s="225">
-        <v>2.1</v>
+        <v>0.65</v>
       </c>
       <c r="T188" t="n" s="225">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="U188" t="s" s="46">
         <v>43</v>
@@ -6593,16 +6569,16 @@
         <v>221</v>
       </c>
       <c r="C189" t="n" s="226">
-        <v>74.4</v>
+        <v>215.9</v>
       </c>
       <c r="K189" t="n" s="226">
-        <v>76.65</v>
+        <v>65.3</v>
       </c>
       <c r="L189" t="n" s="226">
-        <v>2.0</v>
+        <v>0.15</v>
       </c>
       <c r="T189" t="n" s="226">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="U189" t="s" s="46">
         <v>43</v>
@@ -6616,16 +6592,16 @@
         <v>222</v>
       </c>
       <c r="C190" t="n" s="227">
-        <v>74.4</v>
+        <v>218.4</v>
       </c>
       <c r="K190" t="n" s="227">
-        <v>75.6</v>
+        <v>42.65</v>
       </c>
       <c r="L190" t="n" s="227">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="T190" t="n" s="227">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="U190" t="s" s="46">
         <v>43</v>
@@ -6639,16 +6615,16 @@
         <v>223</v>
       </c>
       <c r="C191" t="n" s="228">
-        <v>67.2</v>
+        <v>220.8</v>
       </c>
       <c r="K191" t="n" s="228">
-        <v>73.92</v>
+        <v>68.89</v>
       </c>
       <c r="L191" t="n" s="228">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="T191" t="n" s="228">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U191" t="s" s="46">
         <v>43</v>
@@ -6662,16 +6638,16 @@
         <v>224</v>
       </c>
       <c r="C192" t="n" s="229">
-        <v>74.3</v>
+        <v>220.9</v>
       </c>
       <c r="K192" t="n" s="229">
-        <v>46.75</v>
+        <v>75.18</v>
       </c>
       <c r="L192" t="n" s="229">
-        <v>0.23</v>
+        <v>-0.05</v>
       </c>
       <c r="T192" t="n" s="229">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U192" t="s" s="46">
         <v>43</v>
@@ -6684,17 +6660,17 @@
       <c r="B193" t="s">
         <v>225</v>
       </c>
-      <c r="C193" t="n" s="47">
-        <v>72.0</v>
+      <c r="C193" t="n" s="230">
+        <v>215.9</v>
       </c>
       <c r="K193" t="n" s="230">
-        <v>30.16</v>
+        <v>65.91</v>
       </c>
       <c r="L193" t="n" s="230">
-        <v>0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="T193" t="n" s="230">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U193" t="s" s="46">
         <v>43</v>
@@ -6708,16 +6684,16 @@
         <v>226</v>
       </c>
       <c r="C194" t="n" s="231">
-        <v>215.9</v>
+        <v>218.4</v>
       </c>
       <c r="K194" t="n" s="231">
-        <v>65.15</v>
+        <v>37.22</v>
       </c>
       <c r="L194" t="n" s="231">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="T194" t="n" s="231">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U194" t="s" s="46">
         <v>43</v>
@@ -6731,16 +6707,16 @@
         <v>227</v>
       </c>
       <c r="C195" t="n" s="232">
-        <v>218.4</v>
+        <v>220.8</v>
       </c>
       <c r="K195" t="n" s="232">
-        <v>42.0</v>
+        <v>66.04</v>
       </c>
       <c r="L195" t="n" s="232">
-        <v>0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="T195" t="n" s="232">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="U195" t="s" s="46">
         <v>43</v>
@@ -6753,14 +6729,14 @@
       <c r="B196" t="s">
         <v>228</v>
       </c>
-      <c r="C196" t="n" s="233">
-        <v>220.8</v>
+      <c r="C196" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K196" t="n" s="233">
-        <v>68.64</v>
+        <v>63.05</v>
       </c>
       <c r="L196" t="n" s="233">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="T196" t="n" s="233">
         <v>4.0</v>
@@ -6776,17 +6752,17 @@
       <c r="B197" t="s">
         <v>229</v>
       </c>
-      <c r="C197" t="n" s="234">
-        <v>220.9</v>
+      <c r="C197" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K197" t="n" s="234">
-        <v>75.23</v>
+        <v>60.35</v>
       </c>
       <c r="L197" t="n" s="234">
-        <v>0.44</v>
+        <v>-0.05</v>
       </c>
       <c r="T197" t="n" s="234">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U197" t="s" s="46">
         <v>43</v>
@@ -6800,16 +6776,16 @@
         <v>230</v>
       </c>
       <c r="C198" t="n" s="235">
-        <v>215.9</v>
+        <v>878.4</v>
       </c>
       <c r="K198" t="n" s="235">
-        <v>65.96</v>
+        <v>59.85</v>
       </c>
       <c r="L198" t="n" s="235">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T198" t="n" s="235">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U198" t="s" s="46">
         <v>43</v>
@@ -6822,17 +6798,17 @@
       <c r="B199" t="s">
         <v>231</v>
       </c>
-      <c r="C199" t="n" s="236">
-        <v>218.4</v>
+      <c r="C199" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K199" t="n" s="236">
-        <v>37.27</v>
+        <v>59.3</v>
       </c>
       <c r="L199" t="n" s="236">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T199" t="n" s="236">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U199" t="s" s="46">
         <v>43</v>
@@ -6845,17 +6821,17 @@
       <c r="B200" t="s">
         <v>232</v>
       </c>
-      <c r="C200" t="n" s="237">
-        <v>220.8</v>
+      <c r="C200" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K200" t="n" s="237">
-        <v>66.09</v>
+        <v>59.0</v>
       </c>
       <c r="L200" t="n" s="237">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T200" t="n" s="237">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U200" t="s" s="46">
         <v>43</v>
@@ -6872,10 +6848,10 @@
         <v>876.0</v>
       </c>
       <c r="K201" t="n" s="238">
-        <v>62.8</v>
+        <v>59.0</v>
       </c>
       <c r="L201" t="n" s="238">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T201" t="n" s="238">
         <v>4.0</v>
@@ -6891,17 +6867,17 @@
       <c r="B202" t="s">
         <v>234</v>
       </c>
-      <c r="C202" t="n" s="47">
-        <v>876.0</v>
+      <c r="C202" t="n" s="239">
+        <v>878.4</v>
       </c>
       <c r="K202" t="n" s="239">
-        <v>60.4</v>
+        <v>59.0</v>
       </c>
       <c r="L202" t="n" s="239">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T202" t="n" s="239">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U202" t="s" s="46">
         <v>43</v>
@@ -6914,17 +6890,17 @@
       <c r="B203" t="s">
         <v>235</v>
       </c>
-      <c r="C203" t="n" s="240">
-        <v>878.4</v>
+      <c r="C203" t="n" s="47">
+        <v>876.0</v>
       </c>
       <c r="K203" t="n" s="240">
-        <v>59.85</v>
+        <v>58.85</v>
       </c>
       <c r="L203" t="n" s="240">
         <v>0.0</v>
       </c>
       <c r="T203" t="n" s="240">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U203" t="s" s="46">
         <v>43</v>
@@ -6941,13 +6917,13 @@
         <v>876.0</v>
       </c>
       <c r="K204" t="n" s="241">
-        <v>59.3</v>
+        <v>58.85</v>
       </c>
       <c r="L204" t="n" s="241">
         <v>0.0</v>
       </c>
       <c r="T204" t="n" s="241">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U204" t="s" s="46">
         <v>43</v>
@@ -6964,13 +6940,13 @@
         <v>876.0</v>
       </c>
       <c r="K205" t="n" s="242">
-        <v>59.0</v>
+        <v>58.85</v>
       </c>
       <c r="L205" t="n" s="242">
         <v>0.0</v>
       </c>
       <c r="T205" t="n" s="242">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U205" t="s" s="46">
         <v>43</v>
@@ -6984,16 +6960,16 @@
         <v>238</v>
       </c>
       <c r="C206" t="n" s="47">
-        <v>876.0</v>
+        <v>24.0</v>
       </c>
       <c r="K206" t="n" s="243">
-        <v>59.0</v>
+        <v>99.19</v>
       </c>
       <c r="L206" t="n" s="243">
-        <v>0.0</v>
+        <v>10.19</v>
       </c>
       <c r="T206" t="n" s="243">
-        <v>5.0</v>
+        <v>87.0</v>
       </c>
       <c r="U206" t="s" s="46">
         <v>43</v>
@@ -7006,17 +6982,17 @@
       <c r="B207" t="s">
         <v>239</v>
       </c>
-      <c r="C207" t="n" s="244">
-        <v>878.4</v>
+      <c r="C207" t="n" s="47">
+        <v>24.0</v>
       </c>
       <c r="K207" t="n" s="244">
-        <v>59.0</v>
+        <v>92.5</v>
       </c>
       <c r="L207" t="n" s="244">
-        <v>0.0</v>
+        <v>3.39</v>
       </c>
       <c r="T207" t="n" s="244">
-        <v>5.0</v>
+        <v>87.0</v>
       </c>
       <c r="U207" t="s" s="46">
         <v>43</v>
@@ -7030,16 +7006,16 @@
         <v>240</v>
       </c>
       <c r="C208" t="n" s="47">
-        <v>876.0</v>
+        <v>24.0</v>
       </c>
       <c r="K208" t="n" s="245">
-        <v>58.85</v>
+        <v>90.69</v>
       </c>
       <c r="L208" t="n" s="245">
-        <v>0.0</v>
+        <v>3.39</v>
       </c>
       <c r="T208" t="n" s="245">
-        <v>5.0</v>
+        <v>86.0</v>
       </c>
       <c r="U208" t="s" s="46">
         <v>43</v>
@@ -7053,16 +7029,16 @@
         <v>241</v>
       </c>
       <c r="C209" t="n" s="47">
-        <v>876.0</v>
+        <v>24.0</v>
       </c>
       <c r="K209" t="n" s="246">
-        <v>58.85</v>
+        <v>81.55</v>
       </c>
       <c r="L209" t="n" s="246">
-        <v>0.0</v>
+        <v>3.39</v>
       </c>
       <c r="T209" t="n" s="246">
-        <v>6.0</v>
+        <v>77.0</v>
       </c>
       <c r="U209" t="s" s="46">
         <v>43</v>
@@ -7076,16 +7052,16 @@
         <v>242</v>
       </c>
       <c r="C210" t="n" s="47">
-        <v>876.0</v>
+        <v>24.0</v>
       </c>
       <c r="K210" t="n" s="247">
-        <v>58.85</v>
+        <v>74.53</v>
       </c>
       <c r="L210" t="n" s="247">
-        <v>0.0</v>
+        <v>3.39</v>
       </c>
       <c r="T210" t="n" s="247">
-        <v>6.0</v>
+        <v>70.0</v>
       </c>
       <c r="U210" t="s" s="46">
         <v>43</v>
@@ -7099,16 +7075,16 @@
         <v>243</v>
       </c>
       <c r="C211" t="n" s="47">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="K211" t="n" s="248">
-        <v>98.65</v>
+        <v>78.04</v>
       </c>
       <c r="L211" t="n" s="248">
-        <v>10.07</v>
+        <v>3.39</v>
       </c>
       <c r="T211" t="n" s="248">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="U211" t="s" s="46">
         <v>43</v>
@@ -7122,16 +7098,16 @@
         <v>244</v>
       </c>
       <c r="C212" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K212" t="n" s="249">
-        <v>89.0</v>
+        <v>90.5</v>
       </c>
       <c r="L212" t="n" s="249">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="T212" t="n" s="249">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="U212" t="s" s="46">
         <v>43</v>
@@ -7145,16 +7121,16 @@
         <v>245</v>
       </c>
       <c r="C213" t="n" s="47">
-        <v>24.0</v>
+        <v>169.0</v>
       </c>
       <c r="K213" t="n" s="250">
-        <v>89.11</v>
+        <v>81.5</v>
       </c>
       <c r="L213" t="n" s="250">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="T213" t="n" s="250">
-        <v>51.0</v>
+        <v>25.0</v>
       </c>
       <c r="U213" t="s" s="46">
         <v>43</v>
@@ -7168,16 +7144,16 @@
         <v>246</v>
       </c>
       <c r="C214" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K214" t="n" s="251">
-        <v>87.3</v>
+        <v>79.97</v>
       </c>
       <c r="L214" t="n" s="251">
-        <v>1.63</v>
+        <v>2.69</v>
       </c>
       <c r="T214" t="n" s="251">
-        <v>58.0</v>
+        <v>22.0</v>
       </c>
       <c r="U214" t="s" s="46">
         <v>43</v>
@@ -7191,16 +7167,16 @@
         <v>247</v>
       </c>
       <c r="C215" t="n" s="47">
-        <v>24.0</v>
+        <v>168.0</v>
       </c>
       <c r="K215" t="n" s="252">
-        <v>78.16</v>
+        <v>78.5</v>
       </c>
       <c r="L215" t="n" s="252">
-        <v>1.63</v>
+        <v>0.65</v>
       </c>
       <c r="T215" t="n" s="252">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
       <c r="U215" t="s" s="46">
         <v>43</v>
@@ -7214,16 +7190,16 @@
         <v>248</v>
       </c>
       <c r="C216" t="n" s="47">
-        <v>24.0</v>
+        <v>720.0</v>
       </c>
       <c r="K216" t="n" s="253">
-        <v>71.14</v>
+        <v>78.5</v>
       </c>
       <c r="L216" t="n" s="253">
-        <v>1.63</v>
+        <v>0.65</v>
       </c>
       <c r="T216" t="n" s="253">
-        <v>58.0</v>
+        <v>10.0</v>
       </c>
       <c r="U216" t="s" s="46">
         <v>43</v>
@@ -7237,16 +7213,16 @@
         <v>249</v>
       </c>
       <c r="C217" t="n" s="47">
-        <v>48.0</v>
+        <v>744.0</v>
       </c>
       <c r="K217" t="n" s="254">
-        <v>74.65</v>
+        <v>76.6</v>
       </c>
       <c r="L217" t="n" s="254">
-        <v>1.63</v>
+        <v>0.6</v>
       </c>
       <c r="T217" t="n" s="254">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="U217" t="s" s="46">
         <v>43</v>
@@ -7260,16 +7236,16 @@
         <v>250</v>
       </c>
       <c r="C218" t="n" s="47">
-        <v>168.0</v>
+        <v>744.0</v>
       </c>
       <c r="K218" t="n" s="255">
-        <v>87.0</v>
+        <v>74.51</v>
       </c>
       <c r="L218" t="n" s="255">
-        <v>6.5</v>
+        <v>-0.09</v>
       </c>
       <c r="T218" t="n" s="255">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="U218" t="s" s="46">
         <v>43</v>
@@ -7283,16 +7259,16 @@
         <v>251</v>
       </c>
       <c r="C219" t="n" s="47">
-        <v>169.0</v>
+        <v>672.0</v>
       </c>
       <c r="K219" t="n" s="256">
-        <v>78.0</v>
+        <v>73.36</v>
       </c>
       <c r="L219" t="n" s="256">
-        <v>2.0</v>
+        <v>0.44</v>
       </c>
       <c r="T219" t="n" s="256">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="U219" t="s" s="46">
         <v>43</v>
@@ -7306,16 +7282,16 @@
         <v>252</v>
       </c>
       <c r="C220" t="n" s="47">
-        <v>168.0</v>
+        <v>743.0</v>
       </c>
       <c r="K220" t="n" s="257">
-        <v>77.28</v>
+        <v>45.88</v>
       </c>
       <c r="L220" t="n" s="257">
-        <v>2.03</v>
+        <v>0.13</v>
       </c>
       <c r="T220" t="n" s="257">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="U220" t="s" s="46">
         <v>43</v>
@@ -7329,16 +7305,16 @@
         <v>253</v>
       </c>
       <c r="C221" t="n" s="47">
-        <v>168.0</v>
+        <v>720.0</v>
       </c>
       <c r="K221" t="n" s="258">
-        <v>77.85</v>
-      </c>
-      <c r="L221" t="s" s="46">
-        <v>43</v>
+        <v>29.81</v>
+      </c>
+      <c r="L221" t="n" s="258">
+        <v>0.65</v>
       </c>
       <c r="T221" t="n" s="258">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="U221" t="s" s="46">
         <v>43</v>
@@ -7352,16 +7328,16 @@
         <v>254</v>
       </c>
       <c r="C222" t="n" s="47">
-        <v>720.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K222" t="n" s="259">
-        <v>77.85</v>
+        <v>64.3</v>
       </c>
       <c r="L222" t="n" s="259">
-        <v>2.1</v>
+        <v>0.15</v>
       </c>
       <c r="T222" t="n" s="259">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="U222" t="s" s="46">
         <v>43</v>
@@ -7375,16 +7351,16 @@
         <v>255</v>
       </c>
       <c r="C223" t="n" s="47">
-        <v>744.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K223" t="n" s="260">
-        <v>76.0</v>
+        <v>41.65</v>
       </c>
       <c r="L223" t="n" s="260">
-        <v>2.0</v>
+        <v>0.65</v>
       </c>
       <c r="T223" t="n" s="260">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="U223" t="s" s="46">
         <v>43</v>
@@ -7398,16 +7374,16 @@
         <v>256</v>
       </c>
       <c r="C224" t="n" s="47">
-        <v>744.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K224" t="n" s="261">
-        <v>74.6</v>
+        <v>67.89</v>
       </c>
       <c r="L224" t="n" s="261">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="T224" t="n" s="261">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="U224" t="s" s="46">
         <v>43</v>
@@ -7421,16 +7397,16 @@
         <v>257</v>
       </c>
       <c r="C225" t="n" s="47">
-        <v>672.0</v>
+        <v>2209.0</v>
       </c>
       <c r="K225" t="n" s="262">
-        <v>72.92</v>
+        <v>74.18</v>
       </c>
       <c r="L225" t="n" s="262">
-        <v>0.64</v>
+        <v>-0.05</v>
       </c>
       <c r="T225" t="n" s="262">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="U225" t="s" s="46">
         <v>43</v>
@@ -7444,16 +7420,16 @@
         <v>258</v>
       </c>
       <c r="C226" t="n" s="47">
-        <v>743.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K226" t="n" s="263">
-        <v>45.75</v>
+        <v>64.91</v>
       </c>
       <c r="L226" t="n" s="263">
-        <v>0.23</v>
+        <v>-0.05</v>
       </c>
       <c r="T226" t="n" s="263">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="U226" t="s" s="46">
         <v>43</v>
@@ -7467,16 +7443,16 @@
         <v>259</v>
       </c>
       <c r="C227" t="n" s="47">
-        <v>720.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K227" t="n" s="264">
-        <v>29.16</v>
+        <v>36.22</v>
       </c>
       <c r="L227" t="n" s="264">
-        <v>0.7</v>
+        <v>-0.05</v>
       </c>
       <c r="T227" t="n" s="264">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U227" t="s" s="46">
         <v>43</v>
@@ -7490,16 +7466,16 @@
         <v>260</v>
       </c>
       <c r="C228" t="n" s="47">
-        <v>2159.0</v>
+        <v>2208.0</v>
       </c>
       <c r="K228" t="n" s="265">
-        <v>64.15</v>
+        <v>65.04</v>
       </c>
       <c r="L228" t="n" s="265">
-        <v>0.4</v>
+        <v>-0.05</v>
       </c>
       <c r="T228" t="n" s="265">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="U228" t="s" s="46">
         <v>43</v>
@@ -7513,16 +7489,16 @@
         <v>261</v>
       </c>
       <c r="C229" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K229" t="n" s="266">
-        <v>41.0</v>
+        <v>62.05</v>
       </c>
       <c r="L229" t="n" s="266">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="T229" t="n" s="266">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U229" t="s" s="46">
         <v>43</v>
@@ -7536,13 +7512,13 @@
         <v>262</v>
       </c>
       <c r="C230" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K230" t="n" s="267">
-        <v>67.64</v>
+        <v>59.35</v>
       </c>
       <c r="L230" t="n" s="267">
-        <v>0.46</v>
+        <v>-0.05</v>
       </c>
       <c r="T230" t="n" s="267">
         <v>3.0</v>
@@ -7559,16 +7535,16 @@
         <v>263</v>
       </c>
       <c r="C231" t="n" s="47">
-        <v>2209.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K231" t="n" s="268">
-        <v>74.23</v>
+        <v>58.85</v>
       </c>
       <c r="L231" t="n" s="268">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="T231" t="n" s="268">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U231" t="s" s="46">
         <v>43</v>
@@ -7582,16 +7558,16 @@
         <v>264</v>
       </c>
       <c r="C232" t="n" s="47">
-        <v>2159.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K232" t="n" s="269">
-        <v>64.96</v>
+        <v>58.3</v>
       </c>
       <c r="L232" t="n" s="269">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T232" t="n" s="269">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U232" t="s" s="46">
         <v>43</v>
@@ -7605,16 +7581,16 @@
         <v>265</v>
       </c>
       <c r="C233" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K233" t="n" s="270">
-        <v>36.27</v>
+        <v>58.0</v>
       </c>
       <c r="L233" t="n" s="270">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T233" t="n" s="270">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U233" t="s" s="46">
         <v>43</v>
@@ -7628,13 +7604,13 @@
         <v>266</v>
       </c>
       <c r="C234" t="n" s="47">
-        <v>2208.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K234" t="n" s="271">
-        <v>65.09</v>
+        <v>58.0</v>
       </c>
       <c r="L234" t="n" s="271">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T234" t="n" s="271">
         <v>3.0</v>
@@ -7651,16 +7627,16 @@
         <v>267</v>
       </c>
       <c r="C235" t="n" s="47">
-        <v>8760.0</v>
+        <v>8784.0</v>
       </c>
       <c r="K235" t="n" s="272">
-        <v>61.8</v>
+        <v>58.0</v>
       </c>
       <c r="L235" t="n" s="272">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T235" t="n" s="272">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U235" t="s" s="46">
         <v>43</v>
@@ -7677,10 +7653,10 @@
         <v>8760.0</v>
       </c>
       <c r="K236" t="n" s="273">
-        <v>59.4</v>
+        <v>57.85</v>
       </c>
       <c r="L236" t="n" s="273">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="T236" t="n" s="273">
         <v>3.0</v>
@@ -7697,10 +7673,10 @@
         <v>269</v>
       </c>
       <c r="C237" t="n" s="47">
-        <v>8784.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K237" t="n" s="274">
-        <v>58.85</v>
+        <v>57.85</v>
       </c>
       <c r="L237" t="n" s="274">
         <v>0.0</v>
@@ -7723,7 +7699,7 @@
         <v>8760.0</v>
       </c>
       <c r="K238" t="n" s="275">
-        <v>58.3</v>
+        <v>57.85</v>
       </c>
       <c r="L238" t="n" s="275">
         <v>0.0</v>
@@ -7743,19 +7719,19 @@
         <v>271</v>
       </c>
       <c r="C239" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K239" t="n" s="276">
-        <v>58.0</v>
+        <v>5.09</v>
       </c>
       <c r="L239" t="n" s="276">
-        <v>0.0</v>
+        <v>0.48</v>
       </c>
       <c r="T239" t="n" s="276">
-        <v>3.0</v>
-      </c>
-      <c r="U239" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U239" t="n" s="276">
+        <v>0.29</v>
       </c>
     </row>
     <row r="240">
@@ -7766,19 +7742,19 @@
         <v>272</v>
       </c>
       <c r="C240" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K240" t="n" s="277">
-        <v>58.0</v>
+        <v>4.33</v>
       </c>
       <c r="L240" t="n" s="277">
-        <v>0.0</v>
+        <v>0.43</v>
       </c>
       <c r="T240" t="n" s="277">
-        <v>3.0</v>
-      </c>
-      <c r="U240" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U240" t="n" s="277">
+        <v>0.29</v>
       </c>
     </row>
     <row r="241">
@@ -7789,19 +7765,19 @@
         <v>273</v>
       </c>
       <c r="C241" t="n" s="47">
-        <v>8784.0</v>
+        <v>720.0</v>
       </c>
       <c r="K241" t="n" s="278">
-        <v>58.0</v>
+        <v>3.63</v>
       </c>
       <c r="L241" t="n" s="278">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="T241" t="n" s="278">
-        <v>3.0</v>
-      </c>
-      <c r="U241" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U241" t="n" s="278">
+        <v>0.29</v>
       </c>
     </row>
     <row r="242">
@@ -7812,19 +7788,19 @@
         <v>274</v>
       </c>
       <c r="C242" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K242" t="n" s="279">
-        <v>57.85</v>
+        <v>3.0</v>
       </c>
       <c r="L242" t="n" s="279">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="T242" t="n" s="279">
-        <v>3.0</v>
-      </c>
-      <c r="U242" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U242" t="n" s="279">
+        <v>0.29</v>
       </c>
     </row>
     <row r="243">
@@ -7835,19 +7811,19 @@
         <v>275</v>
       </c>
       <c r="C243" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K243" t="n" s="280">
-        <v>57.85</v>
+        <v>0.11</v>
       </c>
       <c r="L243" t="n" s="280">
-        <v>0.0</v>
+        <v>-0.05</v>
       </c>
       <c r="T243" t="n" s="280">
-        <v>3.0</v>
-      </c>
-      <c r="U243" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U243" t="n" s="280">
+        <v>0.29</v>
       </c>
     </row>
     <row r="244">
@@ -7858,19 +7834,19 @@
         <v>276</v>
       </c>
       <c r="C244" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K244" t="n" s="281">
-        <v>57.85</v>
+        <v>0.18</v>
       </c>
       <c r="L244" t="n" s="281">
-        <v>0.0</v>
+        <v>-0.07</v>
       </c>
       <c r="T244" t="n" s="281">
-        <v>4.0</v>
-      </c>
-      <c r="U244" t="s" s="46">
-        <v>43</v>
+        <v>0.0</v>
+      </c>
+      <c r="U244" t="n" s="281">
+        <v>0.29</v>
       </c>
     </row>
     <row r="245">
@@ -7884,10 +7860,10 @@
         <v>720.0</v>
       </c>
       <c r="K245" t="n" s="282">
-        <v>4.61</v>
+        <v>0.28</v>
       </c>
       <c r="L245" t="n" s="282">
-        <v>1.35</v>
+        <v>-0.1</v>
       </c>
       <c r="T245" t="n" s="282">
         <v>0.0</v>
@@ -7907,10 +7883,10 @@
         <v>720.0</v>
       </c>
       <c r="K246" t="n" s="283">
-        <v>3.9</v>
+        <v>0.41</v>
       </c>
       <c r="L246" t="n" s="283">
-        <v>1.22</v>
+        <v>-0.14</v>
       </c>
       <c r="T246" t="n" s="283">
         <v>0.0</v>
@@ -7927,13 +7903,13 @@
         <v>279</v>
       </c>
       <c r="C247" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K247" t="n" s="284">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="L247" t="n" s="284">
-        <v>1.07</v>
+        <v>0.32</v>
       </c>
       <c r="T247" t="n" s="284">
         <v>0.0</v>
@@ -7950,13 +7926,13 @@
         <v>280</v>
       </c>
       <c r="C248" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K248" t="n" s="285">
-        <v>2.66</v>
+        <v>3.52</v>
       </c>
       <c r="L248" t="n" s="285">
-        <v>0.91</v>
+        <v>0.29</v>
       </c>
       <c r="T248" t="n" s="285">
         <v>0.0</v>
@@ -7973,13 +7949,13 @@
         <v>281</v>
       </c>
       <c r="C249" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K249" t="n" s="286">
-        <v>0.16</v>
+        <v>3.04</v>
       </c>
       <c r="L249" t="n" s="286">
-        <v>-0.27</v>
+        <v>0.26</v>
       </c>
       <c r="T249" t="n" s="286">
         <v>0.0</v>
@@ -7996,13 +7972,13 @@
         <v>282</v>
       </c>
       <c r="C250" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K250" t="n" s="287">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="L250" t="n" s="287">
-        <v>-0.37</v>
+        <v>0.23</v>
       </c>
       <c r="T250" t="n" s="287">
         <v>0.0</v>
@@ -8019,13 +7995,13 @@
         <v>283</v>
       </c>
       <c r="C251" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K251" t="n" s="288">
-        <v>0.38</v>
+        <v>1.08</v>
       </c>
       <c r="L251" t="n" s="288">
-        <v>-0.47</v>
+        <v>-0.16</v>
       </c>
       <c r="T251" t="n" s="288">
         <v>0.0</v>
@@ -8042,13 +8018,13 @@
         <v>284</v>
       </c>
       <c r="C252" t="n" s="47">
-        <v>720.0</v>
+        <v>744.0</v>
       </c>
       <c r="K252" t="n" s="289">
-        <v>0.55</v>
+        <v>1.35</v>
       </c>
       <c r="L252" t="n" s="289">
-        <v>-0.6</v>
+        <v>-0.19</v>
       </c>
       <c r="T252" t="n" s="289">
         <v>0.0</v>
@@ -8068,10 +8044,10 @@
         <v>744.0</v>
       </c>
       <c r="K253" t="n" s="290">
-        <v>3.73</v>
+        <v>1.67</v>
       </c>
       <c r="L253" t="n" s="290">
-        <v>0.95</v>
+        <v>-0.22</v>
       </c>
       <c r="T253" t="n" s="290">
         <v>0.0</v>
@@ -8091,10 +8067,10 @@
         <v>744.0</v>
       </c>
       <c r="K254" t="n" s="291">
-        <v>3.23</v>
+        <v>2.04</v>
       </c>
       <c r="L254" t="n" s="291">
-        <v>0.85</v>
+        <v>-0.25</v>
       </c>
       <c r="T254" t="n" s="291">
         <v>0.0</v>
@@ -8111,19 +8087,19 @@
         <v>287</v>
       </c>
       <c r="C255" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K255" t="n" s="292">
-        <v>2.78</v>
+        <v>1.61</v>
       </c>
       <c r="L255" t="n" s="292">
-        <v>0.76</v>
+        <v>0.04</v>
       </c>
       <c r="T255" t="n" s="292">
         <v>0.0</v>
       </c>
       <c r="U255" t="n" s="292">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="256">
@@ -8134,19 +8110,19 @@
         <v>288</v>
       </c>
       <c r="C256" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K256" t="n" s="293">
-        <v>2.37</v>
+        <v>1.31</v>
       </c>
       <c r="L256" t="n" s="293">
-        <v>0.67</v>
+        <v>0.03</v>
       </c>
       <c r="T256" t="n" s="293">
         <v>0.0</v>
       </c>
       <c r="U256" t="n" s="293">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="257">
@@ -8157,19 +8133,19 @@
         <v>289</v>
       </c>
       <c r="C257" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K257" t="n" s="294">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="L257" t="n" s="294">
-        <v>-0.66</v>
+        <v>0.02</v>
       </c>
       <c r="T257" t="n" s="294">
         <v>0.0</v>
       </c>
       <c r="U257" t="n" s="294">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="258">
@@ -8180,19 +8156,19 @@
         <v>290</v>
       </c>
       <c r="C258" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K258" t="n" s="295">
-        <v>1.54</v>
+        <v>0.84</v>
       </c>
       <c r="L258" t="n" s="295">
-        <v>-0.75</v>
+        <v>0.02</v>
       </c>
       <c r="T258" t="n" s="295">
         <v>0.0</v>
       </c>
       <c r="U258" t="n" s="295">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="259">
@@ -8203,19 +8179,19 @@
         <v>291</v>
       </c>
       <c r="C259" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K259" t="n" s="296">
-        <v>1.89</v>
+        <v>2.54</v>
       </c>
       <c r="L259" t="n" s="296">
-        <v>-0.85</v>
+        <v>-0.09</v>
       </c>
       <c r="T259" t="n" s="296">
         <v>0.0</v>
       </c>
       <c r="U259" t="n" s="296">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="260">
@@ -8226,19 +8202,19 @@
         <v>292</v>
       </c>
       <c r="C260" t="n" s="47">
-        <v>744.0</v>
+        <v>2159.0</v>
       </c>
       <c r="K260" t="n" s="297">
-        <v>2.29</v>
+        <v>3.07</v>
       </c>
       <c r="L260" t="n" s="297">
-        <v>-0.95</v>
+        <v>-0.09</v>
       </c>
       <c r="T260" t="n" s="297">
         <v>0.0</v>
       </c>
       <c r="U260" t="n" s="297">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="261">
@@ -8252,10 +8228,10 @@
         <v>2159.0</v>
       </c>
       <c r="K261" t="n" s="298">
-        <v>1.57</v>
+        <v>3.66</v>
       </c>
       <c r="L261" t="n" s="298">
-        <v>0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="T261" t="n" s="298">
         <v>0.0</v>
@@ -8275,10 +8251,10 @@
         <v>2159.0</v>
       </c>
       <c r="K262" t="n" s="299">
-        <v>1.28</v>
+        <v>4.3</v>
       </c>
       <c r="L262" t="n" s="299">
-        <v>0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="T262" t="n" s="299">
         <v>0.0</v>
@@ -8295,19 +8271,19 @@
         <v>295</v>
       </c>
       <c r="C263" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K263" t="n" s="300">
-        <v>1.03</v>
+        <v>4.37</v>
       </c>
       <c r="L263" t="n" s="300">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="T263" t="n" s="300">
         <v>0.0</v>
       </c>
       <c r="U263" t="n" s="300">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="264">
@@ -8318,19 +8294,19 @@
         <v>296</v>
       </c>
       <c r="C264" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K264" t="n" s="301">
-        <v>0.82</v>
+        <v>3.8</v>
       </c>
       <c r="L264" t="n" s="301">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="T264" t="n" s="301">
         <v>0.0</v>
       </c>
       <c r="U264" t="n" s="301">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="265">
@@ -8341,19 +8317,19 @@
         <v>297</v>
       </c>
       <c r="C265" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K265" t="n" s="302">
-        <v>2.63</v>
+        <v>3.27</v>
       </c>
       <c r="L265" t="n" s="302">
-        <v>-0.24</v>
+        <v>0.34</v>
       </c>
       <c r="T265" t="n" s="302">
         <v>0.0</v>
       </c>
       <c r="U265" t="n" s="302">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="266">
@@ -8364,19 +8340,19 @@
         <v>298</v>
       </c>
       <c r="C266" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K266" t="n" s="303">
-        <v>3.16</v>
+        <v>2.81</v>
       </c>
       <c r="L266" t="n" s="303">
-        <v>-0.27</v>
+        <v>0.32</v>
       </c>
       <c r="T266" t="n" s="303">
         <v>0.0</v>
       </c>
       <c r="U266" t="n" s="303">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="267">
@@ -8387,19 +8363,19 @@
         <v>299</v>
       </c>
       <c r="C267" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K267" t="n" s="304">
-        <v>3.76</v>
+        <v>0.61</v>
       </c>
       <c r="L267" t="n" s="304">
-        <v>-0.29</v>
+        <v>-0.1</v>
       </c>
       <c r="T267" t="n" s="304">
         <v>0.0</v>
       </c>
       <c r="U267" t="n" s="304">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="268">
@@ -8410,19 +8386,19 @@
         <v>300</v>
       </c>
       <c r="C268" t="n" s="47">
-        <v>2159.0</v>
+        <v>2184.0</v>
       </c>
       <c r="K268" t="n" s="305">
-        <v>4.41</v>
+        <v>0.82</v>
       </c>
       <c r="L268" t="n" s="305">
-        <v>-0.31</v>
+        <v>-0.13</v>
       </c>
       <c r="T268" t="n" s="305">
         <v>0.0</v>
       </c>
       <c r="U268" t="n" s="305">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="269">
@@ -8436,10 +8412,10 @@
         <v>2184.0</v>
       </c>
       <c r="K269" t="n" s="306">
-        <v>3.95</v>
+        <v>1.08</v>
       </c>
       <c r="L269" t="n" s="306">
-        <v>0.41</v>
+        <v>-0.16</v>
       </c>
       <c r="T269" t="n" s="306">
         <v>0.0</v>
@@ -8459,10 +8435,10 @@
         <v>2184.0</v>
       </c>
       <c r="K270" t="n" s="307">
-        <v>3.41</v>
+        <v>1.38</v>
       </c>
       <c r="L270" t="n" s="307">
-        <v>0.37</v>
+        <v>-0.2</v>
       </c>
       <c r="T270" t="n" s="307">
         <v>0.0</v>
@@ -8479,19 +8455,19 @@
         <v>303</v>
       </c>
       <c r="C271" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K271" t="n" s="308">
-        <v>2.93</v>
+        <v>1.19</v>
       </c>
       <c r="L271" t="n" s="308">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="T271" t="n" s="308">
         <v>0.0</v>
       </c>
       <c r="U271" t="n" s="308">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="272">
@@ -8502,19 +8478,19 @@
         <v>304</v>
       </c>
       <c r="C272" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K272" t="n" s="309">
-        <v>2.49</v>
+        <v>0.94</v>
       </c>
       <c r="L272" t="n" s="309">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="T272" t="n" s="309">
         <v>0.0</v>
       </c>
       <c r="U272" t="n" s="309">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="273">
@@ -8525,19 +8501,19 @@
         <v>305</v>
       </c>
       <c r="C273" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K273" t="n" s="310">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="L273" t="n" s="310">
-        <v>-0.14</v>
+        <v>0.04</v>
       </c>
       <c r="T273" t="n" s="310">
         <v>0.0</v>
       </c>
       <c r="U273" t="n" s="310">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="274">
@@ -8548,19 +8524,19 @@
         <v>306</v>
       </c>
       <c r="C274" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K274" t="n" s="311">
-        <v>0.95</v>
+        <v>0.58</v>
       </c>
       <c r="L274" t="n" s="311">
-        <v>-0.17</v>
+        <v>0.03</v>
       </c>
       <c r="T274" t="n" s="311">
         <v>0.0</v>
       </c>
       <c r="U274" t="n" s="311">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="275">
@@ -8571,19 +8547,19 @@
         <v>307</v>
       </c>
       <c r="C275" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K275" t="n" s="312">
-        <v>1.24</v>
+        <v>2.6</v>
       </c>
       <c r="L275" t="n" s="312">
-        <v>-0.21</v>
+        <v>-0.14</v>
       </c>
       <c r="T275" t="n" s="312">
         <v>0.0</v>
       </c>
       <c r="U275" t="n" s="312">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="276">
@@ -8594,19 +8570,19 @@
         <v>308</v>
       </c>
       <c r="C276" t="n" s="47">
-        <v>2184.0</v>
+        <v>8760.0</v>
       </c>
       <c r="K276" t="n" s="313">
-        <v>1.58</v>
+        <v>3.15</v>
       </c>
       <c r="L276" t="n" s="313">
-        <v>-0.24</v>
+        <v>-0.15</v>
       </c>
       <c r="T276" t="n" s="313">
         <v>0.0</v>
       </c>
       <c r="U276" t="n" s="313">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="277">
@@ -8620,10 +8596,10 @@
         <v>8760.0</v>
       </c>
       <c r="K277" t="n" s="314">
-        <v>1.13</v>
+        <v>3.75</v>
       </c>
       <c r="L277" t="n" s="314">
-        <v>0.1</v>
+        <v>-0.17</v>
       </c>
       <c r="T277" t="n" s="314">
         <v>0.0</v>
@@ -8643,10 +8619,10 @@
         <v>8760.0</v>
       </c>
       <c r="K278" t="n" s="315">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="L278" t="n" s="315">
-        <v>0.08</v>
+        <v>-0.18</v>
       </c>
       <c r="T278" t="n" s="315">
         <v>0.0</v>
@@ -8663,19 +8639,19 @@
         <v>311</v>
       </c>
       <c r="C279" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K279" t="n" s="316">
-        <v>0.71</v>
+        <v>0.0</v>
       </c>
       <c r="L279" t="n" s="316">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="T279" t="n" s="316">
         <v>0.0</v>
       </c>
-      <c r="U279" t="n" s="316">
-        <v>0.24</v>
+      <c r="U279" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="280">
@@ -8686,19 +8662,19 @@
         <v>312</v>
       </c>
       <c r="C280" t="n" s="47">
-        <v>8760.0</v>
+        <v>720.0</v>
       </c>
       <c r="K280" t="n" s="317">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="L280" t="n" s="317">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="T280" t="n" s="317">
         <v>0.0</v>
       </c>
-      <c r="U280" t="n" s="317">
-        <v>0.24</v>
+      <c r="U280" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="281">
@@ -8709,19 +8685,19 @@
         <v>313</v>
       </c>
       <c r="C281" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K281" t="n" s="318">
-        <v>2.74</v>
+        <v>0.0</v>
       </c>
       <c r="L281" t="n" s="318">
-        <v>-0.31</v>
+        <v>0.0</v>
       </c>
       <c r="T281" t="n" s="318">
         <v>0.0</v>
       </c>
-      <c r="U281" t="n" s="318">
-        <v>0.24</v>
+      <c r="U281" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="282">
@@ -8732,19 +8708,19 @@
         <v>314</v>
       </c>
       <c r="C282" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K282" t="n" s="319">
-        <v>3.3</v>
+        <v>0.0</v>
       </c>
       <c r="L282" t="n" s="319">
-        <v>-0.33</v>
+        <v>0.0</v>
       </c>
       <c r="T282" t="n" s="319">
         <v>0.0</v>
       </c>
-      <c r="U282" t="n" s="319">
-        <v>0.24</v>
+      <c r="U282" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="283">
@@ -8755,19 +8731,19 @@
         <v>315</v>
       </c>
       <c r="C283" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K283" t="n" s="320">
-        <v>3.92</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n" s="320">
-        <v>-0.36</v>
+        <v>0.0</v>
       </c>
       <c r="T283" t="n" s="320">
         <v>0.0</v>
       </c>
-      <c r="U283" t="n" s="320">
-        <v>0.24</v>
+      <c r="U283" t="s" s="46">
+        <v>43</v>
       </c>
     </row>
     <row r="284">
@@ -8778,156 +8754,18 @@
         <v>316</v>
       </c>
       <c r="C284" t="n" s="47">
-        <v>8760.0</v>
+        <v>744.0</v>
       </c>
       <c r="K284" t="n" s="321">
-        <v>4.59</v>
+        <v>0.0</v>
       </c>
       <c r="L284" t="n" s="321">
-        <v>-0.38</v>
+        <v>0.0</v>
       </c>
       <c r="T284" t="n" s="321">
         <v>0.0</v>
       </c>
-      <c r="U284" t="n" s="321">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B285" t="s">
-        <v>317</v>
-      </c>
-      <c r="C285" t="n" s="47">
-        <v>720.0</v>
-      </c>
-      <c r="K285" t="n" s="322">
-        <v>0.0</v>
-      </c>
-      <c r="L285" t="n" s="322">
-        <v>0.0</v>
-      </c>
-      <c r="T285" t="n" s="322">
-        <v>0.0</v>
-      </c>
-      <c r="U285" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B286" t="s">
-        <v>318</v>
-      </c>
-      <c r="C286" t="n" s="47">
-        <v>720.0</v>
-      </c>
-      <c r="K286" t="n" s="323">
-        <v>0.0</v>
-      </c>
-      <c r="L286" t="n" s="323">
-        <v>0.0</v>
-      </c>
-      <c r="T286" t="n" s="323">
-        <v>0.0</v>
-      </c>
-      <c r="U286" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B287" t="s">
-        <v>319</v>
-      </c>
-      <c r="C287" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K287" t="n" s="324">
-        <v>0.0</v>
-      </c>
-      <c r="L287" t="n" s="324">
-        <v>0.0</v>
-      </c>
-      <c r="T287" t="n" s="324">
-        <v>0.0</v>
-      </c>
-      <c r="U287" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B288" t="s">
-        <v>320</v>
-      </c>
-      <c r="C288" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K288" t="n" s="325">
-        <v>0.0</v>
-      </c>
-      <c r="L288" t="n" s="325">
-        <v>0.0</v>
-      </c>
-      <c r="T288" t="n" s="325">
-        <v>0.0</v>
-      </c>
-      <c r="U288" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B289" t="s">
-        <v>321</v>
-      </c>
-      <c r="C289" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K289" t="n" s="326">
-        <v>0.0</v>
-      </c>
-      <c r="L289" t="n" s="326">
-        <v>0.0</v>
-      </c>
-      <c r="T289" t="n" s="326">
-        <v>0.0</v>
-      </c>
-      <c r="U289" t="s" s="46">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s" s="46">
-        <v>5</v>
-      </c>
-      <c r="B290" t="s">
-        <v>322</v>
-      </c>
-      <c r="C290" t="n" s="47">
-        <v>744.0</v>
-      </c>
-      <c r="K290" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="L290" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="T290" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="U290" t="s" s="46">
+      <c r="U284" t="s" s="46">
         <v>43</v>
       </c>
     </row>
